--- a/03_Displacement_Data_Collection_Tables.xlsx
+++ b/03_Displacement_Data_Collection_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC E 301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A775F789-BA90-4C7B-92A7-BBAEEC6CE457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0297397-BF13-4145-8961-A25A5A129D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Info and Rubric" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
   <si>
     <t xml:space="preserve">Student Surname: </t>
   </si>
@@ -357,9 +357,6 @@
     <t>center diff</t>
   </si>
   <si>
-    <t>forward diff</t>
-  </si>
-  <si>
     <t>a)</t>
   </si>
   <si>
@@ -421,6 +418,21 @@
   </si>
   <si>
     <t>smal</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>ssresid</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>ssreg</t>
+  </si>
+  <si>
+    <t>displacement</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2422,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3183999999999996</c:v>
+                  <c:v>3.2183999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.7458</c:v>
@@ -2505,7 +2517,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3183999999999996</c:v>
+                  <c:v>3.2183999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.7458</c:v>
@@ -2535,25 +2547,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.45008898705423661</c:v>
+                  <c:v>-5.4682341856953087E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3526457418924771</c:v>
+                  <c:v>0.39923496654021307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50240375438618656</c:v>
+                  <c:v>0.86319975403865001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.242131386762761</c:v>
+                  <c:v>1.3629637622388628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.951830902766222</c:v>
+                  <c:v>1.89598843318951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4713597193004588</c:v>
+                  <c:v>2.4065257589345155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8095395078376626</c:v>
+                  <c:v>2.8575555592439379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,7 +2876,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3183999999999996</c:v>
+                  <c:v>3.2183999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.7458</c:v>
@@ -5125,639 +5137,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Motion!$E$5:$E$216</c:f>
+              <c:f>Motion!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="212"/>
-                <c:pt idx="1">
-                  <c:v>5.0480769230769216</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3569711538461471</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1850961538461502</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.266826923076934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9579326923076925</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5372596153846088</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6274038461538449</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5757211538461466</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2235576923077005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7427884615384694</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4723557692307669</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.69110576923077305</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.0144230769234168E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-9.0144230769234251E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.3521634615384714</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2.3437500000000067</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.3052884615384603</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-4.4471153846153788</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.7560096153846181</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.8846153846153846</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-4.1766826923076819</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4.957932692307697</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-4.927884615384623</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5.6189903846153806</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-4.6574519230769198</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-3.485576923076922</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-4.1766826923076961</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-4.2668269230769296</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-3.485576923076922</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-3.2752403846153864</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-2.4038461538461497</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.4423076923076832</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.69110576923076705</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.12019230769230789</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.12019230769230789</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.7427884615384577</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.9747596153846168</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.1334134615384612</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.8629807692307594</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.1334134615384617</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.1334134615384683</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.3137019230769234</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.1033653846153815</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.4723557692307683</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.99158653846154343</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.6610576923076934</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.48076923076922995</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.12019230769230749</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-9.0144230769234251E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.39062499999999728</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-1.7427884615384643</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-2.4338942307692379</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-2.524038461538459</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-2.524038461538459</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-1.7427884615384643</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-1.6225961538461564</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-2.0432692307692339</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-2.0432692307692339</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-1.8329326923076918</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-1.5624999999999853</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-1.0817307692307638</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.48076923076923156</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-9.0144230769227576E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.0817307692307643</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.2235576923076894</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.9230769230769262</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2235576923076961</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.5757211538461564</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.9963942307692339</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.8377403846153895</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.7091346153846176</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.4771634615384652</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.6658653846153904</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4.7475961538461551</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.957932692307697</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.7475961538461551</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.7175480769230811</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.4855769230769056</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.82451923076921</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.6141826923076996</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.0432692307692339</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.6225961538461497</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.1418269230769182</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.69110576923077371</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.30048076923077638</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-0.69110576923077371</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-2.704326923076934</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-4.0564903846153815</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-3.3954326923076943</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-2.7944711538461551</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-4.176682692307689</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-5.5288461538461631</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-6.099759615384615</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-6.9711538461538503</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-6.280048076923042</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-5.5288461538461258</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-6.4903846153846256</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-6.8810096153846168</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-7.0612980769230784</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-7.0612980769230846</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-5.3485576923076943</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-3.7860576923076916</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-3.4855769230769287</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-3.004807692307697</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-1.9230769230769262</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-1.0516826923076907</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-0.57091346153845912</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-0.30048076923076972</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>9.0144230769227576E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.2620192307692328</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.8329326923076985</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>3.0949519230769247</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>4.5372596153845892</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>4.5673076923076925</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>5.528846153846156</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>5.5288461538461631</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>3.7860576923076916</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>4.5372596153846123</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>5.8894230769230864</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5.4086538461538547</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5.528846153846156</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>5.0480769230769242</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3.1850961538461524</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2.6141826923076583</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2.914663461538463</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2.4338942307692313</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.8329326923076918</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1.3521634615384603</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.87139423076924216</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.27043269230770273</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-0.87139423076924216</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-1.6225961538461631</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-1.2319711538461524</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-1.5625000000000024</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-2.0432692307692339</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-1.9230769230769262</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-2.2235576923076894</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-2.0432692307692273</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-1.3521634615384603</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-1.2620192307692328</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-1.1718749999999896</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-0.69110576923076705</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-0.39062499999999728</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-0.27043269230769607</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-0.18028846153846181</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-9.0144230769227576E-2</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.87139423076922884</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2.2235576923076961</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2.2235576923076961</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1.4423076923076945</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1.5324519230769289</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2.3137019230769234</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2.3437499999999969</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1.9531249999999998</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1.6225961538461497</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1.0516826923076974</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.69110576923077371</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.60096153846153944</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.39062499999999206</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-0.39062499999999728</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-0.69110576923077371</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-1.6526442307692368</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-2.914663461538463</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-3.6658653846153837</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-4.6274038461538538</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-4.3569711538461577</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-2.914663461538463</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-3.876201923076926</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-5.528846153846156</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-5.4387019230769216</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-6.1899038461538494</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-6.0997596153846221</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-3.9663461538461604</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-3.876201923076926</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-4.5673076923076925</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-3.6658653846153904</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>-2.9747596153845772</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>-2.524038461538459</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-1.7427884615384643</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>-0.78125000000000122</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>-0.12019230769230789</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>1.2620192307692328</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2.914663461538463</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>4.2668269230769234</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>5.7091346153846176</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>5.6189903846153904</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>4.1766826923076961</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>4.7475961538461551</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>6.7608173076923155</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>6.0997596153846221</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>3.9663461538461537</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>2.4038461538461258</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1.4723557692307749</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.87139423076922884</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.57091346153845912</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.30048076923076972</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>9.0144230769234251E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12009,8 +11394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B5DFEB-27AC-C14C-9885-2E931D118C39}">
   <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12402,11 +11787,11 @@
       <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" cm="1">
+      <c r="F19" s="30" cm="1">
         <f t="array" ref="F19:G23">LINEST(A19:A72,B19:B72,TRUE,TRUE)</f>
         <v>12.672448500887921</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="30">
         <v>-1.4986066386336461</v>
       </c>
       <c r="H19" t="s">
@@ -12435,10 +11820,10 @@
       <c r="E20" t="s">
         <v>66</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="30">
         <v>9.2285207594737621E-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="30">
         <v>1.6152135395924142E-2</v>
       </c>
       <c r="H20" t="s">
@@ -12467,10 +11852,10 @@
       <c r="E21" t="s">
         <v>68</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="30">
         <v>0.99997242379592899</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="30">
         <v>5.800562919739867E-2</v>
       </c>
       <c r="H21" t="s">
@@ -12496,14 +11881,18 @@
         <v>3.608390107224186</v>
       </c>
       <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22">
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="30">
         <v>1885631.7535061738</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="30">
         <v>52</v>
       </c>
-      <c r="H22"/>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -12524,12 +11913,17 @@
         <v>3.608390107224186</v>
       </c>
       <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23">
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="30">
         <v>6344.4965713763659</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="30">
         <v>0.17496195696647768</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
@@ -14637,7 +14031,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -14659,11 +14053,11 @@
         <f t="shared" ref="A87:D91" si="30">E19</f>
         <v>slope</v>
       </c>
-      <c r="B87" s="31">
+      <c r="B87" s="33">
         <f t="shared" si="30"/>
         <v>12.672448500887921</v>
       </c>
-      <c r="C87" s="31">
+      <c r="C87" s="33">
         <f t="shared" si="30"/>
         <v>-1.4986066386336461</v>
       </c>
@@ -14688,11 +14082,11 @@
         <f t="shared" si="30"/>
         <v>standard err slope</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="30">
         <f t="shared" si="30"/>
         <v>9.2285207594737621E-3</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="30">
         <f t="shared" si="30"/>
         <v>1.6152135395924142E-2</v>
       </c>
@@ -14717,11 +14111,11 @@
         <f t="shared" si="30"/>
         <v>r^2</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="30">
         <f t="shared" si="30"/>
         <v>0.99997242379592899</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="30">
         <f t="shared" si="30"/>
         <v>5.800562919739867E-2</v>
       </c>
@@ -14742,22 +14136,16 @@
       <c r="O89"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="B90">
+      <c r="A90"/>
+      <c r="B90" s="30">
         <f t="shared" si="30"/>
         <v>1885631.7535061738</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="30">
         <f t="shared" si="30"/>
         <v>52</v>
       </c>
-      <c r="D90">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90"/>
@@ -14771,22 +14159,16 @@
       <c r="O90"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="B91">
+      <c r="A91"/>
+      <c r="B91" s="30">
         <f t="shared" si="30"/>
         <v>6344.4965713763659</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="30">
         <f t="shared" si="30"/>
         <v>0.17496195696647768</v>
       </c>
-      <c r="D91">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
@@ -14870,7 +14252,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -16496,15 +15878,15 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -16512,12 +15894,12 @@
         <v>7</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B153" s="41">
         <f>F54</f>
@@ -16591,13 +15973,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B21470-895B-2C48-91C6-DD3DC8C93A51}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
@@ -16673,19 +16055,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="17">
-        <v>2.319</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="D5" s="17">
-        <v>2.319</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="E5" s="17">
-        <v>2.3159999999999998</v>
+        <v>3.2160000000000002</v>
       </c>
       <c r="F5" s="17">
-        <v>2.319</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="G5" s="17">
-        <v>2.319</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -16867,7 +16249,7 @@
         <v>36</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -16924,23 +16306,23 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.319</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="D18">
-        <v>2.319</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="E18">
-        <v>2.3159999999999998</v>
+        <v>3.2160000000000002</v>
       </c>
       <c r="F18">
-        <v>2.319</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="G18">
-        <v>2.319</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="H18" s="30">
         <f>AVERAGE(C18:G18)</f>
-        <v>2.3183999999999996</v>
+        <v>3.2183999999999999</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -17199,16 +16581,16 @@
       <c r="A26"/>
       <c r="B26" s="31" cm="1">
         <f t="array" ref="B26:E30">LINEST(B18:B24,H18:H24^{1,2,3}, TRUE, TRUE)</f>
-        <v>1.3525074929941778</v>
+        <v>-0.34269401961771823</v>
       </c>
       <c r="C26" s="31">
-        <v>-7.0983801246582905</v>
+        <v>2.9865159451000407</v>
       </c>
       <c r="D26" s="31">
-        <v>9.6429312243747969</v>
+        <v>-9.5067247089362947</v>
       </c>
       <c r="E26" s="31">
-        <v>-0.60651142755721565</v>
+        <v>11.080568753423044</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -17227,16 +16609,16 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27">
-        <v>1.9108729491936893</v>
+        <v>6.6963352211656724E-2</v>
       </c>
       <c r="C27">
-        <v>11.848641893271543</v>
+        <v>0.45804293907580934</v>
       </c>
       <c r="D27">
-        <v>23.835756851155569</v>
+        <v>1.0030286453212274</v>
       </c>
       <c r="E27">
-        <v>15.502530296233171</v>
+        <v>0.70114301071346552</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
@@ -17255,10 +16637,10 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28">
-        <v>0.94236827580696769</v>
+        <v>0.99963390852811007</v>
       </c>
       <c r="C28">
-        <v>0.35748472637785311</v>
+        <v>2.8491905213518225E-2</v>
       </c>
       <c r="D28" t="e">
         <v>#N/A</v>
@@ -17283,7 +16665,7 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29">
-        <v>16.351554443358129</v>
+        <v>2730.5577575117218</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -17311,10 +16693,10 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30">
-        <v>6.2689568683625083</v>
+        <v>6.6499074911547655</v>
       </c>
       <c r="C30">
-        <v>0.38338598878034547</v>
+        <v>2.4353659880883213E-3</v>
       </c>
       <c r="D30" t="e">
         <v>#N/A</v>
@@ -17399,7 +16781,7 @@
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -17421,10 +16803,10 @@
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>110</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -17445,11 +16827,11 @@
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36">
-        <v>2.3183999999999996</v>
+        <v>3.2183999999999999</v>
       </c>
       <c r="C36">
         <f>$B$26*B36^3+$C$26*B36^2+$D$26*B36+$E$26</f>
-        <v>0.45008898705423661</v>
+        <v>-5.4682341856953087E-3</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -17474,7 +16856,7 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:C42" si="2">$B$26*B37^3+$C$26*B37^2+$D$26*B37+$E$26</f>
-        <v>0.3526457418924771</v>
+        <v>0.39923496654021307</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -17499,7 +16881,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>0.50240375438618656</v>
+        <v>0.86319975403865001</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -17524,7 +16906,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
-        <v>1.242131386762761</v>
+        <v>1.3629637622388628</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -17549,7 +16931,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
-        <v>1.951830902766222</v>
+        <v>1.89598843318951</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -17574,7 +16956,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>2.4713597193004588</v>
+        <v>2.4065257589345155</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -17599,7 +16981,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>2.8095395078376626</v>
+        <v>2.8575555592439379</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -17619,7 +17001,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -17709,23 +17091,23 @@
       </c>
       <c r="B46" s="30">
         <f>$B$26*C18^3+$C$26*C18^2+$D$26*C18+$E$26</f>
-        <v>0.44921277359133782</v>
+        <v>-6.02760677465497E-3</v>
       </c>
       <c r="C46" s="30">
         <f t="shared" ref="C46:F46" si="3">$B$26*D18^3+$C$26*D18^2+$D$26*D18+$E$26</f>
-        <v>0.44921277359133782</v>
+        <v>-6.02760677465497E-3</v>
       </c>
       <c r="D46" s="30">
         <f t="shared" si="3"/>
-        <v>0.45361044515325233</v>
+        <v>-3.2330596846854576E-3</v>
       </c>
       <c r="E46" s="30">
         <f t="shared" si="3"/>
-        <v>0.44921277359133782</v>
+        <v>-6.02760677465497E-3</v>
       </c>
       <c r="F46" s="30">
         <f t="shared" si="3"/>
-        <v>0.44921277359133782</v>
+        <v>-6.02760677465497E-3</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -17746,23 +17128,23 @@
       </c>
       <c r="B47" s="30">
         <f t="shared" ref="B47:F47" si="4">$B$26*C19^3+$C$26*C19^2+$D$26*C19+$E$26</f>
-        <v>0.35289646831080645</v>
+        <v>0.39906355033086172</v>
       </c>
       <c r="C47" s="30">
         <f t="shared" si="4"/>
-        <v>0.34075506593478977</v>
+        <v>0.40765071681144605</v>
       </c>
       <c r="D47" s="30">
         <f t="shared" si="4"/>
-        <v>0.35289646831080645</v>
+        <v>0.39906355033086172</v>
       </c>
       <c r="E47" s="30">
         <f t="shared" si="4"/>
-        <v>0.35289646831080645</v>
+        <v>0.39906355033086172</v>
       </c>
       <c r="F47" s="30">
         <f t="shared" si="4"/>
-        <v>0.36451495076949314</v>
+        <v>0.39136310094557203</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -17783,23 +17165,23 @@
       </c>
       <c r="B48" s="30">
         <f t="shared" ref="B48:F48" si="5">$B$26*C20^3+$C$26*C20^2+$D$26*C20+$E$26</f>
-        <v>0.501436115493199</v>
+        <v>0.86246380776664822</v>
       </c>
       <c r="C48" s="30">
         <f t="shared" si="5"/>
-        <v>0.51776635025956708</v>
+        <v>0.8747898311803759</v>
       </c>
       <c r="D48" s="30">
         <f t="shared" si="5"/>
-        <v>0.50628992092411451</v>
+        <v>0.86614813691804926</v>
       </c>
       <c r="E48" s="30">
         <f t="shared" si="5"/>
-        <v>0.501436115493199</v>
+        <v>0.86246380776664822</v>
       </c>
       <c r="F48" s="30">
         <f t="shared" si="5"/>
-        <v>0.48554049247478659</v>
+        <v>0.85026525404104625</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -17820,23 +17202,23 @@
       </c>
       <c r="B49" s="30">
         <f t="shared" ref="B49:F49" si="6">$B$26*C21^3+$C$26*C21^2+$D$26*C21+$E$26</f>
-        <v>1.2342880330756962</v>
+        <v>1.3576491335272447</v>
       </c>
       <c r="C49" s="30">
         <f t="shared" si="6"/>
-        <v>1.2108467376199599</v>
+        <v>1.3418110549671454</v>
       </c>
       <c r="D49" s="30">
         <f t="shared" si="6"/>
-        <v>1.2604882797937549</v>
+        <v>1.3754335973326519</v>
       </c>
       <c r="E49" s="30">
         <f t="shared" si="6"/>
-        <v>1.2526115990606144</v>
+        <v>1.3700775189747265</v>
       </c>
       <c r="F49" s="30">
         <f t="shared" si="6"/>
-        <v>1.2526115990606144</v>
+        <v>1.3700775189747265</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -17857,23 +17239,23 @@
       </c>
       <c r="B50" s="30">
         <f t="shared" ref="B50:F50" si="7">$B$26*C22^3+$C$26*C22^2+$D$26*C22+$E$26</f>
-        <v>1.9749931660327817</v>
+        <v>1.9158598658495105</v>
       </c>
       <c r="C50" s="30">
         <f t="shared" si="7"/>
-        <v>1.9749931660327817</v>
+        <v>1.9158598658495105</v>
       </c>
       <c r="D50" s="30">
         <f t="shared" si="7"/>
-        <v>1.9474148684764874</v>
+        <v>1.892223463366701</v>
       </c>
       <c r="E50" s="30">
         <f t="shared" si="7"/>
-        <v>1.9391314462134055</v>
+        <v>1.8851813895058864</v>
       </c>
       <c r="F50" s="30">
         <f t="shared" si="7"/>
-        <v>1.9225522359805804</v>
+        <v>1.8711645243273054</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -17894,23 +17276,23 @@
       </c>
       <c r="B51" s="30">
         <f t="shared" ref="B51:F51" si="8">$B$26*C23^3+$C$26*C23^2+$D$26*C23+$E$26</f>
-        <v>2.4638313637650331</v>
+        <v>2.3978882104723471</v>
       </c>
       <c r="C51" s="30">
         <f t="shared" si="8"/>
-        <v>2.478869272817338</v>
+        <v>2.4151894545119212</v>
       </c>
       <c r="D51" s="30">
         <f t="shared" si="8"/>
-        <v>2.478869272817338</v>
+        <v>2.4151894545119212</v>
       </c>
       <c r="E51" s="30">
         <f t="shared" si="8"/>
-        <v>2.4713597193004588</v>
+        <v>2.4065257589345155</v>
       </c>
       <c r="F51" s="30">
         <f t="shared" si="8"/>
-        <v>2.4638313637650331</v>
+        <v>2.3978882104723471</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -17931,23 +17313,23 @@
       </c>
       <c r="B52" s="30">
         <f t="shared" ref="B52:F52" si="9">$B$26*C24^3+$C$26*C24^2+$D$26*C24+$E$26</f>
-        <v>2.7937862846215804</v>
+        <v>2.8330182186994559</v>
       </c>
       <c r="C52" s="30">
         <f t="shared" si="9"/>
-        <v>2.8359488921288207</v>
+        <v>2.8997395337348539</v>
       </c>
       <c r="D52" s="30">
         <f t="shared" si="9"/>
-        <v>2.8150320953664902</v>
+        <v>2.8662183988513554</v>
       </c>
       <c r="E52" s="30">
         <f t="shared" si="9"/>
-        <v>2.7937862846215804</v>
+        <v>2.8330182186994559</v>
       </c>
       <c r="F52" s="30">
         <f t="shared" si="9"/>
-        <v>2.8086925293766409</v>
+        <v>2.8562247381144346</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -18074,23 +17456,23 @@
       </c>
       <c r="B57" s="29">
         <f>B46-$A46</f>
-        <v>0.44921277359133782</v>
+        <v>-6.02760677465497E-3</v>
       </c>
       <c r="C57" s="29">
         <f t="shared" ref="C57:F57" si="10">C46-$A46</f>
-        <v>0.44921277359133782</v>
+        <v>-6.02760677465497E-3</v>
       </c>
       <c r="D57" s="29">
         <f t="shared" si="10"/>
-        <v>0.45361044515325233</v>
+        <v>-3.2330596846854576E-3</v>
       </c>
       <c r="E57" s="29">
         <f t="shared" si="10"/>
-        <v>0.44921277359133782</v>
+        <v>-6.02760677465497E-3</v>
       </c>
       <c r="F57" s="29">
         <f t="shared" si="10"/>
-        <v>0.44921277359133782</v>
+        <v>-6.02760677465497E-3</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -18111,23 +17493,23 @@
       </c>
       <c r="B58" s="29">
         <f t="shared" ref="B58:F58" si="11">B47-$A47</f>
-        <v>-2.710353168919255E-2</v>
+        <v>1.9063550330862711E-2</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" si="11"/>
-        <v>-3.9244934065209236E-2</v>
+        <v>2.765071681144704E-2</v>
       </c>
       <c r="D58" s="29">
         <f t="shared" si="11"/>
-        <v>-2.710353168919255E-2</v>
+        <v>1.9063550330862711E-2</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="11"/>
-        <v>-2.710353168919255E-2</v>
+        <v>1.9063550330862711E-2</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="11"/>
-        <v>-1.5485049230505865E-2</v>
+        <v>1.1363100945573024E-2</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -18148,23 +17530,23 @@
       </c>
       <c r="B59" s="29">
         <f t="shared" ref="B59:F59" si="12">B48-$A48</f>
-        <v>-0.37856388450680001</v>
+        <v>-1.7536192233350789E-2</v>
       </c>
       <c r="C59" s="29">
         <f t="shared" si="12"/>
-        <v>-0.36223364974043193</v>
+        <v>-5.2101688196231066E-3</v>
       </c>
       <c r="D59" s="29">
         <f t="shared" si="12"/>
-        <v>-0.37371007907588449</v>
+        <v>-1.3851863081949745E-2</v>
       </c>
       <c r="E59" s="29">
         <f t="shared" si="12"/>
-        <v>-0.37856388450680001</v>
+        <v>-1.7536192233350789E-2</v>
       </c>
       <c r="F59" s="29">
         <f t="shared" si="12"/>
-        <v>-0.39445950752521242</v>
+        <v>-2.9734745958952757E-2</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -18185,23 +17567,23 @@
       </c>
       <c r="B60" s="29">
         <f t="shared" ref="B60:F60" si="13">B49-$A49</f>
-        <v>-0.14571196692430277</v>
+        <v>-2.2350866472754305E-2</v>
       </c>
       <c r="C60" s="29">
         <f t="shared" si="13"/>
-        <v>-0.16915326238003914</v>
+        <v>-3.8188945032853638E-2</v>
       </c>
       <c r="D60" s="29">
         <f t="shared" si="13"/>
-        <v>-0.11951172020624412</v>
+        <v>-4.5664026673470914E-3</v>
       </c>
       <c r="E60" s="29">
         <f t="shared" si="13"/>
-        <v>-0.12738840093938464</v>
+        <v>-9.9224810252724893E-3</v>
       </c>
       <c r="F60" s="29">
         <f t="shared" si="13"/>
-        <v>-0.12738840093938464</v>
+        <v>-9.9224810252724893E-3</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -18222,23 +17604,23 @@
       </c>
       <c r="B61" s="29">
         <f t="shared" ref="B61:F61" si="14">B50-$A50</f>
-        <v>9.4993166032782739E-2</v>
+        <v>3.5859865849511507E-2</v>
       </c>
       <c r="C61" s="29">
         <f t="shared" si="14"/>
-        <v>9.4993166032782739E-2</v>
+        <v>3.5859865849511507E-2</v>
       </c>
       <c r="D61" s="29">
         <f t="shared" si="14"/>
-        <v>6.7414868476488365E-2</v>
+        <v>1.2223463366701992E-2</v>
       </c>
       <c r="E61" s="29">
         <f t="shared" si="14"/>
-        <v>5.9131446213406491E-2</v>
+        <v>5.1813895058874238E-3</v>
       </c>
       <c r="F61" s="29">
         <f t="shared" si="14"/>
-        <v>4.2552235980581443E-2</v>
+        <v>-8.8354756726936046E-3</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -18259,23 +17641,23 @@
       </c>
       <c r="B62" s="29">
         <f t="shared" ref="B62:F62" si="15">B51-$A51</f>
-        <v>8.3831363765034084E-2</v>
+        <v>1.7888210472348121E-2</v>
       </c>
       <c r="C62" s="29">
         <f t="shared" si="15"/>
-        <v>9.8869272817339038E-2</v>
+        <v>3.5189454511922236E-2</v>
       </c>
       <c r="D62" s="29">
         <f t="shared" si="15"/>
-        <v>9.8869272817339038E-2</v>
+        <v>3.5189454511922236E-2</v>
       </c>
       <c r="E62" s="29">
         <f t="shared" si="15"/>
-        <v>9.135971930045983E-2</v>
+        <v>2.6525758934516475E-2</v>
       </c>
       <c r="F62" s="29">
         <f t="shared" si="15"/>
-        <v>8.3831363765034084E-2</v>
+        <v>1.7888210472348121E-2</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -18296,23 +17678,23 @@
       </c>
       <c r="B63" s="29">
         <f t="shared" ref="B63:F63" si="16">B52-$A52</f>
-        <v>-8.6213715378418598E-2</v>
+        <v>-4.6981781300543091E-2</v>
       </c>
       <c r="C63" s="29">
         <f t="shared" si="16"/>
-        <v>-4.4051107871178274E-2</v>
+        <v>1.973953373485493E-2</v>
       </c>
       <c r="D63" s="29">
         <f t="shared" si="16"/>
-        <v>-6.4967904633508766E-2</v>
+        <v>-1.3781601148643574E-2</v>
       </c>
       <c r="E63" s="29">
         <f t="shared" si="16"/>
-        <v>-8.6213715378418598E-2</v>
+        <v>-4.6981781300543091E-2</v>
       </c>
       <c r="F63" s="29">
         <f t="shared" si="16"/>
-        <v>-7.1307470623358071E-2</v>
+        <v>-2.3775261885564447E-2</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -18349,11 +17731,11 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="29">
         <f t="array" ref="B65">MAX(ABS(B57:F64))</f>
-        <v>0.45361044515325233</v>
+        <v>4.6981781300543091E-2</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -18374,7 +17756,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -18397,16 +17779,16 @@
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" cm="1">
         <f t="array" ref="A67:D71">LINEST(H18:H24,B18:B24^{1,2,3}, TRUE, TRUE)</f>
-        <v>0.19778424042336354</v>
+        <v>-4.0778331146351626E-2</v>
       </c>
       <c r="B67">
-        <v>-0.89772726926383062</v>
+        <v>0.35664330477194106</v>
       </c>
       <c r="C67">
-        <v>0.58784039141120437</v>
+        <v>-1.3383059747179238</v>
       </c>
       <c r="D67">
-        <v>2.420062805221173</v>
+        <v>3.2137899470424713</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
@@ -18425,16 +17807,16 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.10705353790867621</v>
+        <v>5.3771638911085645E-3</v>
       </c>
       <c r="B68">
-        <v>0.47083361735443863</v>
+        <v>2.3649377455587359E-2</v>
       </c>
       <c r="C68">
-        <v>0.55198305115832857</v>
+        <v>2.7725410940874141E-2</v>
       </c>
       <c r="D68">
-        <v>0.160445468202872</v>
+        <v>8.0589730612030015E-3</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
@@ -18453,10 +17835,10 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.94236858950534819</v>
+        <v>0.99992200876384241</v>
       </c>
       <c r="B69">
-        <v>0.17084925679036028</v>
+        <v>8.5815422113331655E-3</v>
       </c>
       <c r="C69" t="e">
         <v>#N/A</v>
@@ -18481,7 +17863,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>16.351648891064368</v>
+        <v>12820.953456146945</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -18509,10 +17891,10 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1.4318878229339729</v>
+        <v>2.832515299971254</v>
       </c>
       <c r="B71">
-        <v>8.7568405637455424E-2</v>
+        <v>2.2092860017467874E-4</v>
       </c>
       <c r="C71" t="e">
         <v>#N/A</v>
@@ -18557,7 +17939,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -18580,15 +17962,15 @@
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>3*A67</f>
-        <v>0.59335272127009064</v>
+        <v>-0.12233499343905488</v>
       </c>
       <c r="B74">
         <f>2*B67</f>
-        <v>-1.7954545385276612</v>
+        <v>0.71328660954388212</v>
       </c>
       <c r="C74">
         <f>C67</f>
-        <v>0.58784039141120437</v>
+        <v>-1.3383059747179238</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -18608,11 +17990,11 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75">
         <f>A74*3^2+B74*3+C74</f>
-        <v>0.54165126725903578</v>
+        <v>-0.29946108703777141</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -19361,8 +18743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A93B05A-7C0F-3C47-AB87-40F830A8ACAF}">
   <dimension ref="A2:I280"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19396,10 +18778,10 @@
         <v>96</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -19417,6 +18799,9 @@
       <c r="D4" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
@@ -19435,6 +18820,10 @@
         <f>B5/10^6</f>
         <v>0</v>
       </c>
+      <c r="E5" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C5+'Potentiometer cal'!$G$19</f>
+        <v>22.224216955028542</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
     </row>
@@ -19454,8 +18843,12 @@
         <v>1.6639999999999999E-2</v>
       </c>
       <c r="E6" s="3">
-        <f>(C7-C5)/(D7-D5)</f>
-        <v>5.0480769230769216</v>
+        <f>'Potentiometer cal'!$F$19*Motion!C6+'Potentiometer cal'!$G$19</f>
+        <v>23.250685283600465</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(E7-E5)/(D7-D5)</f>
+        <v>63.971494836213097</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -19474,8 +18867,12 @@
         <v>3.3279999999999997E-2</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:E70" si="2">(C8-C6)/(D8-D6)</f>
-        <v>4.3569711538461471</v>
+        <f>'Potentiometer cal'!$F$19*Motion!C7+'Potentiometer cal'!$G$19</f>
+        <v>24.353188303177713</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F70" si="2">(E8-E6)/(D8-D6)</f>
+        <v>55.213492566969471</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -19494,8 +18891,12 @@
         <v>4.9919999999999999E-2</v>
       </c>
       <c r="E8" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C8+'Potentiometer cal'!$G$19</f>
+        <v>25.088190316229209</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>3.1850961538461502</v>
+        <v>40.362966979991469</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19514,8 +18915,12 @@
         <v>6.6559999999999994E-2</v>
       </c>
       <c r="E9" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C9+'Potentiometer cal'!$G$19</f>
+        <v>25.69646784427183</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>4.266826923076934</v>
+        <v>54.071144444894493</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19534,8 +18939,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="E10" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C10+'Potentiometer cal'!$G$19</f>
+        <v>26.887678003355298</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>4.9579326923076925</v>
+        <v>62.829146714137877</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -19554,8 +18963,12 @@
         <v>9.9839999999999998E-2</v>
       </c>
       <c r="E11" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C11+'Potentiometer cal'!$G$19</f>
+        <v>27.787421846918338</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>4.5372596153846088</v>
+        <v>57.498188811119995</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -19574,8 +18987,12 @@
         <v>0.11648</v>
       </c>
       <c r="E12" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C12+'Potentiometer cal'!$G$19</f>
+        <v>28.801217726989371</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="2"/>
-        <v>4.6274038461538449</v>
+        <v>58.640536933195229</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -19594,8 +19011,12 @@
         <v>0.13311999999999999</v>
       </c>
       <c r="E13" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C13+'Potentiometer cal'!$G$19</f>
+        <v>29.738978916055075</v>
+      </c>
+      <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>3.5757211538461466</v>
+        <v>45.313142175650874</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -19614,8 +19035,12 @@
         <v>0.14976</v>
       </c>
       <c r="E14" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C14+'Potentiometer cal'!$G$19</f>
+        <v>30.309239098595032</v>
+      </c>
+      <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>2.2235576923077005</v>
+        <v>28.177920344522555</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -19634,8 +19059,12 @@
         <v>0.16639999999999999</v>
       </c>
       <c r="E15" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C15+'Potentiometer cal'!$G$19</f>
+        <v>30.676740105120786</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>1.7427884615384694</v>
+        <v>22.085397026787938</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -19654,11 +19083,15 @@
         <v>0.18304000000000001</v>
       </c>
       <c r="E16" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C16+'Potentiometer cal'!$G$19</f>
+        <v>31.044241111646535</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="2"/>
-        <v>1.4723557692307669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.658352660562105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>48956412</v>
       </c>
@@ -19674,11 +19107,15 @@
         <v>0.19968</v>
       </c>
       <c r="E17" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C17+'Potentiometer cal'!$G$19</f>
+        <v>31.297690081664292</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="2"/>
-        <v>0.69110576923077305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.7580022692435016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>48973052</v>
       </c>
@@ -19694,11 +19131,15 @@
         <v>0.21632000000000001</v>
       </c>
       <c r="E18" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C18+'Potentiometer cal'!$G$19</f>
+        <v>31.335707427166959</v>
+      </c>
+      <c r="F18" s="3">
         <f t="shared" si="2"/>
-        <v>9.0144230769234168E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1423481220753138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>48989692</v>
       </c>
@@ -19714,11 +19155,15 @@
         <v>0.23296</v>
       </c>
       <c r="E19" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C19+'Potentiometer cal'!$G$19</f>
+        <v>31.335707427166959</v>
+      </c>
+      <c r="F19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>49006332</v>
       </c>
@@ -19734,11 +19179,15 @@
         <v>0.24959999999999999</v>
       </c>
       <c r="E20" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C20+'Potentiometer cal'!$G$19</f>
+        <v>31.335707427166959</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="2"/>
-        <v>-9.0144230769234251E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.1423481220753147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>49022972</v>
       </c>
@@ -19754,11 +19203,15 @@
         <v>0.26623999999999998</v>
       </c>
       <c r="E21" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C21+'Potentiometer cal'!$G$19</f>
+        <v>31.297690081664292</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="2"/>
-        <v>-1.3521634615384714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-17.135221831128625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>49039612</v>
       </c>
@@ -19774,11 +19227,15 @@
         <v>0.28288000000000002</v>
       </c>
       <c r="E22" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C22+'Potentiometer cal'!$G$19</f>
+        <v>30.765447244626998</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="2"/>
-        <v>-2.3437500000000067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-29.701051173956103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>49056252</v>
       </c>
@@ -19794,11 +19251,15 @@
         <v>0.29952000000000001</v>
       </c>
       <c r="E23" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C23+'Potentiometer cal'!$G$19</f>
+        <v>30.309239098595032</v>
+      </c>
+      <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>-3.3052884615384603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-41.886097809425181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>49072892</v>
       </c>
@@ -19814,11 +19275,15 @@
         <v>0.31616</v>
       </c>
       <c r="E24" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C24+'Potentiometer cal'!$G$19</f>
+        <v>29.371477909529329</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="2"/>
-        <v>-4.4471153846153788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-56.355840689044726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>49089532</v>
       </c>
@@ -19834,11 +19299,15 @@
         <v>0.33279999999999998</v>
       </c>
       <c r="E25" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C25+'Potentiometer cal'!$G$19</f>
+        <v>28.433716720463625</v>
+      </c>
+      <c r="F25" s="3">
         <f t="shared" si="2"/>
-        <v>-3.7560096153846181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-47.597838419801434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>49106172</v>
       </c>
@@ -19854,11 +19323,15 @@
         <v>0.34943999999999997</v>
       </c>
       <c r="E26" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C26+'Potentiometer cal'!$G$19</f>
+        <v>27.787421846918338</v>
+      </c>
+      <c r="F26" s="3">
         <f t="shared" si="2"/>
-        <v>-2.8846153846153846</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-36.555139906407554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>49122812</v>
       </c>
@@ -19874,11 +19347,15 @@
         <v>0.36608000000000002</v>
       </c>
       <c r="E27" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C27+'Potentiometer cal'!$G$19</f>
+        <v>27.217161664378381</v>
+      </c>
+      <c r="F27" s="3">
         <f t="shared" si="2"/>
-        <v>-4.1766826923076819</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-52.928796322819018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>49139452</v>
       </c>
@@ -19894,11 +19371,15 @@
         <v>0.38272</v>
       </c>
       <c r="E28" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C28+'Potentiometer cal'!$G$19</f>
+        <v>26.02595150529492</v>
+      </c>
+      <c r="F28" s="3">
         <f t="shared" si="2"/>
-        <v>-4.957932692307697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-62.829146714137821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>49156092</v>
       </c>
@@ -19914,11 +19395,15 @@
         <v>0.39935999999999999</v>
       </c>
       <c r="E29" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C29+'Potentiometer cal'!$G$19</f>
+        <v>25.126207661731875</v>
+      </c>
+      <c r="F29" s="3">
         <f t="shared" si="2"/>
-        <v>-4.927884615384623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-62.448364006779563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>49172732</v>
       </c>
@@ -19934,11 +19419,15 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="E30" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C30+'Potentiometer cal'!$G$19</f>
+        <v>23.947669951149297</v>
+      </c>
+      <c r="F30" s="3">
         <f t="shared" si="2"/>
-        <v>-5.6189903846153806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-71.206366276022848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>49189372</v>
       </c>
@@ -19954,11 +19443,15 @@
         <v>0.43264000000000002</v>
       </c>
       <c r="E31" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C31+'Potentiometer cal'!$G$19</f>
+        <v>22.756459792065833</v>
+      </c>
+      <c r="F31" s="3">
         <f t="shared" si="2"/>
-        <v>-4.6574519230769198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-59.021319640553628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>49206012</v>
       </c>
@@ -19974,11 +19467,15 @@
         <v>0.44928000000000001</v>
       </c>
       <c r="E32" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C32+'Potentiometer cal'!$G$19</f>
+        <v>21.983440433511671</v>
+      </c>
+      <c r="F32" s="3">
         <f t="shared" si="2"/>
-        <v>-3.485576923076922</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-44.170794053575705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>49222652</v>
       </c>
@@ -19994,11 +19491,15 @@
         <v>0.46592</v>
       </c>
       <c r="E33" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C33+'Potentiometer cal'!$G$19</f>
+        <v>21.286455765962835</v>
+      </c>
+      <c r="F33" s="3">
         <f t="shared" si="2"/>
-        <v>-4.1766826923076961</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-52.92879632281921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>49239292</v>
       </c>
@@ -20014,11 +19515,15 @@
         <v>0.48255999999999999</v>
       </c>
       <c r="E34" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C34+'Potentiometer cal'!$G$19</f>
+        <v>20.221970091888249</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="2"/>
-        <v>-4.2668269230769296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.071144444894422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>49255932</v>
       </c>
@@ -20034,11 +19539,15 @@
         <v>0.49919999999999998</v>
       </c>
       <c r="E35" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C35+'Potentiometer cal'!$G$19</f>
+        <v>19.48696807883675</v>
+      </c>
+      <c r="F35" s="3">
         <f t="shared" si="2"/>
-        <v>-3.485576923076922</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-44.170794053575705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>49272572</v>
       </c>
@@ -20054,11 +19563,15 @@
         <v>0.51583999999999997</v>
       </c>
       <c r="E36" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C36+'Potentiometer cal'!$G$19</f>
+        <v>18.75196606578525</v>
+      </c>
+      <c r="F36" s="3">
         <f t="shared" si="2"/>
-        <v>-3.2752403846153864</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-41.50531510206681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>49289212</v>
       </c>
@@ -20074,11 +19587,15 @@
         <v>0.53247999999999995</v>
       </c>
       <c r="E37" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C37+'Potentiometer cal'!$G$19</f>
+        <v>18.105671192239967</v>
+      </c>
+      <c r="F37" s="3">
         <f t="shared" si="2"/>
-        <v>-2.4038461538461497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-30.462616588672784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>49305852</v>
       </c>
@@ -20094,11 +19611,15 @@
         <v>0.54912000000000005</v>
       </c>
       <c r="E38" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C38+'Potentiometer cal'!$G$19</f>
+        <v>17.738170185714218</v>
+      </c>
+      <c r="F38" s="3">
         <f t="shared" si="2"/>
-        <v>-1.4423076923076832</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-18.277569953203692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>49322492</v>
       </c>
@@ -20114,11 +19635,15 @@
         <v>0.56576000000000004</v>
       </c>
       <c r="E39" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C39+'Potentiometer cal'!$G$19</f>
+        <v>17.497393664197347</v>
+      </c>
+      <c r="F39" s="3">
         <f t="shared" si="2"/>
-        <v>-0.69110576923076705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.7580022692434021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>49339132</v>
       </c>
@@ -20134,11 +19659,15 @@
         <v>0.58240000000000003</v>
       </c>
       <c r="E40" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C40+'Potentiometer cal'!$G$19</f>
+        <v>17.446703870193797</v>
+      </c>
+      <c r="F40" s="3">
         <f t="shared" si="2"/>
-        <v>-0.12019230769230789</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.523130829433575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>49355772</v>
       </c>
@@ -20154,11 +19683,15 @@
         <v>0.59904000000000002</v>
       </c>
       <c r="E41" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C41+'Potentiometer cal'!$G$19</f>
+        <v>17.446703870193797</v>
+      </c>
+      <c r="F41" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>49372412</v>
       </c>
@@ -20174,11 +19707,15 @@
         <v>0.61568000000000001</v>
       </c>
       <c r="E42" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C42+'Potentiometer cal'!$G$19</f>
+        <v>17.446703870193797</v>
+      </c>
+      <c r="F42" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>49389052</v>
       </c>
@@ -20194,11 +19731,15 @@
         <v>0.63231999999999999</v>
       </c>
       <c r="E43" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C43+'Potentiometer cal'!$G$19</f>
+        <v>17.446703870193797</v>
+      </c>
+      <c r="F43" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>49405692</v>
       </c>
@@ -20214,11 +19755,15 @@
         <v>0.64895999999999998</v>
       </c>
       <c r="E44" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C44+'Potentiometer cal'!$G$19</f>
+        <v>17.446703870193797</v>
+      </c>
+      <c r="F44" s="3">
         <f t="shared" si="2"/>
-        <v>0.12019230769230789</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.523130829433575</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>49422332</v>
       </c>
@@ -20234,11 +19779,15 @@
         <v>0.66559999999999997</v>
       </c>
       <c r="E45" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C45+'Potentiometer cal'!$G$19</f>
+        <v>17.497393664197347</v>
+      </c>
+      <c r="F45" s="3">
         <f t="shared" si="2"/>
-        <v>1.7427884615384577</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.085397026787746</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>49438972</v>
       </c>
@@ -20254,11 +19803,15 @@
         <v>0.68223999999999996</v>
       </c>
       <c r="E46" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C46+'Potentiometer cal'!$G$19</f>
+        <v>18.181705883245293</v>
+      </c>
+      <c r="F46" s="3">
         <f t="shared" si="2"/>
-        <v>2.9747596153846168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.697488028482717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>49455612</v>
       </c>
@@ -20274,11 +19827,15 @@
         <v>0.69887999999999995</v>
       </c>
       <c r="E47" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C47+'Potentiometer cal'!$G$19</f>
+        <v>18.75196606578525</v>
+      </c>
+      <c r="F47" s="3">
         <f t="shared" si="2"/>
-        <v>2.1334134615384612</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.035572222447172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>49472252</v>
       </c>
@@ -20294,11 +19851,15 @@
         <v>0.71552000000000004</v>
       </c>
       <c r="E48" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C48+'Potentiometer cal'!$G$19</f>
+        <v>19.081449726808337</v>
+      </c>
+      <c r="F48" s="3">
         <f t="shared" si="2"/>
-        <v>1.8629807692307594</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.608527856221453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>49488892</v>
       </c>
@@ -20314,11 +19875,15 @@
         <v>0.73216000000000003</v>
       </c>
       <c r="E49" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C49+'Potentiometer cal'!$G$19</f>
+        <v>19.537657872840303</v>
+      </c>
+      <c r="F49" s="3">
         <f t="shared" si="2"/>
-        <v>2.1334134615384617</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.035572222447264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49505532</v>
       </c>
@@ -20334,11 +19899,15 @@
         <v>0.74880000000000002</v>
       </c>
       <c r="E50" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C50+'Potentiometer cal'!$G$19</f>
+        <v>19.981193570371381</v>
+      </c>
+      <c r="F50" s="3">
         <f t="shared" si="2"/>
-        <v>2.1334134615384683</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.035572222447264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49522172</v>
       </c>
@@ -20354,11 +19923,15 @@
         <v>0.76544000000000001</v>
       </c>
       <c r="E51" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C51+'Potentiometer cal'!$G$19</f>
+        <v>20.437401716403347</v>
+      </c>
+      <c r="F51" s="3">
         <f t="shared" si="2"/>
-        <v>2.3137019230769234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.320268466597572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>49538812</v>
       </c>
@@ -20374,11 +19947,15 @@
         <v>0.78208</v>
       </c>
       <c r="E52" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C52+'Potentiometer cal'!$G$19</f>
+        <v>20.956972104939748</v>
+      </c>
+      <c r="F52" s="3">
         <f t="shared" si="2"/>
-        <v>2.1033653846153815</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.654789515088684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>49555452</v>
       </c>
@@ -20394,11 +19971,15 @@
         <v>0.79871999999999999</v>
       </c>
       <c r="E53" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C53+'Potentiometer cal'!$G$19</f>
+        <v>21.324473111465498</v>
+      </c>
+      <c r="F53" s="3">
         <f t="shared" si="2"/>
-        <v>1.4723557692307683</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.658352660562226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>49572092</v>
       </c>
@@ -20414,11 +19995,15 @@
         <v>0.81535999999999997</v>
       </c>
       <c r="E54" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C54+'Potentiometer cal'!$G$19</f>
+        <v>21.577922081483258</v>
+      </c>
+      <c r="F54" s="3">
         <f t="shared" si="2"/>
-        <v>0.99158653846154343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.565829342827607</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>49588732</v>
       </c>
@@ -20434,11 +20019,15 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="E55" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C55+'Potentiometer cal'!$G$19</f>
+        <v>21.7426639119948</v>
+      </c>
+      <c r="F55" s="3">
         <f t="shared" si="2"/>
-        <v>0.6610576923076934</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.3772195618850365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>49605372</v>
       </c>
@@ -20454,11 +20043,15 @@
         <v>0.84863999999999995</v>
       </c>
       <c r="E56" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C56+'Potentiometer cal'!$G$19</f>
+        <v>21.856715948502792</v>
+      </c>
+      <c r="F56" s="3">
         <f t="shared" si="2"/>
-        <v>0.48076923076922995</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.0925233177345994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>49622012</v>
       </c>
@@ -20474,11 +20067,15 @@
         <v>0.86528000000000005</v>
       </c>
       <c r="E57" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C57+'Potentiometer cal'!$G$19</f>
+        <v>21.945423088009008</v>
+      </c>
+      <c r="F57" s="3">
         <f t="shared" si="2"/>
-        <v>0.12019230769230749</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.5231308294335699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>49638652</v>
       </c>
@@ -20494,11 +20091,15 @@
         <v>0.88192000000000004</v>
       </c>
       <c r="E58" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C58+'Potentiometer cal'!$G$19</f>
+        <v>21.907405742506342</v>
+      </c>
+      <c r="F58" s="3">
         <f t="shared" si="2"/>
-        <v>-9.0144230769234251E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.1423481220753147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>49655292</v>
       </c>
@@ -20514,11 +20115,15 @@
         <v>0.89856000000000003</v>
       </c>
       <c r="E59" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C59+'Potentiometer cal'!$G$19</f>
+        <v>21.907405742506342</v>
+      </c>
+      <c r="F59" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>49671932</v>
       </c>
@@ -20534,11 +20139,15 @@
         <v>0.91520000000000001</v>
       </c>
       <c r="E60" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C60+'Potentiometer cal'!$G$19</f>
+        <v>21.907405742506342</v>
+      </c>
+      <c r="F60" s="3">
         <f t="shared" si="2"/>
-        <v>-0.39062499999999728</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.9501751956593054</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>49688572</v>
       </c>
@@ -20554,11 +20163,15 @@
         <v>0.93184</v>
       </c>
       <c r="E61" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C61+'Potentiometer cal'!$G$19</f>
+        <v>21.7426639119948</v>
+      </c>
+      <c r="F61" s="3">
         <f t="shared" si="2"/>
-        <v>-1.7427884615384643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-22.085397026787852</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>49705212</v>
       </c>
@@ -20574,11 +20187,15 @@
         <v>0.94847999999999999</v>
       </c>
       <c r="E62" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C62+'Potentiometer cal'!$G$19</f>
+        <v>21.172403729454842</v>
+      </c>
+      <c r="F62" s="3">
         <f t="shared" si="2"/>
-        <v>-2.4338942307692379</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-30.843399296031361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>49721852</v>
       </c>
@@ -20594,11 +20211,15 @@
         <v>0.96511999999999998</v>
       </c>
       <c r="E63" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C63+'Potentiometer cal'!$G$19</f>
+        <v>20.716195583422877</v>
+      </c>
+      <c r="F63" s="3">
         <f t="shared" si="2"/>
-        <v>-2.524038461538459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-31.985747418106463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>49738492</v>
       </c>
@@ -20614,11 +20235,15 @@
         <v>0.98175999999999997</v>
       </c>
       <c r="E64" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C64+'Potentiometer cal'!$G$19</f>
+        <v>20.10791805538026</v>
+      </c>
+      <c r="F64" s="3">
         <f t="shared" si="2"/>
-        <v>-2.524038461538459</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-31.985747418106463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>49755132</v>
       </c>
@@ -20634,11 +20259,15 @@
         <v>0.99839999999999995</v>
       </c>
       <c r="E65" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C65+'Potentiometer cal'!$G$19</f>
+        <v>19.651709909348295</v>
+      </c>
+      <c r="F65" s="3">
         <f t="shared" si="2"/>
-        <v>-1.7427884615384643</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-22.085397026787852</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>49771772</v>
       </c>
@@ -20654,11 +20283,15 @@
         <v>1.0150399999999999</v>
       </c>
       <c r="E66" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C66+'Potentiometer cal'!$G$19</f>
+        <v>19.372916042328761</v>
+      </c>
+      <c r="F66" s="3">
         <f t="shared" si="2"/>
-        <v>-1.6225961538461564</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.562266197354276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>49788412</v>
       </c>
@@ -20674,11 +20307,15 @@
         <v>1.0316799999999999</v>
       </c>
       <c r="E67" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C67+'Potentiometer cal'!$G$19</f>
+        <v>18.967397690300345</v>
+      </c>
+      <c r="F67" s="3">
         <f t="shared" si="2"/>
-        <v>-2.0432692307692339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-25.893224100372056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>49805052</v>
       </c>
@@ -20694,11 +20331,15 @@
         <v>1.0483199999999999</v>
       </c>
       <c r="E68" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C68+'Potentiometer cal'!$G$19</f>
+        <v>18.51118954426838</v>
+      </c>
+      <c r="F68" s="3">
         <f t="shared" si="2"/>
-        <v>-2.0432692307692339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-25.893224100371949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>49821692</v>
       </c>
@@ -20714,11 +20355,15 @@
         <v>1.0649599999999999</v>
       </c>
       <c r="E69" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C69+'Potentiometer cal'!$G$19</f>
+        <v>18.105671192239967</v>
+      </c>
+      <c r="F69" s="3">
         <f t="shared" si="2"/>
-        <v>-1.8329326923076918</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-23.227745148863058</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>49838332</v>
       </c>
@@ -20734,11 +20379,15 @@
         <v>1.0815999999999999</v>
       </c>
       <c r="E70" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C70+'Potentiometer cal'!$G$19</f>
+        <v>17.738170185714218</v>
+      </c>
+      <c r="F70" s="3">
         <f t="shared" si="2"/>
-        <v>-1.5624999999999853</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-19.800700782637197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>49854972</v>
       </c>
@@ -20754,11 +20403,15 @@
         <v>1.0982400000000001</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" ref="E71:E134" si="5">(C72-C70)/(D72-D70)</f>
-        <v>-1.0817307692307638</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <f>'Potentiometer cal'!$F$19*Motion!C71+'Potentiometer cal'!$G$19</f>
+        <v>17.446703870193797</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" ref="F71:F134" si="5">(E72-E70)/(D72-D70)</f>
+        <v>-13.708177464902723</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>49871612</v>
       </c>
@@ -20774,11 +20427,15 @@
         <v>1.1148800000000001</v>
       </c>
       <c r="E72" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C72+'Potentiometer cal'!$G$19</f>
+        <v>17.281962039682252</v>
+      </c>
+      <c r="F72" s="3">
         <f t="shared" si="5"/>
-        <v>-0.48076923076923156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-6.0925233177346199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>49888252</v>
       </c>
@@ -20794,11 +20451,15 @@
         <v>1.1315200000000001</v>
       </c>
       <c r="E73" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C73+'Potentiometer cal'!$G$19</f>
+        <v>17.243944694179589</v>
+      </c>
+      <c r="F73" s="3">
         <f t="shared" si="5"/>
-        <v>-9.0144230769227576E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.1423481220752079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>49904892</v>
       </c>
@@ -20814,11 +20475,15 @@
         <v>1.1481600000000001</v>
       </c>
       <c r="E74" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C74+'Potentiometer cal'!$G$19</f>
+        <v>17.243944694179589</v>
+      </c>
+      <c r="F74" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>49921532</v>
       </c>
@@ -20834,11 +20499,15 @@
         <v>1.1648000000000001</v>
       </c>
       <c r="E75" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C75+'Potentiometer cal'!$G$19</f>
+        <v>17.243944694179589</v>
+      </c>
+      <c r="F75" s="3">
         <f t="shared" si="5"/>
-        <v>1.0817307692307643</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.708177464902707</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>49938172</v>
       </c>
@@ -20854,11 +20523,15 @@
         <v>1.18144</v>
       </c>
       <c r="E76" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C76+'Potentiometer cal'!$G$19</f>
+        <v>17.700152840211551</v>
+      </c>
+      <c r="F76" s="3">
         <f t="shared" si="5"/>
-        <v>2.2235576923076894</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.177920344522363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>49954812</v>
       </c>
@@ -20874,11 +20547,15 @@
         <v>1.19808</v>
       </c>
       <c r="E77" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C77+'Potentiometer cal'!$G$19</f>
+        <v>18.181705883245293</v>
+      </c>
+      <c r="F77" s="3">
         <f t="shared" si="5"/>
-        <v>1.9230769230769262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24.370093270938373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>49971452</v>
       </c>
@@ -20894,11 +20571,15 @@
         <v>1.21472</v>
       </c>
       <c r="E78" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C78+'Potentiometer cal'!$G$19</f>
+        <v>18.51118954426838</v>
+      </c>
+      <c r="F78" s="3">
         <f t="shared" si="5"/>
-        <v>2.2235576923076961</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.17792034452247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>49988092</v>
       </c>
@@ -20914,11 +20595,15 @@
         <v>1.23136</v>
       </c>
       <c r="E79" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C79+'Potentiometer cal'!$G$19</f>
+        <v>19.119467072311</v>
+      </c>
+      <c r="F79" s="3">
         <f t="shared" si="5"/>
-        <v>3.5757211538461564</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45.313142175651016</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>50004732</v>
       </c>
@@ -20934,11 +20619,15 @@
         <v>1.248</v>
       </c>
       <c r="E80" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C80+'Potentiometer cal'!$G$19</f>
+        <v>20.019210915874044</v>
+      </c>
+      <c r="F80" s="3">
         <f t="shared" si="5"/>
-        <v>3.9963942307692339</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50.644100078668686</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>50021372</v>
       </c>
@@ -20954,11 +20643,15 @@
         <v>1.26464</v>
       </c>
       <c r="E81" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C81+'Potentiometer cal'!$G$19</f>
+        <v>20.804902722929093</v>
+      </c>
+      <c r="F81" s="3">
         <f t="shared" si="5"/>
-        <v>4.8377403846153895</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61.306015884704138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>50038012</v>
       </c>
@@ -20974,11 +20667,15 @@
         <v>1.28128</v>
       </c>
       <c r="E82" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C82+'Potentiometer cal'!$G$19</f>
+        <v>22.059475124516997</v>
+      </c>
+      <c r="F82" s="3">
         <f t="shared" si="5"/>
-        <v>5.7091346153846176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72.348714398098167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>50054652</v>
       </c>
@@ -20994,11 +20691,15 @@
         <v>1.29792</v>
       </c>
       <c r="E83" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C83+'Potentiometer cal'!$G$19</f>
+        <v>23.212667938097798</v>
+      </c>
+      <c r="F83" s="3">
         <f t="shared" si="5"/>
-        <v>4.4771634615384652</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56.73662339640331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>50071292</v>
       </c>
@@ -21014,11 +20715,15 @@
         <v>1.31456</v>
       </c>
       <c r="E84" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C84+'Potentiometer cal'!$G$19</f>
+        <v>23.947669951149297</v>
+      </c>
+      <c r="F84" s="3">
         <f t="shared" si="5"/>
-        <v>3.6658653846153904</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46.455490297726222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>50087932</v>
       </c>
@@ -21034,11 +20739,15 @@
         <v>1.3311999999999999</v>
       </c>
       <c r="E85" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C85+'Potentiometer cal'!$G$19</f>
+        <v>24.758706655206126</v>
+      </c>
+      <c r="F85" s="3">
         <f t="shared" si="5"/>
-        <v>4.7475961538461551</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60.163667762629039</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>50104572</v>
       </c>
@@ -21054,11 +20763,15 @@
         <v>1.3478399999999999</v>
       </c>
       <c r="E86" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C86+'Potentiometer cal'!$G$19</f>
+        <v>25.94991681428959</v>
+      </c>
+      <c r="F86" s="3">
         <f t="shared" si="5"/>
-        <v>4.957932692307697</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62.829146714137927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>50121212</v>
       </c>
@@ -21074,11 +20787,15 @@
         <v>1.3644799999999999</v>
       </c>
       <c r="E87" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C87+'Potentiometer cal'!$G$19</f>
+        <v>26.849660657852635</v>
+      </c>
+      <c r="F87" s="3">
         <f t="shared" si="5"/>
-        <v>4.7475961538461551</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60.163667762628933</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>50137852</v>
       </c>
@@ -21094,11 +20811,15 @@
         <v>1.3811199999999999</v>
       </c>
       <c r="E88" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C88+'Potentiometer cal'!$G$19</f>
+        <v>27.95216367742988</v>
+      </c>
+      <c r="F88" s="3">
         <f t="shared" si="5"/>
-        <v>4.7175480769230811</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59.782885055270562</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>50154492</v>
       </c>
@@ -21114,11 +20835,15 @@
         <v>1.3977599999999999</v>
       </c>
       <c r="E89" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C89+'Potentiometer cal'!$G$19</f>
+        <v>28.839235072492038</v>
+      </c>
+      <c r="F89" s="3">
         <f t="shared" si="5"/>
-        <v>3.4855769230769056</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44.170794053575406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>50171132</v>
       </c>
@@ -21134,11 +20859,15 @@
         <v>1.4144000000000001</v>
       </c>
       <c r="E90" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C90+'Potentiometer cal'!$G$19</f>
+        <v>29.422167703532878</v>
+      </c>
+      <c r="F90" s="3">
         <f t="shared" si="5"/>
-        <v>2.82451923076921</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35.793574491690322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>50187772</v>
       </c>
@@ -21154,11 +20883,15 @@
         <v>1.4310400000000001</v>
       </c>
       <c r="E91" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C91+'Potentiometer cal'!$G$19</f>
+        <v>30.030445231575499</v>
+      </c>
+      <c r="F91" s="3">
         <f t="shared" si="5"/>
-        <v>2.6141826923076996</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33.128095540181988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>50204412</v>
       </c>
@@ -21174,11 +20907,15 @@
         <v>1.4476800000000001</v>
       </c>
       <c r="E92" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C92+'Potentiometer cal'!$G$19</f>
+        <v>30.524670723110134</v>
+      </c>
+      <c r="F92" s="3">
         <f t="shared" si="5"/>
-        <v>2.0432692307692339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.893224100371949</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>50221052</v>
       </c>
@@ -21194,11 +20931,15 @@
         <v>1.4643200000000001</v>
       </c>
       <c r="E93" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C93+'Potentiometer cal'!$G$19</f>
+        <v>30.892171729635876</v>
+      </c>
+      <c r="F93" s="3">
         <f t="shared" si="5"/>
-        <v>1.6225961538461497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.562266197353956</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>50237692</v>
       </c>
@@ -21214,11 +20955,15 @@
         <v>1.4809600000000001</v>
       </c>
       <c r="E94" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C94+'Potentiometer cal'!$G$19</f>
+        <v>31.208982942158073</v>
+      </c>
+      <c r="F94" s="3">
         <f t="shared" si="5"/>
-        <v>1.1418269230769182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.469742879619655</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>50254332</v>
       </c>
@@ -21234,11 +20979,15 @@
         <v>1.4976</v>
       </c>
       <c r="E95" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C95+'Potentiometer cal'!$G$19</f>
+        <v>31.373724772669618</v>
+      </c>
+      <c r="F95" s="3">
         <f t="shared" si="5"/>
-        <v>0.69110576923077371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.7580022692435104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>50270972</v>
       </c>
@@ -21254,11 +21003,15 @@
         <v>1.51424</v>
       </c>
       <c r="E96" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C96+'Potentiometer cal'!$G$19</f>
+        <v>31.500449257678497</v>
+      </c>
+      <c r="F96" s="3">
         <f t="shared" si="5"/>
-        <v>0.30048076923077638</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.8078270735840976</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>50287612</v>
       </c>
@@ -21274,11 +21027,15 @@
         <v>1.53088</v>
       </c>
       <c r="E97" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C97+'Potentiometer cal'!$G$19</f>
+        <v>31.500449257678497</v>
+      </c>
+      <c r="F97" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>50304252</v>
       </c>
@@ -21294,11 +21051,15 @@
         <v>1.54752</v>
       </c>
       <c r="E98" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C98+'Potentiometer cal'!$G$19</f>
+        <v>31.500449257678497</v>
+      </c>
+      <c r="F98" s="3">
         <f t="shared" si="5"/>
-        <v>-0.69110576923077371</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.7580022692435104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>50320892</v>
       </c>
@@ -21314,11 +21075,15 @@
         <v>1.56416</v>
       </c>
       <c r="E99" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C99+'Potentiometer cal'!$G$19</f>
+        <v>31.208982942158073</v>
+      </c>
+      <c r="F99" s="3">
         <f t="shared" si="5"/>
-        <v>-2.704326923076934</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-34.270443662256987</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>50337532</v>
       </c>
@@ -21334,11 +21099,15 @@
         <v>1.5808</v>
       </c>
       <c r="E100" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C100+'Potentiometer cal'!$G$19</f>
+        <v>30.359928892598585</v>
+      </c>
+      <c r="F100" s="3">
         <f t="shared" si="5"/>
-        <v>-4.0564903846153815</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-51.405665493385314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>50354172</v>
       </c>
@@ -21354,11 +21123,15 @@
         <v>1.59744</v>
       </c>
       <c r="E101" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C101+'Potentiometer cal'!$G$19</f>
+        <v>29.498202394538211</v>
+      </c>
+      <c r="F101" s="3">
         <f t="shared" si="5"/>
-        <v>-3.3954326923076943</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-43.028445931500492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>50370812</v>
       </c>
@@ -21374,11 +21147,15 @@
         <v>1.61408</v>
       </c>
       <c r="E102" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C102+'Potentiometer cal'!$G$19</f>
+        <v>28.92794221199825</v>
+      </c>
+      <c r="F102" s="3">
         <f t="shared" si="5"/>
-        <v>-2.7944711538461551</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-35.412791784332299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>50387452</v>
       </c>
@@ -21394,11 +21171,15 @@
         <v>1.6307199999999999</v>
       </c>
       <c r="E103" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C103+'Potentiometer cal'!$G$19</f>
+        <v>28.319664683955633</v>
+      </c>
+      <c r="F103" s="3">
         <f t="shared" si="5"/>
-        <v>-4.176682692307689</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-52.928796322819103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>50404092</v>
       </c>
@@ -21414,11 +21195,15 @@
         <v>1.6473599999999999</v>
       </c>
       <c r="E104" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C104+'Potentiometer cal'!$G$19</f>
+        <v>27.166471870374831</v>
+      </c>
+      <c r="F104" s="3">
         <f t="shared" si="5"/>
-        <v>-5.5288461538461631</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-70.064018153947757</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>50420732</v>
       </c>
@@ -21434,11 +21219,15 @@
         <v>1.6639999999999999</v>
       </c>
       <c r="E105" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C105+'Potentiometer cal'!$G$19</f>
+        <v>25.987934159792253</v>
+      </c>
+      <c r="F105" s="3">
         <f t="shared" si="5"/>
-        <v>-6.099759615384615</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-77.29888959375748</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>50437372</v>
       </c>
@@ -21454,11 +21243,15 @@
         <v>1.6806399999999999</v>
       </c>
       <c r="E106" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C106+'Potentiometer cal'!$G$19</f>
+        <v>24.593964824694584</v>
+      </c>
+      <c r="F106" s="3">
         <f t="shared" si="5"/>
-        <v>-6.9711538461538503</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-88.341588107151409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>50454012</v>
       </c>
@@ -21474,11 +21267,15 @@
         <v>1.6972799999999999</v>
       </c>
       <c r="E107" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C107+'Potentiometer cal'!$G$19</f>
+        <v>23.047926107586257</v>
+      </c>
+      <c r="F107" s="3">
         <f t="shared" si="5"/>
-        <v>-6.280048076923042</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-79.583585837907464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>50470652</v>
       </c>
@@ -21494,11 +21291,15 @@
         <v>1.7139200000000001</v>
       </c>
       <c r="E108" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C108+'Potentiometer cal'!$G$19</f>
+        <v>21.945423088009008</v>
+      </c>
+      <c r="F108" s="3">
         <f t="shared" si="5"/>
-        <v>-5.5288461538461258</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-70.064018153947288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>50487292</v>
       </c>
@@ -21514,11 +21315,15 @@
         <v>1.7305600000000001</v>
       </c>
       <c r="E109" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C109+'Potentiometer cal'!$G$19</f>
+        <v>20.716195583422877</v>
+      </c>
+      <c r="F109" s="3">
         <f t="shared" si="5"/>
-        <v>-6.4903846153846256</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-82.249064789416892</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>50503932</v>
       </c>
@@ -21534,11 +21339,15 @@
         <v>1.7472000000000001</v>
       </c>
       <c r="E110" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C110+'Potentiometer cal'!$G$19</f>
+        <v>19.208174211817216</v>
+      </c>
+      <c r="F110" s="3">
         <f t="shared" si="5"/>
-        <v>-6.8810096153846168</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-87.19923998507609</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>50520572</v>
       </c>
@@ -21554,11 +21363,15 @@
         <v>1.7638400000000001</v>
       </c>
       <c r="E111" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C111+'Potentiometer cal'!$G$19</f>
+        <v>17.814204876719547</v>
+      </c>
+      <c r="F111" s="3">
         <f t="shared" si="5"/>
-        <v>-7.0612980769230784</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-89.483936229226615</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>50537212</v>
       </c>
@@ -21574,11 +21387,15 @@
         <v>1.7804800000000001</v>
       </c>
       <c r="E112" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C112+'Potentiometer cal'!$G$19</f>
+        <v>16.230148814108556</v>
+      </c>
+      <c r="F112" s="3">
         <f t="shared" si="5"/>
-        <v>-7.0612980769230846</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-89.483936229226714</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>50553852</v>
       </c>
@@ -21594,11 +21411,15 @@
         <v>1.7971200000000001</v>
       </c>
       <c r="E113" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C113+'Potentiometer cal'!$G$19</f>
+        <v>14.836179479010884</v>
+      </c>
+      <c r="F113" s="3">
         <f t="shared" si="5"/>
-        <v>-5.3485576923076943</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-67.779321909797233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>50570492</v>
       </c>
@@ -21614,11 +21435,15 @@
         <v>1.81376</v>
       </c>
       <c r="E114" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C114+'Potentiometer cal'!$G$19</f>
+        <v>13.974452980950506</v>
+      </c>
+      <c r="F114" s="3">
         <f t="shared" si="5"/>
-        <v>-3.7860576923076916</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-47.978621127159798</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>50587132</v>
       </c>
@@ -21634,11 +21459,15 @@
         <v>1.8304</v>
       </c>
       <c r="E115" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C115+'Potentiometer cal'!$G$19</f>
+        <v>13.239450967899007</v>
+      </c>
+      <c r="F115" s="3">
         <f t="shared" si="5"/>
-        <v>-3.4855769230769287</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-44.170794053575754</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>50603772</v>
       </c>
@@ -21654,11 +21483,15 @@
         <v>1.84704</v>
       </c>
       <c r="E116" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C116+'Potentiometer cal'!$G$19</f>
+        <v>12.504448954847506</v>
+      </c>
+      <c r="F116" s="3">
         <f t="shared" si="5"/>
-        <v>-3.004807692307697</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-38.078270735841187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>50620412</v>
       </c>
@@ -21674,11 +21507,15 @@
         <v>1.86368</v>
       </c>
       <c r="E117" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C117+'Potentiometer cal'!$G$19</f>
+        <v>11.972206117810213</v>
+      </c>
+      <c r="F117" s="3">
         <f t="shared" si="5"/>
-        <v>-1.9230769230769262</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-24.370093270938373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>50637052</v>
       </c>
@@ -21694,11 +21531,15 @@
         <v>1.88032</v>
       </c>
       <c r="E118" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C118+'Potentiometer cal'!$G$19</f>
+        <v>11.693412250790677</v>
+      </c>
+      <c r="F118" s="3">
         <f t="shared" si="5"/>
-        <v>-1.0516826923076907</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-13.327394757544395</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>50653692</v>
       </c>
@@ -21714,11 +21555,15 @@
         <v>1.89696</v>
       </c>
       <c r="E119" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C119+'Potentiometer cal'!$G$19</f>
+        <v>11.528670420279136</v>
+      </c>
+      <c r="F119" s="3">
         <f t="shared" si="5"/>
-        <v>-0.57091346153845912</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-7.2348714398097744</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>50670332</v>
       </c>
@@ -21734,11 +21579,15 @@
         <v>1.9136</v>
       </c>
       <c r="E120" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C120+'Potentiometer cal'!$G$19</f>
+        <v>11.452635729273808</v>
+      </c>
+      <c r="F120" s="3">
         <f t="shared" si="5"/>
-        <v>-0.30048076923076972</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.8078270735840976</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>50686972</v>
       </c>
@@ -21754,11 +21603,15 @@
         <v>1.93024</v>
       </c>
       <c r="E121" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C121+'Potentiometer cal'!$G$19</f>
+        <v>11.401945935270257</v>
+      </c>
+      <c r="F121" s="3">
         <f t="shared" si="5"/>
-        <v>9.0144230769227576E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1423481220752079</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>50703612</v>
       </c>
@@ -21774,11 +21627,15 @@
         <v>1.9468799999999999</v>
       </c>
       <c r="E122" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C122+'Potentiometer cal'!$G$19</f>
+        <v>11.490653074776471</v>
+      </c>
+      <c r="F122" s="3">
         <f t="shared" si="5"/>
-        <v>1.2620192307692328</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.992873709053285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>50720252</v>
       </c>
@@ -21794,11 +21651,15 @@
         <v>1.9635199999999999</v>
       </c>
       <c r="E123" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C123+'Potentiometer cal'!$G$19</f>
+        <v>11.93418877230755</v>
+      </c>
+      <c r="F123" s="3">
         <f t="shared" si="5"/>
-        <v>1.8329326923076985</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.227745148863164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>50736892</v>
       </c>
@@ -21814,11 +21675,15 @@
         <v>1.9801599999999999</v>
       </c>
       <c r="E124" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C124+'Potentiometer cal'!$G$19</f>
+        <v>12.263672433330637</v>
+      </c>
+      <c r="F124" s="3">
         <f t="shared" si="5"/>
-        <v>3.0949519230769247</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.220618857916399</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>50753532</v>
       </c>
@@ -21834,11 +21699,15 @@
         <v>1.9967999999999999</v>
       </c>
       <c r="E125" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C125+'Potentiometer cal'!$G$19</f>
+        <v>13.239450967899007</v>
+      </c>
+      <c r="F125" s="3">
         <f t="shared" si="5"/>
-        <v>4.5372596153845892</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57.498188811119711</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>50770172</v>
       </c>
@@ -21854,11 +21723,15 @@
         <v>2.0134400000000001</v>
       </c>
       <c r="E126" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C126+'Potentiometer cal'!$G$19</f>
+        <v>14.177212156964712</v>
+      </c>
+      <c r="F126" s="3">
         <f t="shared" si="5"/>
-        <v>4.5673076923076925</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57.878971518478515</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>50786812</v>
       </c>
@@ -21874,11 +21747,15 @@
         <v>2.0300799999999999</v>
       </c>
       <c r="E127" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C127+'Potentiometer cal'!$G$19</f>
+        <v>15.165663140033971</v>
+      </c>
+      <c r="F127" s="3">
         <f t="shared" si="5"/>
-        <v>5.528846153846156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70.0640181539477</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>50803452</v>
       </c>
@@ -21894,11 +21771,15 @@
         <v>2.0467200000000001</v>
       </c>
       <c r="E128" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C128+'Potentiometer cal'!$G$19</f>
+        <v>16.50894268112809</v>
+      </c>
+      <c r="F128" s="3">
         <f t="shared" si="5"/>
-        <v>5.5288461538461631</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70.064018153947643</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>50820092</v>
       </c>
@@ -21914,11 +21795,15 @@
         <v>2.0633599999999999</v>
       </c>
       <c r="E129" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C129+'Potentiometer cal'!$G$19</f>
+        <v>17.497393664197347</v>
+      </c>
+      <c r="F129" s="3">
         <f t="shared" si="5"/>
-        <v>3.7860576923076916</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47.978621127159798</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>50836732</v>
       </c>
@@ -21934,11 +21819,15 @@
         <v>2.08</v>
       </c>
       <c r="E130" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C130+'Potentiometer cal'!$G$19</f>
+        <v>18.105671192239967</v>
+      </c>
+      <c r="F130" s="3">
         <f t="shared" si="5"/>
-        <v>4.5372596153846123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57.498188811120045</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>50853372</v>
       </c>
@@ -21954,11 +21843,15 @@
         <v>2.0966399999999998</v>
       </c>
       <c r="E131" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C131+'Potentiometer cal'!$G$19</f>
+        <v>19.41093338783142</v>
+      </c>
+      <c r="F131" s="3">
         <f t="shared" si="5"/>
-        <v>5.8894230769230864</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74.633410642248691</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>50870012</v>
       </c>
@@ -21974,11 +21867,15 @@
         <v>2.11328</v>
       </c>
       <c r="E132" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C132+'Potentiometer cal'!$G$19</f>
+        <v>20.589471098414002</v>
+      </c>
+      <c r="F132" s="3">
         <f t="shared" si="5"/>
-        <v>5.4086538461538547</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68.540887324514188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>50886652</v>
       </c>
@@ -21994,11 +21891,15 @@
         <v>2.1299199999999998</v>
       </c>
       <c r="E133" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C133+'Potentiometer cal'!$G$19</f>
+        <v>21.691974117991251</v>
+      </c>
+      <c r="F133" s="3">
         <f t="shared" si="5"/>
-        <v>5.528846153846156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70.064018153947643</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>50903292</v>
       </c>
@@ -22014,11 +21915,15 @@
         <v>2.14656</v>
       </c>
       <c r="E134" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C134+'Potentiometer cal'!$G$19</f>
+        <v>22.921201622577378</v>
+      </c>
+      <c r="F134" s="3">
         <f t="shared" si="5"/>
-        <v>5.0480769230769242</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63.971494836213033</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>50919932</v>
       </c>
@@ -22034,11 +21939,15 @@
         <v>2.1631999999999998</v>
       </c>
       <c r="E135" s="3">
-        <f t="shared" ref="E135:E198" si="8">(C136-C134)/(D136-D134)</f>
-        <v>3.1850961538461524</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <f>'Potentiometer cal'!$F$19*Motion!C135+'Potentiometer cal'!$G$19</f>
+        <v>23.820945466140419</v>
+      </c>
+      <c r="F135" s="3">
+        <f t="shared" ref="F135:F198" si="8">(E136-E134)/(D136-D134)</f>
+        <v>40.362966979991498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>50936572</v>
       </c>
@@ -22054,11 +21963,15 @@
         <v>2.17984</v>
       </c>
       <c r="E136" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C136+'Potentiometer cal'!$G$19</f>
+        <v>24.264481163671494</v>
+      </c>
+      <c r="F136" s="3">
         <f t="shared" si="8"/>
-        <v>2.6141826923076583</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33.128095540181334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>50953212</v>
       </c>
@@ -22074,11 +21987,15 @@
         <v>2.1964800000000002</v>
       </c>
       <c r="E137" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C137+'Potentiometer cal'!$G$19</f>
+        <v>24.923448485717667</v>
+      </c>
+      <c r="F137" s="3">
         <f t="shared" si="8"/>
-        <v>2.914663461538463</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.935922613765982</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>50969852</v>
       </c>
@@ -22094,11 +22011,15 @@
         <v>2.21312</v>
       </c>
       <c r="E138" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C138+'Potentiometer cal'!$G$19</f>
+        <v>25.493708668257625</v>
+      </c>
+      <c r="F138" s="3">
         <f t="shared" si="8"/>
-        <v>2.4338942307692313</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.843399296031361</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>50986492</v>
       </c>
@@ -22114,11 +22035,15 @@
         <v>2.2297600000000002</v>
       </c>
       <c r="E139" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C139+'Potentiometer cal'!$G$19</f>
+        <v>25.94991681428959</v>
+      </c>
+      <c r="F139" s="3">
         <f t="shared" si="8"/>
-        <v>1.8329326923076918</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.227745148863058</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>51003132</v>
       </c>
@@ -22134,11 +22059,15 @@
         <v>2.2464</v>
       </c>
       <c r="E140" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C140+'Potentiometer cal'!$G$19</f>
+        <v>26.266728026811787</v>
+      </c>
+      <c r="F140" s="3">
         <f t="shared" si="8"/>
-        <v>1.3521634615384603</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.13522183112844</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>51019772</v>
       </c>
@@ -22154,11 +22083,15 @@
         <v>2.2630400000000002</v>
       </c>
       <c r="E141" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C141+'Potentiometer cal'!$G$19</f>
+        <v>26.520176996829544</v>
+      </c>
+      <c r="F141" s="3">
         <f t="shared" si="8"/>
-        <v>0.87139423076924216</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.042698513394033</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>51036412</v>
       </c>
@@ -22174,11 +22107,15 @@
         <v>2.2796799999999999</v>
       </c>
       <c r="E142" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C142+'Potentiometer cal'!$G$19</f>
+        <v>26.63422903333754</v>
+      </c>
+      <c r="F142" s="3">
         <f t="shared" si="8"/>
-        <v>0.27043269230770273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.4270443662258372</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>51053052</v>
       </c>
@@ -22194,11 +22131,15 @@
         <v>2.2963200000000001</v>
       </c>
       <c r="E143" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C143+'Potentiometer cal'!$G$19</f>
+        <v>26.63422903333754</v>
+      </c>
+      <c r="F143" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>51069692</v>
       </c>
@@ -22214,11 +22155,15 @@
         <v>2.3129599999999999</v>
       </c>
       <c r="E144" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C144+'Potentiometer cal'!$G$19</f>
+        <v>26.63422903333754</v>
+      </c>
+      <c r="F144" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>51086332</v>
       </c>
@@ -22234,11 +22179,15 @@
         <v>2.3296000000000001</v>
       </c>
       <c r="E145" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C145+'Potentiometer cal'!$G$19</f>
+        <v>26.63422903333754</v>
+      </c>
+      <c r="F145" s="3">
         <f t="shared" si="8"/>
-        <v>-0.87139423076924216</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-11.042698513394033</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>51102972</v>
       </c>
@@ -22254,11 +22203,15 @@
         <v>2.3462399999999999</v>
       </c>
       <c r="E146" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C146+'Potentiometer cal'!$G$19</f>
+        <v>26.266728026811787</v>
+      </c>
+      <c r="F146" s="3">
         <f t="shared" si="8"/>
-        <v>-1.6225961538461631</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.562266197354276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>51119612</v>
       </c>
@@ -22274,11 +22227,15 @@
         <v>2.3628800000000001</v>
       </c>
       <c r="E147" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C147+'Potentiometer cal'!$G$19</f>
+        <v>25.94991681428959</v>
+      </c>
+      <c r="F147" s="3">
         <f t="shared" si="8"/>
-        <v>-1.2319711538461524</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-15.612091001694864</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>51136252</v>
       </c>
@@ -22294,11 +22251,15 @@
         <v>2.3795199999999999</v>
       </c>
       <c r="E148" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C148+'Potentiometer cal'!$G$19</f>
+        <v>25.747157638275382</v>
+      </c>
+      <c r="F148" s="3">
         <f t="shared" si="8"/>
-        <v>-1.5625000000000024</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-19.800700782637435</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>51152892</v>
       </c>
@@ -22314,11 +22275,15 @@
         <v>2.3961600000000001</v>
       </c>
       <c r="E149" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C149+'Potentiometer cal'!$G$19</f>
+        <v>25.290949492243417</v>
+      </c>
+      <c r="F149" s="3">
         <f t="shared" si="8"/>
-        <v>-2.0432692307692339</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-25.893224100372056</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>51169532</v>
       </c>
@@ -22334,11 +22299,15 @@
         <v>2.4127999999999998</v>
       </c>
       <c r="E150" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C150+'Potentiometer cal'!$G$19</f>
+        <v>24.885431140215001</v>
+      </c>
+      <c r="F150" s="3">
         <f t="shared" si="8"/>
-        <v>-1.9230769230769262</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-24.370093270938373</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>51186172</v>
       </c>
@@ -22354,11 +22323,15 @@
         <v>2.42944</v>
       </c>
       <c r="E151" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C151+'Potentiometer cal'!$G$19</f>
+        <v>24.479912788186589</v>
+      </c>
+      <c r="F151" s="3">
         <f t="shared" si="8"/>
-        <v>-2.2235576923076894</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-28.177920344522363</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>51202812</v>
       </c>
@@ -22374,11 +22347,15 @@
         <v>2.4460799999999998</v>
       </c>
       <c r="E152" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C152+'Potentiometer cal'!$G$19</f>
+        <v>23.947669951149297</v>
+      </c>
+      <c r="F152" s="3">
         <f t="shared" si="8"/>
-        <v>-2.0432692307692273</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-25.893224100371949</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>51219452</v>
       </c>
@@ -22394,11 +22371,15 @@
         <v>2.46272</v>
       </c>
       <c r="E153" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C153+'Potentiometer cal'!$G$19</f>
+        <v>23.618186290126211</v>
+      </c>
+      <c r="F153" s="3">
         <f t="shared" si="8"/>
-        <v>-1.3521634615384603</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-17.13522183112844</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>51236092</v>
       </c>
@@ -22414,11 +22395,15 @@
         <v>2.4793599999999998</v>
       </c>
       <c r="E154" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C154+'Potentiometer cal'!$G$19</f>
+        <v>23.377409768609343</v>
+      </c>
+      <c r="F154" s="3">
         <f t="shared" si="8"/>
-        <v>-1.2620192307692328</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-15.992873709053232</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>51252732</v>
       </c>
@@ -22434,11 +22419,15 @@
         <v>2.496</v>
       </c>
       <c r="E155" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C155+'Potentiometer cal'!$G$19</f>
+        <v>23.08594345308892</v>
+      </c>
+      <c r="F155" s="3">
         <f t="shared" si="8"/>
-        <v>-1.1718749999999896</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-14.850525586977932</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>51269372</v>
       </c>
@@ -22454,11 +22443,15 @@
         <v>2.5126400000000002</v>
       </c>
       <c r="E156" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C156+'Potentiometer cal'!$G$19</f>
+        <v>22.883184277074712</v>
+      </c>
+      <c r="F156" s="3">
         <f t="shared" si="8"/>
-        <v>-0.69110576923076705</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.7580022692434021</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>51286012</v>
       </c>
@@ -22474,11 +22467,15 @@
         <v>2.52928</v>
       </c>
       <c r="E157" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C157+'Potentiometer cal'!$G$19</f>
+        <v>22.794477137568499</v>
+      </c>
+      <c r="F157" s="3">
         <f t="shared" si="8"/>
-        <v>-0.39062499999999728</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.9501751956593054</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>51302652</v>
       </c>
@@ -22494,11 +22491,15 @@
         <v>2.5459200000000002</v>
       </c>
       <c r="E158" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C158+'Potentiometer cal'!$G$19</f>
+        <v>22.71844244656317</v>
+      </c>
+      <c r="F158" s="3">
         <f t="shared" si="8"/>
-        <v>-0.27043269230769607</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.4270443662257306</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>51319292</v>
       </c>
@@ -22514,11 +22515,15 @@
         <v>2.5625599999999999</v>
       </c>
       <c r="E159" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C159+'Potentiometer cal'!$G$19</f>
+        <v>22.680425101060507</v>
+      </c>
+      <c r="F159" s="3">
         <f t="shared" si="8"/>
-        <v>-0.18028846153846181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.2846962441504157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>51335932</v>
       </c>
@@ -22534,11 +22539,15 @@
         <v>2.5792000000000002</v>
       </c>
       <c r="E160" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C160+'Potentiometer cal'!$G$19</f>
+        <v>22.642407755557844</v>
+      </c>
+      <c r="F160" s="3">
         <f t="shared" si="8"/>
-        <v>-9.0144230769227576E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.1423481220752079</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>51352572</v>
       </c>
@@ -22554,11 +22563,15 @@
         <v>2.5958399999999999</v>
       </c>
       <c r="E161" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C161+'Potentiometer cal'!$G$19</f>
+        <v>22.642407755557844</v>
+      </c>
+      <c r="F161" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>51369212</v>
       </c>
@@ -22574,11 +22587,15 @@
         <v>2.6124800000000001</v>
       </c>
       <c r="E162" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C162+'Potentiometer cal'!$G$19</f>
+        <v>22.642407755557844</v>
+      </c>
+      <c r="F162" s="3">
         <f t="shared" si="8"/>
-        <v>0.87139423076922884</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.042698513393818</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>51385852</v>
       </c>
@@ -22594,11 +22611,15 @@
         <v>2.6291199999999999</v>
       </c>
       <c r="E163" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C163+'Potentiometer cal'!$G$19</f>
+        <v>23.00990876208359</v>
+      </c>
+      <c r="F163" s="3">
         <f t="shared" si="8"/>
-        <v>2.2235576923076961</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.17792034452247</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>51402492</v>
       </c>
@@ -22614,11 +22635,15 @@
         <v>2.6457600000000001</v>
       </c>
       <c r="E164" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C164+'Potentiometer cal'!$G$19</f>
+        <v>23.580168944623551</v>
+      </c>
+      <c r="F164" s="3">
         <f t="shared" si="8"/>
-        <v>2.2235576923076961</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.17792034452247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>51419132</v>
       </c>
@@ -22634,11 +22659,15 @@
         <v>2.6623999999999999</v>
       </c>
       <c r="E165" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C165+'Potentiometer cal'!$G$19</f>
+        <v>23.947669951149297</v>
+      </c>
+      <c r="F165" s="3">
         <f t="shared" si="8"/>
-        <v>1.4423076923076945</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.277569953203752</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>51435772</v>
       </c>
@@ -22654,11 +22683,15 @@
         <v>2.6790400000000001</v>
       </c>
       <c r="E166" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C166+'Potentiometer cal'!$G$19</f>
+        <v>24.188446472666172</v>
+      </c>
+      <c r="F166" s="3">
         <f t="shared" si="8"/>
-        <v>1.5324519230769289</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.419918075279067</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>51452412</v>
       </c>
@@ -22674,11 +22707,15 @@
         <v>2.6956799999999999</v>
       </c>
       <c r="E167" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C167+'Potentiometer cal'!$G$19</f>
+        <v>24.593964824694584</v>
+      </c>
+      <c r="F167" s="3">
         <f t="shared" si="8"/>
-        <v>2.3137019230769234</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.320268466597572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>51469052</v>
       </c>
@@ -22694,11 +22731,15 @@
         <v>2.7123200000000001</v>
       </c>
       <c r="E168" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C168+'Potentiometer cal'!$G$19</f>
+        <v>25.164225007234538</v>
+      </c>
+      <c r="F168" s="3">
         <f t="shared" si="8"/>
-        <v>2.3437499999999969</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.701051173956046</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>51485692</v>
       </c>
@@ -22714,11 +22755,15 @@
         <v>2.7289599999999998</v>
       </c>
       <c r="E169" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C169+'Potentiometer cal'!$G$19</f>
+        <v>25.582415807763841</v>
+      </c>
+      <c r="F169" s="3">
         <f t="shared" si="8"/>
-        <v>1.9531249999999998</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24.75087597829674</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>51502332</v>
       </c>
@@ -22734,11 +22779,15 @@
         <v>2.7456</v>
       </c>
       <c r="E170" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C170+'Potentiometer cal'!$G$19</f>
+        <v>25.987934159792253</v>
+      </c>
+      <c r="F170" s="3">
         <f t="shared" si="8"/>
-        <v>1.6225961538461497</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.56226619735417</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>51518972</v>
       </c>
@@ -22754,11 +22803,15 @@
         <v>2.7622399999999998</v>
       </c>
       <c r="E171" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C171+'Potentiometer cal'!$G$19</f>
+        <v>26.266728026811787</v>
+      </c>
+      <c r="F171" s="3">
         <f t="shared" si="8"/>
-        <v>1.0516826923076974</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.327394757544448</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>51535612</v>
       </c>
@@ -22774,11 +22827,15 @@
         <v>2.77888</v>
       </c>
       <c r="E172" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C172+'Potentiometer cal'!$G$19</f>
+        <v>26.431469857323332</v>
+      </c>
+      <c r="F172" s="3">
         <f t="shared" si="8"/>
-        <v>0.69110576923077371</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.7580022692435104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>51552252</v>
       </c>
@@ -22794,11 +22851,15 @@
         <v>2.7955199999999998</v>
       </c>
       <c r="E173" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C173+'Potentiometer cal'!$G$19</f>
+        <v>26.558194342332211</v>
+      </c>
+      <c r="F173" s="3">
         <f t="shared" si="8"/>
-        <v>0.60096153846153944</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.6156541471683017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>51568892</v>
       </c>
@@ -22814,11 +22875,15 @@
         <v>2.81216</v>
       </c>
       <c r="E174" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C174+'Potentiometer cal'!$G$19</f>
+        <v>26.684918827341093</v>
+      </c>
+      <c r="F174" s="3">
         <f t="shared" si="8"/>
-        <v>0.39062499999999206</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.9501751956592397</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>51585532</v>
       </c>
@@ -22834,11 +22899,15 @@
         <v>2.8288000000000002</v>
       </c>
       <c r="E175" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C175+'Potentiometer cal'!$G$19</f>
+        <v>26.722936172843752</v>
+      </c>
+      <c r="F175" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>51602172</v>
       </c>
@@ -22854,11 +22923,15 @@
         <v>2.84544</v>
       </c>
       <c r="E176" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C176+'Potentiometer cal'!$G$19</f>
+        <v>26.684918827341093</v>
+      </c>
+      <c r="F176" s="3">
         <f t="shared" si="8"/>
-        <v>-0.39062499999999728</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-4.9501751956593054</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>51618812</v>
       </c>
@@ -22874,11 +22947,15 @@
         <v>2.8620800000000002</v>
       </c>
       <c r="E177" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C177+'Potentiometer cal'!$G$19</f>
+        <v>26.558194342332211</v>
+      </c>
+      <c r="F177" s="3">
         <f t="shared" si="8"/>
-        <v>-0.69110576923077371</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-8.7580022692435104</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>51635452</v>
       </c>
@@ -22894,11 +22971,15 @@
         <v>2.8787199999999999</v>
       </c>
       <c r="E178" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C178+'Potentiometer cal'!$G$19</f>
+        <v>26.393452511820669</v>
+      </c>
+      <c r="F178" s="3">
         <f t="shared" si="8"/>
-        <v>-1.6526442307692368</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-20.94304890471275</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>51652092</v>
       </c>
@@ -22914,11 +22995,15 @@
         <v>2.8953600000000002</v>
       </c>
       <c r="E179" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C179+'Potentiometer cal'!$G$19</f>
+        <v>25.861209674783371</v>
+      </c>
+      <c r="F179" s="3">
         <f t="shared" si="8"/>
-        <v>-2.914663461538463</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-36.935922613765982</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>51668732</v>
       </c>
@@ -22934,11 +23019,15 @@
         <v>2.9119999999999999</v>
       </c>
       <c r="E180" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C180+'Potentiometer cal'!$G$19</f>
+        <v>25.164225007234538</v>
+      </c>
+      <c r="F180" s="3">
         <f t="shared" si="8"/>
-        <v>-3.6658653846153837</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-46.455490297726115</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>51685372</v>
       </c>
@@ -22954,11 +23043,15 @@
         <v>2.9286400000000001</v>
       </c>
       <c r="E181" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C181+'Potentiometer cal'!$G$19</f>
+        <v>24.315170957675047</v>
+      </c>
+      <c r="F181" s="3">
         <f t="shared" si="8"/>
-        <v>-4.6274038461538538</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-58.640536933195357</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>51702012</v>
       </c>
@@ -22974,11 +23067,15 @@
         <v>2.9452799999999999</v>
       </c>
       <c r="E182" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C182+'Potentiometer cal'!$G$19</f>
+        <v>23.212667938097798</v>
+      </c>
+      <c r="F182" s="3">
         <f t="shared" si="8"/>
-        <v>-4.3569711538461577</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-55.213492566969627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>51718652</v>
       </c>
@@ -22994,11 +23091,15 @@
         <v>2.9619200000000001</v>
       </c>
       <c r="E183" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C183+'Potentiometer cal'!$G$19</f>
+        <v>22.477665925046299</v>
+      </c>
+      <c r="F183" s="3">
         <f t="shared" si="8"/>
-        <v>-2.914663461538463</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-36.935922613765875</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>51735292</v>
       </c>
@@ -23014,11 +23115,15 @@
         <v>2.9785599999999999</v>
       </c>
       <c r="E184" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C184+'Potentiometer cal'!$G$19</f>
+        <v>21.983440433511671</v>
+      </c>
+      <c r="F184" s="3">
         <f t="shared" si="8"/>
-        <v>-3.876201923076926</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-49.120969249235117</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>51751932</v>
       </c>
@@ -23034,11 +23139,15 @@
         <v>2.9952000000000001</v>
       </c>
       <c r="E185" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C185+'Potentiometer cal'!$G$19</f>
+        <v>20.842920068431756</v>
+      </c>
+      <c r="F185" s="3">
         <f t="shared" si="8"/>
-        <v>-5.528846153846156</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-70.064018153947643</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>51768572</v>
       </c>
@@ -23054,11 +23163,15 @@
         <v>3.0118399999999999</v>
       </c>
       <c r="E186" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C186+'Potentiometer cal'!$G$19</f>
+        <v>19.651709909348295</v>
+      </c>
+      <c r="F186" s="3">
         <f t="shared" si="8"/>
-        <v>-5.4387019230769216</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-68.921670031872338</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>51785212</v>
       </c>
@@ -23074,11 +23187,15 @@
         <v>3.0284800000000001</v>
       </c>
       <c r="E187" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C187+'Potentiometer cal'!$G$19</f>
+        <v>18.549206889771046</v>
+      </c>
+      <c r="F187" s="3">
         <f t="shared" si="8"/>
-        <v>-6.1899038461538494</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-78.441237715832798</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>51801852</v>
       </c>
@@ -23094,11 +23211,15 @@
         <v>3.0451199999999998</v>
       </c>
       <c r="E188" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C188+'Potentiometer cal'!$G$19</f>
+        <v>17.041185518165381</v>
+      </c>
+      <c r="F188" s="3">
         <f t="shared" si="8"/>
-        <v>-6.0997596153846221</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-77.298889593757579</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>51818492</v>
       </c>
@@ -23114,11 +23235,15 @@
         <v>3.06176</v>
       </c>
       <c r="E189" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C189+'Potentiometer cal'!$G$19</f>
+        <v>15.976699844090795</v>
+      </c>
+      <c r="F189" s="3">
         <f t="shared" si="8"/>
-        <v>-3.9663461538461604</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-50.263317371310322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>51835132</v>
       </c>
@@ -23134,11 +23259,15 @@
         <v>3.0783999999999998</v>
       </c>
       <c r="E190" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C190+'Potentiometer cal'!$G$19</f>
+        <v>15.368422316048175</v>
+      </c>
+      <c r="F190" s="3">
         <f t="shared" si="8"/>
-        <v>-3.876201923076926</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-49.12096924923501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>51851772</v>
       </c>
@@ -23154,11 +23283,15 @@
         <v>3.09504</v>
       </c>
       <c r="E191" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C191+'Potentiometer cal'!$G$19</f>
+        <v>14.341953987476256</v>
+      </c>
+      <c r="F191" s="3">
         <f t="shared" si="8"/>
-        <v>-4.5673076923076925</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-57.878971518478465</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>51868412</v>
       </c>
@@ -23174,11 +23307,15 @@
         <v>3.1116799999999998</v>
       </c>
       <c r="E192" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C192+'Potentiometer cal'!$G$19</f>
+        <v>13.442210143913213</v>
+      </c>
+      <c r="F192" s="3">
         <f t="shared" si="8"/>
-        <v>-3.6658653846153904</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-46.455490297726278</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>51885052</v>
       </c>
@@ -23194,11 +23331,15 @@
         <v>3.12832</v>
       </c>
       <c r="E193" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C193+'Potentiometer cal'!$G$19</f>
+        <v>12.795915270367926</v>
+      </c>
+      <c r="F193" s="3">
         <f t="shared" si="8"/>
-        <v>-2.9747596153845772</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-37.697488028482212</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>51901692</v>
       </c>
@@ -23214,11 +23355,15 @@
         <v>3.1449600000000002</v>
       </c>
       <c r="E194" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C194+'Potentiometer cal'!$G$19</f>
+        <v>12.187637742325309</v>
+      </c>
+      <c r="F194" s="3">
         <f t="shared" si="8"/>
-        <v>-2.524038461538459</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-31.985747418106463</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>51918332</v>
       </c>
@@ -23234,11 +23379,15 @@
         <v>3.1616</v>
       </c>
       <c r="E195" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C195+'Potentiometer cal'!$G$19</f>
+        <v>11.731429596293344</v>
+      </c>
+      <c r="F195" s="3">
         <f t="shared" si="8"/>
-        <v>-1.7427884615384643</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-22.085397026787906</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>51934972</v>
       </c>
@@ -23254,11 +23403,15 @@
         <v>3.1782400000000002</v>
       </c>
       <c r="E196" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C196+'Potentiometer cal'!$G$19</f>
+        <v>11.452635729273808</v>
+      </c>
+      <c r="F196" s="3">
         <f t="shared" si="8"/>
-        <v>-0.78125000000000122</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-9.9003503913187174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>51951612</v>
       </c>
@@ -23274,11 +23427,15 @@
         <v>3.1948799999999999</v>
       </c>
       <c r="E197" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C197+'Potentiometer cal'!$G$19</f>
+        <v>11.401945935270257</v>
+      </c>
+      <c r="F197" s="3">
         <f t="shared" si="8"/>
-        <v>-0.12019230769230789</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.5231308294336283</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>51968252</v>
       </c>
@@ -23294,11 +23451,15 @@
         <v>3.2115200000000002</v>
       </c>
       <c r="E198" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C198+'Potentiometer cal'!$G$19</f>
+        <v>11.401945935270257</v>
+      </c>
+      <c r="F198" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>51984892</v>
       </c>
@@ -23314,11 +23475,15 @@
         <v>3.2281599999999999</v>
       </c>
       <c r="E199" s="3">
-        <f t="shared" ref="E199:E215" si="11">(C200-C198)/(D200-D198)</f>
+        <f>'Potentiometer cal'!$F$19*Motion!C199+'Potentiometer cal'!$G$19</f>
+        <v>11.401945935270257</v>
+      </c>
+      <c r="F199" s="3">
+        <f t="shared" ref="F199:F216" si="11">(E200-E198)/(D200-D198)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>52001532</v>
       </c>
@@ -23334,11 +23499,15 @@
         <v>3.2448000000000001</v>
       </c>
       <c r="E200" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C200+'Potentiometer cal'!$G$19</f>
+        <v>11.401945935270257</v>
+      </c>
+      <c r="F200" s="3">
         <f t="shared" si="11"/>
-        <v>1.2620192307692328</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.992873709053285</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>52018172</v>
       </c>
@@ -23354,11 +23523,15 @@
         <v>3.2614399999999999</v>
       </c>
       <c r="E201" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C201+'Potentiometer cal'!$G$19</f>
+        <v>11.93418877230755</v>
+      </c>
+      <c r="F201" s="3">
         <f t="shared" si="11"/>
-        <v>2.914663461538463</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.935922613765875</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>52034812</v>
       </c>
@@ -23374,11 +23547,15 @@
         <v>3.2780800000000001</v>
       </c>
       <c r="E202" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C202+'Potentiometer cal'!$G$19</f>
+        <v>12.631173439856385</v>
+      </c>
+      <c r="F202" s="3">
         <f t="shared" si="11"/>
-        <v>4.2668269230769234</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54.071144444894365</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>52051452</v>
       </c>
@@ -23394,11 +23571,15 @@
         <v>3.2947199999999999</v>
       </c>
       <c r="E203" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C203+'Potentiometer cal'!$G$19</f>
+        <v>13.733676459433633</v>
+      </c>
+      <c r="F203" s="3">
         <f t="shared" si="11"/>
-        <v>5.7091346153846176</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72.348714398098124</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>52068092</v>
       </c>
@@ -23414,11 +23595,15 @@
         <v>3.3113600000000001</v>
       </c>
       <c r="E204" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C204+'Potentiometer cal'!$G$19</f>
+        <v>15.038938655025088</v>
+      </c>
+      <c r="F204" s="3">
         <f t="shared" si="11"/>
-        <v>5.6189903846153904</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71.206366276022905</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>52084732</v>
       </c>
@@ -23434,11 +23619,15 @@
         <v>3.3279999999999998</v>
       </c>
       <c r="E205" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C205+'Potentiometer cal'!$G$19</f>
+        <v>16.103424329099674</v>
+      </c>
+      <c r="F205" s="3">
         <f t="shared" si="11"/>
-        <v>4.1766826923076961</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52.92879632281921</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>52101372</v>
       </c>
@@ -23454,11 +23643,15 @@
         <v>3.3446400000000001</v>
       </c>
       <c r="E206" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C206+'Potentiometer cal'!$G$19</f>
+        <v>16.80040899664851</v>
+      </c>
+      <c r="F206" s="3">
         <f t="shared" si="11"/>
-        <v>4.7475961538461551</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60.163667762629039</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>52118012</v>
       </c>
@@ -23474,11 +23667,15 @@
         <v>3.3612799999999998</v>
       </c>
       <c r="E207" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C207+'Potentiometer cal'!$G$19</f>
+        <v>18.105671192239967</v>
+      </c>
+      <c r="F207" s="3">
         <f t="shared" si="11"/>
-        <v>6.7608173076923155</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.676109155642621</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>52134652</v>
       </c>
@@ -23494,11 +23691,15 @@
         <v>3.37792</v>
       </c>
       <c r="E208" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C208+'Potentiometer cal'!$G$19</f>
+        <v>19.651709909348295</v>
+      </c>
+      <c r="F208" s="3">
         <f t="shared" si="11"/>
-        <v>6.0997596153846221</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77.29888959375748</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>52151292</v>
       </c>
@@ -23514,11 +23715,15 @@
         <v>3.3945599999999998</v>
       </c>
       <c r="E209" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C209+'Potentiometer cal'!$G$19</f>
+        <v>20.678178237920214</v>
+      </c>
+      <c r="F209" s="3">
         <f t="shared" si="11"/>
-        <v>3.9663461538461537</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50.263317371310215</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>52167932</v>
       </c>
@@ -23534,11 +23739,15 @@
         <v>3.4112</v>
       </c>
       <c r="E210" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C210+'Potentiometer cal'!$G$19</f>
+        <v>21.324473111465498</v>
+      </c>
+      <c r="F210" s="3">
         <f t="shared" si="11"/>
-        <v>2.4038461538461258</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.462616588672585</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>52184572</v>
       </c>
@@ -23554,11 +23763,15 @@
         <v>3.4278400000000002</v>
       </c>
       <c r="E211" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C211+'Potentiometer cal'!$G$19</f>
+        <v>21.691974117991251</v>
+      </c>
+      <c r="F211" s="3">
         <f t="shared" si="11"/>
-        <v>1.4723557692307749</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.658352660562226</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>52201212</v>
       </c>
@@ -23574,11 +23787,15 @@
         <v>3.44448</v>
       </c>
       <c r="E212" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C212+'Potentiometer cal'!$G$19</f>
+        <v>21.945423088009008</v>
+      </c>
+      <c r="F212" s="3">
         <f t="shared" si="11"/>
-        <v>0.87139423076922884</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11.042698513393818</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>52217852</v>
       </c>
@@ -23594,11 +23811,15 @@
         <v>3.4611200000000002</v>
       </c>
       <c r="E213" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C213+'Potentiometer cal'!$G$19</f>
+        <v>22.059475124516997</v>
+      </c>
+      <c r="F213" s="3">
         <f t="shared" si="11"/>
-        <v>0.57091346153845912</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.2348714398098277</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>52234492</v>
       </c>
@@ -23614,11 +23835,15 @@
         <v>3.47776</v>
       </c>
       <c r="E214" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C214+'Potentiometer cal'!$G$19</f>
+        <v>22.186199609525879</v>
+      </c>
+      <c r="F214" s="3">
         <f t="shared" si="11"/>
-        <v>0.30048076923076972</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.8078270735842041</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>52251132</v>
       </c>
@@ -23634,11 +23859,15 @@
         <v>3.4944000000000002</v>
       </c>
       <c r="E215" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C215+'Potentiometer cal'!$G$19</f>
+        <v>22.186199609525879</v>
+      </c>
+      <c r="F215" s="3">
         <f t="shared" si="11"/>
-        <v>9.0144230769234251E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1423481220752079</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>52267772</v>
       </c>
@@ -23652,6 +23881,14 @@
       <c r="D216" s="3">
         <f t="shared" si="10"/>
         <v>3.5110399999999999</v>
+      </c>
+      <c r="E216" s="3">
+        <f>'Potentiometer cal'!$F$19*Motion!C216+'Potentiometer cal'!$G$19</f>
+        <v>22.224216955028542</v>
+      </c>
+      <c r="F216" s="3">
+        <f t="shared" si="11"/>
+        <v>6.349072690454979</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
@@ -23667,7 +23904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7189C96-DF02-FD4B-8F50-F3EE187D16C6}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -23722,10 +23959,10 @@
         <v>50</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -23931,11 +24168,11 @@
       </c>
       <c r="P9" s="32"/>
       <c r="Q9" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R9" s="32"/>
       <c r="S9" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T9" s="32"/>
     </row>
@@ -23971,16 +24208,16 @@
       </c>
       <c r="P10" s="32"/>
       <c r="Q10" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="R10" s="32" t="s">
-        <v>117</v>
-      </c>
       <c r="S10" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="T10" s="32" t="s">
         <v>116</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">

--- a/03_Displacement_Data_Collection_Tables.xlsx
+++ b/03_Displacement_Data_Collection_Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC E 301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\School\Year 3\MEC-E-301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0297397-BF13-4145-8961-A25A5A129D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3793E4-E92B-468B-9006-8D78D21FC5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Info and Rubric" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="125">
   <si>
     <t xml:space="preserve">Student Surname: </t>
   </si>
@@ -439,9 +439,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -568,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,7 +657,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -679,6 +679,9 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11167,58 +11170,58 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="11"/>
+    <col min="2" max="2" width="18.453125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
@@ -11238,7 +11241,7 @@
       </c>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
@@ -11247,7 +11250,7 @@
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>17</v>
       </c>
@@ -11256,7 +11259,7 @@
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
@@ -11265,7 +11268,7 @@
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>53</v>
       </c>
@@ -11274,7 +11277,7 @@
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -11283,7 +11286,7 @@
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>20</v>
       </c>
@@ -11292,7 +11295,7 @@
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>30</v>
       </c>
@@ -11301,7 +11304,7 @@
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>56</v>
       </c>
@@ -11310,7 +11313,7 @@
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -11319,7 +11322,7 @@
       </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>22</v>
       </c>
@@ -11328,7 +11331,7 @@
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>23</v>
       </c>
@@ -11337,7 +11340,7 @@
       </c>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>24</v>
       </c>
@@ -11346,7 +11349,7 @@
       </c>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14" t="s">
         <v>25</v>
@@ -11356,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14" t="s">
         <v>27</v>
@@ -11366,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14" t="s">
         <v>54</v>
@@ -11375,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14" t="s">
         <v>55</v>
@@ -11394,27 +11397,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B5DFEB-27AC-C14C-9885-2E931D118C39}">
   <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:M52"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" style="3" customWidth="1"/>
     <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="11" width="10.85546875" style="3"/>
-    <col min="12" max="12" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="3"/>
+    <col min="8" max="11" width="10.81640625" style="3"/>
+    <col min="12" max="12" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -11425,7 +11428,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -11451,7 +11454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -11477,7 +11480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>28.36</v>
       </c>
@@ -11498,7 +11501,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>32</v>
       </c>
@@ -11525,7 +11528,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>36</v>
       </c>
@@ -11552,7 +11555,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>40</v>
       </c>
@@ -11579,7 +11582,7 @@
         <v>1.038</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>44</v>
       </c>
@@ -11606,7 +11609,7 @@
         <v>1.357</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>48</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>52</v>
       </c>
@@ -11660,7 +11663,7 @@
         <v>1.982</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>56</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>2.3010000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>60</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>2.617</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>67.459999999999994</v>
       </c>
@@ -11735,13 +11738,13 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -11749,7 +11752,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -11772,7 +11775,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
         <v>0</v>
       </c>
@@ -11805,7 +11808,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
         <v>0</v>
       </c>
@@ -11837,7 +11840,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>0</v>
       </c>
@@ -11869,7 +11872,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11901,7 +11904,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11928,7 +11931,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11946,7 +11949,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11971,7 +11974,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11995,7 +11998,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -12012,7 +12015,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7.6400000000000006</v>
       </c>
@@ -12029,7 +12032,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7.6400000000000006</v>
       </c>
@@ -12048,7 +12051,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>7.6400000000000006</v>
       </c>
@@ -12082,7 +12085,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7.6400000000000006</v>
       </c>
@@ -12117,7 +12120,7 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7.6400000000000006</v>
       </c>
@@ -12162,7 +12165,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>7.6400000000000006</v>
       </c>
@@ -12207,7 +12210,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>11.64</v>
       </c>
@@ -12252,7 +12255,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>11.64</v>
       </c>
@@ -12297,7 +12300,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>11.64</v>
       </c>
@@ -12342,7 +12345,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>11.64</v>
       </c>
@@ -12387,7 +12390,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>11.64</v>
       </c>
@@ -12432,7 +12435,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11.64</v>
       </c>
@@ -12477,7 +12480,7 @@
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>15.64</v>
       </c>
@@ -12513,7 +12516,7 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>15.64</v>
       </c>
@@ -12536,7 +12539,7 @@
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>15.64</v>
       </c>
@@ -12578,7 +12581,7 @@
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>15.64</v>
       </c>
@@ -12617,7 +12620,7 @@
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>15.64</v>
       </c>
@@ -12668,7 +12671,7 @@
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>15.64</v>
       </c>
@@ -12719,7 +12722,7 @@
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>19.64</v>
       </c>
@@ -12770,7 +12773,7 @@
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>19.64</v>
       </c>
@@ -12821,7 +12824,7 @@
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>19.64</v>
       </c>
@@ -12872,7 +12875,7 @@
       <c r="N48"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>19.64</v>
       </c>
@@ -12923,7 +12926,7 @@
       <c r="N49"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>19.64</v>
       </c>
@@ -12974,7 +12977,7 @@
       <c r="N50"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>19.64</v>
       </c>
@@ -13025,7 +13028,7 @@
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>23.64</v>
       </c>
@@ -13064,7 +13067,7 @@
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>23.64</v>
       </c>
@@ -13087,7 +13090,7 @@
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>23.64</v>
       </c>
@@ -13117,7 +13120,7 @@
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>23.64</v>
       </c>
@@ -13147,7 +13150,7 @@
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>23.64</v>
       </c>
@@ -13177,7 +13180,7 @@
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>23.64</v>
       </c>
@@ -13200,7 +13203,7 @@
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>27.64</v>
       </c>
@@ -13231,7 +13234,7 @@
       <c r="M58"/>
       <c r="N58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>27.64</v>
       </c>
@@ -13266,7 +13269,7 @@
       <c r="M59"/>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>27.64</v>
       </c>
@@ -13301,7 +13304,7 @@
       <c r="M60"/>
       <c r="N60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>27.64</v>
       </c>
@@ -13336,7 +13339,7 @@
       <c r="M61"/>
       <c r="N61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>27.64</v>
       </c>
@@ -13371,7 +13374,7 @@
       <c r="M62"/>
       <c r="N62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>27.64</v>
       </c>
@@ -13406,7 +13409,7 @@
       <c r="M63"/>
       <c r="N63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>31.64</v>
       </c>
@@ -13441,7 +13444,7 @@
       <c r="M64"/>
       <c r="N64"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>31.64</v>
       </c>
@@ -13476,7 +13479,7 @@
       <c r="M65"/>
       <c r="N65"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>31.64</v>
       </c>
@@ -13511,7 +13514,7 @@
       <c r="M66"/>
       <c r="N66"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>31.64</v>
       </c>
@@ -13527,7 +13530,7 @@
       <c r="M67"/>
       <c r="N67"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>31.64</v>
       </c>
@@ -13562,7 +13565,7 @@
       <c r="M68"/>
       <c r="N68"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>31.64</v>
       </c>
@@ -13583,7 +13586,7 @@
       <c r="M69"/>
       <c r="N69"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>39.099999999999994</v>
       </c>
@@ -13614,7 +13617,7 @@
       <c r="M70"/>
       <c r="N70"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>39.099999999999994</v>
       </c>
@@ -13654,7 +13657,7 @@
       </c>
       <c r="N71"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>39.099999999999994</v>
       </c>
@@ -13693,7 +13696,7 @@
       </c>
       <c r="N72"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -13726,7 +13729,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -13759,7 +13762,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -13792,7 +13795,7 @@
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -13821,7 +13824,7 @@
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -13850,7 +13853,7 @@
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -13879,7 +13882,7 @@
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -13908,7 +13911,7 @@
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -13937,7 +13940,7 @@
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -13954,7 +13957,7 @@
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -13971,7 +13974,7 @@
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -13993,7 +13996,7 @@
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -14010,7 +14013,7 @@
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1</v>
       </c>
@@ -14029,8 +14032,8 @@
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" s="38" t="s">
         <v>99</v>
       </c>
       <c r="B86"/>
@@ -14048,16 +14051,16 @@
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f t="shared" ref="A87:D91" si="30">E19</f>
         <v>slope</v>
       </c>
-      <c r="B87" s="33">
+      <c r="B87" s="34">
         <f t="shared" si="30"/>
         <v>12.672448500887921</v>
       </c>
-      <c r="C87" s="33">
+      <c r="C87" s="34">
         <f t="shared" si="30"/>
         <v>-1.4986066386336461</v>
       </c>
@@ -14077,7 +14080,7 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f t="shared" si="30"/>
         <v>standard err slope</v>
@@ -14106,7 +14109,7 @@
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f t="shared" si="30"/>
         <v>r^2</v>
@@ -14135,7 +14138,7 @@
       <c r="N89"/>
       <c r="O89"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90" s="30">
         <f t="shared" si="30"/>
@@ -14158,7 +14161,7 @@
       <c r="N90"/>
       <c r="O90"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91" s="30">
         <f t="shared" si="30"/>
@@ -14181,12 +14184,12 @@
       <c r="N91"/>
       <c r="O91"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="31" t="str">
         <f t="shared" ref="A92:C93" si="31">E25</f>
         <v>sensitivity</v>
       </c>
-      <c r="B92" s="31">
+      <c r="B92" s="49">
         <f t="shared" si="31"/>
         <v>7.8911348499852499E-2</v>
       </c>
@@ -14207,12 +14210,12 @@
       <c r="N92"/>
       <c r="O92"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="31" t="str">
         <f t="shared" si="31"/>
         <v>span</v>
       </c>
-      <c r="B93" s="31">
+      <c r="B93" s="34">
         <f t="shared" si="31"/>
         <v>39.099999999999994</v>
       </c>
@@ -14233,7 +14236,7 @@
       <c r="N93"/>
       <c r="O93"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -14250,8 +14253,8 @@
       <c r="N94"/>
       <c r="O94"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A95" s="38" t="s">
         <v>100</v>
       </c>
       <c r="B95"/>
@@ -14269,7 +14272,7 @@
       <c r="N95"/>
       <c r="O95"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f t="shared" ref="A96:A119" si="32">E29</f>
         <v>Converted V-&gt;mm</v>
@@ -14289,7 +14292,7 @@
       <c r="N96"/>
       <c r="O96"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97" t="str">
         <f t="shared" ref="B97:B119" si="33">F30</f>
@@ -14324,23 +14327,23 @@
       <c r="N97"/>
       <c r="O97"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="B98"/>
-      <c r="C98" s="30">
+      <c r="C98" s="29">
         <f t="shared" si="34"/>
         <v>-0.15532709753952645</v>
       </c>
       <c r="D98" s="30"/>
-      <c r="E98" s="30">
+      <c r="E98" s="29">
         <f t="shared" si="36"/>
         <v>-0.15532709753952645</v>
       </c>
       <c r="F98" s="30"/>
-      <c r="G98" s="30">
+      <c r="G98" s="29">
         <f t="shared" si="38"/>
         <v>-0.15532709753952645</v>
       </c>
@@ -14353,32 +14356,32 @@
       <c r="N98"/>
       <c r="O98"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="32"/>
         <v>3.6400000000000006</v>
       </c>
-      <c r="B99" s="30">
+      <c r="B99" s="29">
         <f t="shared" si="33"/>
         <v>3.608390107224186</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="29">
         <f t="shared" si="34"/>
         <v>3.608390107224186</v>
       </c>
-      <c r="D99" s="30">
+      <c r="D99" s="29">
         <f t="shared" si="35"/>
         <v>3.608390107224186</v>
       </c>
-      <c r="E99" s="30">
+      <c r="E99" s="29">
         <f t="shared" si="36"/>
         <v>3.6464074527268497</v>
       </c>
-      <c r="F99" s="30">
+      <c r="F99" s="29">
         <f t="shared" si="37"/>
         <v>3.608390107224186</v>
       </c>
-      <c r="G99" s="30">
+      <c r="G99" s="29">
         <f t="shared" si="38"/>
         <v>3.6464074527268497</v>
       </c>
@@ -14391,32 +14394,32 @@
       <c r="N99"/>
       <c r="O99"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="32"/>
         <v>7.6400000000000006</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="29">
         <f t="shared" si="33"/>
         <v>7.6889185245100968</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="29">
         <f t="shared" si="34"/>
         <v>7.6889185245100968</v>
       </c>
-      <c r="D100" s="30">
+      <c r="D100" s="29">
         <f t="shared" si="35"/>
         <v>7.6889185245100968</v>
       </c>
-      <c r="E100" s="30">
+      <c r="E100" s="29">
         <f t="shared" si="36"/>
         <v>7.6889185245100968</v>
       </c>
-      <c r="F100" s="30">
+      <c r="F100" s="29">
         <f t="shared" si="37"/>
         <v>7.6889185245100968</v>
       </c>
-      <c r="G100" s="30">
+      <c r="G100" s="29">
         <f t="shared" si="38"/>
         <v>7.7269358700127597</v>
       </c>
@@ -14429,32 +14432,32 @@
       <c r="N100"/>
       <c r="O100"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="32"/>
         <v>11.64</v>
       </c>
-      <c r="B101" s="30">
+      <c r="B101" s="29">
         <f t="shared" si="33"/>
         <v>11.693412250790677</v>
       </c>
-      <c r="C101" s="30">
+      <c r="C101" s="29">
         <f t="shared" si="34"/>
         <v>11.693412250790677</v>
       </c>
-      <c r="D101" s="30">
+      <c r="D101" s="29">
         <f t="shared" si="35"/>
         <v>11.693412250790677</v>
       </c>
-      <c r="E101" s="30">
+      <c r="E101" s="29">
         <f t="shared" si="36"/>
         <v>11.655394905288016</v>
       </c>
-      <c r="F101" s="30">
+      <c r="F101" s="29">
         <f t="shared" si="37"/>
         <v>11.655394905288016</v>
       </c>
-      <c r="G101" s="30">
+      <c r="G101" s="29">
         <f t="shared" si="38"/>
         <v>11.655394905288016</v>
       </c>
@@ -14467,32 +14470,32 @@
       <c r="N101"/>
       <c r="O101"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="32"/>
         <v>15.64</v>
       </c>
-      <c r="B102" s="30">
+      <c r="B102" s="29">
         <f t="shared" si="33"/>
         <v>15.697905977071262</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="29">
         <f t="shared" si="34"/>
         <v>15.659888631568599</v>
       </c>
-      <c r="D102" s="30">
+      <c r="D102" s="29">
         <f t="shared" si="35"/>
         <v>15.659888631568599</v>
       </c>
-      <c r="E102" s="30">
+      <c r="E102" s="29">
         <f t="shared" si="36"/>
         <v>15.659888631568599</v>
       </c>
-      <c r="F102" s="30">
+      <c r="F102" s="29">
         <f t="shared" si="37"/>
         <v>15.659888631568599</v>
       </c>
-      <c r="G102" s="30">
+      <c r="G102" s="29">
         <f t="shared" si="38"/>
         <v>15.697905977071262</v>
       </c>
@@ -14505,32 +14508,32 @@
       <c r="N102"/>
       <c r="O102"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="32"/>
         <v>19.64</v>
       </c>
-      <c r="B103" s="30">
+      <c r="B103" s="29">
         <f t="shared" si="33"/>
         <v>19.651709909348295</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="29">
         <f t="shared" si="34"/>
         <v>19.651709909348295</v>
       </c>
-      <c r="D103" s="30">
+      <c r="D103" s="29">
         <f t="shared" si="35"/>
         <v>19.613692563845628</v>
       </c>
-      <c r="E103" s="30">
+      <c r="E103" s="29">
         <f t="shared" si="36"/>
         <v>19.613692563845628</v>
       </c>
-      <c r="F103" s="30">
+      <c r="F103" s="29">
         <f t="shared" si="37"/>
         <v>19.651709909348295</v>
       </c>
-      <c r="G103" s="30">
+      <c r="G103" s="29">
         <f t="shared" si="38"/>
         <v>19.613692563845628</v>
       </c>
@@ -14543,32 +14546,32 @@
       <c r="N103"/>
       <c r="O103"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="32"/>
         <v>23.64</v>
       </c>
-      <c r="B104" s="30">
+      <c r="B104" s="29">
         <f t="shared" si="33"/>
         <v>23.656203635628877</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="29">
         <f t="shared" si="34"/>
         <v>23.618186290126211</v>
       </c>
-      <c r="D104" s="30">
+      <c r="D104" s="29">
         <f t="shared" si="35"/>
         <v>23.656203635628877</v>
       </c>
-      <c r="E104" s="30">
+      <c r="E104" s="29">
         <f t="shared" si="36"/>
         <v>23.618186290126211</v>
       </c>
-      <c r="F104" s="30">
+      <c r="F104" s="29">
         <f t="shared" si="37"/>
         <v>23.656203635628877</v>
       </c>
-      <c r="G104" s="30">
+      <c r="G104" s="29">
         <f t="shared" si="38"/>
         <v>23.618186290126211</v>
       </c>
@@ -14581,32 +14584,32 @@
       <c r="N104"/>
       <c r="O104"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="32"/>
         <v>27.64</v>
       </c>
-      <c r="B105" s="30">
+      <c r="B105" s="29">
         <f t="shared" si="33"/>
         <v>27.698714707412122</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="29">
         <f t="shared" si="34"/>
         <v>27.66069736190946</v>
       </c>
-      <c r="D105" s="30">
+      <c r="D105" s="29">
         <f t="shared" si="35"/>
         <v>27.66069736190946</v>
       </c>
-      <c r="E105" s="30">
+      <c r="E105" s="29">
         <f t="shared" si="36"/>
         <v>27.66069736190946</v>
       </c>
-      <c r="F105" s="30">
+      <c r="F105" s="29">
         <f t="shared" si="37"/>
         <v>27.698714707412122</v>
       </c>
-      <c r="G105" s="30">
+      <c r="G105" s="29">
         <f t="shared" si="38"/>
         <v>27.66069736190946</v>
       </c>
@@ -14619,32 +14622,32 @@
       <c r="N105"/>
       <c r="O105"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="32"/>
         <v>31.64</v>
       </c>
-      <c r="B106" s="30">
+      <c r="B106" s="29">
         <f t="shared" si="33"/>
         <v>31.665191088190042</v>
       </c>
-      <c r="C106" s="30">
+      <c r="C106" s="29">
         <f t="shared" si="34"/>
         <v>31.627173742687376</v>
       </c>
-      <c r="D106" s="30">
+      <c r="D106" s="29">
         <f t="shared" si="35"/>
         <v>31.665191088190042</v>
       </c>
-      <c r="E106" s="30">
+      <c r="E106" s="29">
         <f t="shared" si="36"/>
         <v>31.627173742687376</v>
       </c>
-      <c r="F106" s="30">
+      <c r="F106" s="29">
         <f t="shared" si="37"/>
         <v>31.665191088190042</v>
       </c>
-      <c r="G106" s="30">
+      <c r="G106" s="29">
         <f t="shared" si="38"/>
         <v>31.665191088190042</v>
       </c>
@@ -14657,22 +14660,22 @@
       <c r="N106"/>
       <c r="O106"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="32"/>
         <v>39.099999999999994</v>
       </c>
-      <c r="B107" s="30">
+      <c r="B107" s="29">
         <f t="shared" si="33"/>
         <v>38.977193873202374</v>
       </c>
       <c r="C107" s="30"/>
-      <c r="D107" s="30">
+      <c r="D107" s="29">
         <f t="shared" si="35"/>
         <v>38.977193873202374</v>
       </c>
       <c r="E107" s="30"/>
-      <c r="F107" s="30">
+      <c r="F107" s="29">
         <f t="shared" si="37"/>
         <v>38.977193873202374</v>
       </c>
@@ -14686,7 +14689,7 @@
       <c r="N107"/>
       <c r="O107"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -14703,7 +14706,7 @@
       <c r="N108"/>
       <c r="O108"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="36" t="str">
         <f t="shared" si="32"/>
         <v>deviation table</v>
@@ -14747,28 +14750,28 @@
       <c r="N109"/>
       <c r="O109"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="36">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A110" s="50">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37">
+      <c r="B110" s="50"/>
+      <c r="C110" s="50">
         <f t="shared" si="34"/>
         <v>-0.15532709753952645</v>
       </c>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37">
+      <c r="D110" s="50"/>
+      <c r="E110" s="50">
         <f t="shared" si="36"/>
         <v>-0.15532709753952645</v>
       </c>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37">
+      <c r="F110" s="50"/>
+      <c r="G110" s="50">
         <f t="shared" si="38"/>
         <v>-0.15532709753952645</v>
       </c>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37">
+      <c r="H110" s="50"/>
+      <c r="I110" s="50">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14779,40 +14782,40 @@
       <c r="N110"/>
       <c r="O110"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="36">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A111" s="50">
         <f t="shared" si="32"/>
         <v>3.6400000000000006</v>
       </c>
-      <c r="B111" s="37">
+      <c r="B111" s="50">
         <f t="shared" si="33"/>
         <v>-3.1609892775814608E-2</v>
       </c>
-      <c r="C111" s="37">
+      <c r="C111" s="50">
         <f t="shared" si="34"/>
         <v>-3.1609892775814608E-2</v>
       </c>
-      <c r="D111" s="37">
+      <c r="D111" s="50">
         <f t="shared" si="35"/>
         <v>-3.1609892775814608E-2</v>
       </c>
-      <c r="E111" s="37">
+      <c r="E111" s="50">
         <f t="shared" si="36"/>
         <v>6.4074527268491721E-3</v>
       </c>
-      <c r="F111" s="37">
+      <c r="F111" s="50">
         <f t="shared" si="37"/>
         <v>-3.1609892775814608E-2</v>
       </c>
-      <c r="G111" s="37">
+      <c r="G111" s="50">
         <f t="shared" si="38"/>
         <v>6.4074527268491721E-3</v>
       </c>
-      <c r="H111" s="37">
+      <c r="H111" s="50">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I111" s="37">
+      <c r="I111" s="50">
         <f t="shared" si="40"/>
         <v>3.801734550266378E-2</v>
       </c>
@@ -14823,40 +14826,40 @@
       <c r="N111"/>
       <c r="O111"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="36">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A112" s="50">
         <f t="shared" si="32"/>
         <v>7.6400000000000006</v>
       </c>
-      <c r="B112" s="37">
+      <c r="B112" s="50">
         <f t="shared" si="33"/>
         <v>4.8918524510096262E-2</v>
       </c>
-      <c r="C112" s="37">
+      <c r="C112" s="50">
         <f t="shared" si="34"/>
         <v>4.8918524510096262E-2</v>
       </c>
-      <c r="D112" s="37">
+      <c r="D112" s="50">
         <f t="shared" si="35"/>
         <v>4.8918524510096262E-2</v>
       </c>
-      <c r="E112" s="37">
+      <c r="E112" s="50">
         <f t="shared" si="36"/>
         <v>4.8918524510096262E-2</v>
       </c>
-      <c r="F112" s="37">
+      <c r="F112" s="50">
         <f t="shared" si="37"/>
         <v>4.8918524510096262E-2</v>
       </c>
-      <c r="G112" s="37">
+      <c r="G112" s="50">
         <f t="shared" si="38"/>
         <v>8.6935870012759153E-2</v>
       </c>
-      <c r="H112" s="37">
+      <c r="H112" s="50">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I112" s="37">
+      <c r="I112" s="50">
         <f t="shared" si="40"/>
         <v>3.8017345502662891E-2</v>
       </c>
@@ -14867,40 +14870,40 @@
       <c r="N112"/>
       <c r="O112"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="36">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A113" s="50">
         <f t="shared" si="32"/>
         <v>11.64</v>
       </c>
-      <c r="B113" s="37">
+      <c r="B113" s="50">
         <f t="shared" si="33"/>
         <v>5.3412250790676907E-2</v>
       </c>
-      <c r="C113" s="37">
+      <c r="C113" s="50">
         <f t="shared" si="34"/>
         <v>5.3412250790676907E-2</v>
       </c>
-      <c r="D113" s="37">
+      <c r="D113" s="50">
         <f t="shared" si="35"/>
         <v>5.3412250790676907E-2</v>
       </c>
-      <c r="E113" s="37">
+      <c r="E113" s="50">
         <f t="shared" si="36"/>
         <v>1.5394905288015792E-2</v>
       </c>
-      <c r="F113" s="37">
+      <c r="F113" s="50">
         <f t="shared" si="37"/>
         <v>1.5394905288015792E-2</v>
       </c>
-      <c r="G113" s="37">
+      <c r="G113" s="50">
         <f t="shared" si="38"/>
         <v>1.5394905288015792E-2</v>
       </c>
-      <c r="H113" s="37">
+      <c r="H113" s="50">
         <f t="shared" si="39"/>
         <v>3.8017345502661115E-2</v>
       </c>
-      <c r="I113" s="37">
+      <c r="I113" s="50">
         <f t="shared" si="40"/>
         <v>3.8017345502661115E-2</v>
       </c>
@@ -14911,40 +14914,40 @@
       <c r="N113"/>
       <c r="O113"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="36">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A114" s="50">
         <f t="shared" si="32"/>
         <v>15.64</v>
       </c>
-      <c r="B114" s="37">
+      <c r="B114" s="50">
         <f t="shared" si="33"/>
         <v>5.7905977071261105E-2</v>
       </c>
-      <c r="C114" s="37">
+      <c r="C114" s="50">
         <f t="shared" si="34"/>
         <v>1.9888631568598214E-2</v>
       </c>
-      <c r="D114" s="37">
+      <c r="D114" s="50">
         <f t="shared" si="35"/>
         <v>1.9888631568598214E-2</v>
       </c>
-      <c r="E114" s="37">
+      <c r="E114" s="50">
         <f t="shared" si="36"/>
         <v>1.9888631568598214E-2</v>
       </c>
-      <c r="F114" s="37">
+      <c r="F114" s="50">
         <f t="shared" si="37"/>
         <v>1.9888631568598214E-2</v>
       </c>
-      <c r="G114" s="37">
+      <c r="G114" s="50">
         <f t="shared" si="38"/>
         <v>5.7905977071261105E-2</v>
       </c>
-      <c r="H114" s="37">
+      <c r="H114" s="50">
         <f t="shared" si="39"/>
         <v>3.8017345502662891E-2</v>
       </c>
-      <c r="I114" s="37">
+      <c r="I114" s="50">
         <f t="shared" si="40"/>
         <v>3.8017345502662891E-2</v>
       </c>
@@ -14955,40 +14958,40 @@
       <c r="N114"/>
       <c r="O114"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="36">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A115" s="50">
         <f t="shared" si="32"/>
         <v>19.64</v>
       </c>
-      <c r="B115" s="37">
+      <c r="B115" s="50">
         <f t="shared" si="33"/>
         <v>1.170990934829419E-2</v>
       </c>
-      <c r="C115" s="37">
+      <c r="C115" s="50">
         <f t="shared" si="34"/>
         <v>1.170990934829419E-2</v>
       </c>
-      <c r="D115" s="37">
+      <c r="D115" s="50">
         <f t="shared" si="35"/>
         <v>-2.6307436154372255E-2</v>
       </c>
-      <c r="E115" s="37">
+      <c r="E115" s="50">
         <f t="shared" si="36"/>
         <v>-2.6307436154372255E-2</v>
       </c>
-      <c r="F115" s="37">
+      <c r="F115" s="50">
         <f t="shared" si="37"/>
         <v>1.170990934829419E-2</v>
       </c>
-      <c r="G115" s="37">
+      <c r="G115" s="50">
         <f t="shared" si="38"/>
         <v>-2.6307436154372255E-2</v>
       </c>
-      <c r="H115" s="37">
+      <c r="H115" s="50">
         <f t="shared" si="39"/>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="I115" s="37">
+      <c r="I115" s="50">
         <f t="shared" si="40"/>
         <v>3.8017345502666444E-2</v>
       </c>
@@ -14999,40 +15002,40 @@
       <c r="N115"/>
       <c r="O115"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="36">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A116" s="50">
         <f t="shared" si="32"/>
         <v>23.64</v>
       </c>
-      <c r="B116" s="37">
+      <c r="B116" s="50">
         <f t="shared" si="33"/>
         <v>1.6203635628876611E-2</v>
       </c>
-      <c r="C116" s="37">
+      <c r="C116" s="50">
         <f t="shared" si="34"/>
         <v>-2.1813709873789833E-2</v>
       </c>
-      <c r="D116" s="37">
+      <c r="D116" s="50">
         <f t="shared" si="35"/>
         <v>1.6203635628876611E-2</v>
       </c>
-      <c r="E116" s="37">
+      <c r="E116" s="50">
         <f t="shared" si="36"/>
         <v>-2.1813709873789833E-2</v>
       </c>
-      <c r="F116" s="37">
+      <c r="F116" s="50">
         <f t="shared" si="37"/>
         <v>1.6203635628876611E-2</v>
       </c>
-      <c r="G116" s="37">
+      <c r="G116" s="50">
         <f t="shared" si="38"/>
         <v>-2.1813709873789833E-2</v>
       </c>
-      <c r="H116" s="37">
+      <c r="H116" s="50">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I116" s="37">
+      <c r="I116" s="50">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -15043,40 +15046,40 @@
       <c r="N116"/>
       <c r="O116"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="36">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A117" s="50">
         <f t="shared" si="32"/>
         <v>27.64</v>
       </c>
-      <c r="B117" s="37">
+      <c r="B117" s="50">
         <f t="shared" si="33"/>
         <v>5.8714707412121925E-2</v>
       </c>
-      <c r="C117" s="37">
+      <c r="C117" s="50">
         <f t="shared" si="34"/>
         <v>2.0697361909459033E-2</v>
       </c>
-      <c r="D117" s="37">
+      <c r="D117" s="50">
         <f t="shared" si="35"/>
         <v>2.0697361909459033E-2</v>
       </c>
-      <c r="E117" s="37">
+      <c r="E117" s="50">
         <f t="shared" si="36"/>
         <v>2.0697361909459033E-2</v>
       </c>
-      <c r="F117" s="37">
+      <c r="F117" s="50">
         <f t="shared" si="37"/>
         <v>5.8714707412121925E-2</v>
       </c>
-      <c r="G117" s="37">
+      <c r="G117" s="50">
         <f t="shared" si="38"/>
         <v>2.0697361909459033E-2</v>
       </c>
-      <c r="H117" s="37">
+      <c r="H117" s="50">
         <f t="shared" si="39"/>
         <v>3.8017345502662891E-2</v>
       </c>
-      <c r="I117" s="37">
+      <c r="I117" s="50">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -15087,40 +15090,40 @@
       <c r="N117"/>
       <c r="O117"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="36">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A118" s="50">
         <f t="shared" si="32"/>
         <v>31.64</v>
       </c>
-      <c r="B118" s="37">
+      <c r="B118" s="50">
         <f t="shared" si="33"/>
         <v>2.5191088190041455E-2</v>
       </c>
-      <c r="C118" s="37">
+      <c r="C118" s="50">
         <f t="shared" si="34"/>
         <v>-1.2826257312624989E-2</v>
       </c>
-      <c r="D118" s="37">
+      <c r="D118" s="50">
         <f t="shared" si="35"/>
         <v>2.5191088190041455E-2</v>
       </c>
-      <c r="E118" s="37">
+      <c r="E118" s="50">
         <f t="shared" si="36"/>
         <v>-1.2826257312624989E-2</v>
       </c>
-      <c r="F118" s="37">
+      <c r="F118" s="50">
         <f t="shared" si="37"/>
         <v>2.5191088190041455E-2</v>
       </c>
-      <c r="G118" s="37">
+      <c r="G118" s="50">
         <f t="shared" si="38"/>
         <v>2.5191088190041455E-2</v>
       </c>
-      <c r="H118" s="37">
+      <c r="H118" s="50">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I118" s="37">
+      <c r="I118" s="50">
         <f t="shared" si="40"/>
         <v>3.8017345502666444E-2</v>
       </c>
@@ -15131,31 +15134,31 @@
       <c r="N118"/>
       <c r="O118"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="36">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A119" s="50">
         <f t="shared" si="32"/>
         <v>39.099999999999994</v>
       </c>
-      <c r="B119" s="37">
+      <c r="B119" s="50">
         <f t="shared" si="33"/>
         <v>-0.12280612679762015</v>
       </c>
-      <c r="C119" s="37"/>
-      <c r="D119" s="37">
+      <c r="C119" s="50"/>
+      <c r="D119" s="50">
         <f t="shared" si="35"/>
         <v>-0.12280612679762015</v>
       </c>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37">
+      <c r="E119" s="50"/>
+      <c r="F119" s="50">
         <f t="shared" si="37"/>
         <v>-0.12280612679762015</v>
       </c>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37">
+      <c r="G119" s="50"/>
+      <c r="H119" s="50">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I119" s="37"/>
+      <c r="I119" s="50"/>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119"/>
@@ -15163,7 +15166,7 @@
       <c r="N119"/>
       <c r="O119"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -15180,13 +15183,15 @@
       <c r="N120"/>
       <c r="O120"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121"/>
-      <c r="B121" s="31">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" s="51">
         <f t="shared" ref="B121:C125" si="41">L71</f>
         <v>5.2861018859881214E-5</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="51">
         <f t="shared" si="41"/>
         <v>-1.4859322498762515E-2</v>
       </c>
@@ -15203,8 +15208,10 @@
       <c r="N121"/>
       <c r="O121"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122"/>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>66</v>
+      </c>
       <c r="B122">
         <f t="shared" si="41"/>
         <v>1.958511020042502E-3</v>
@@ -15226,8 +15233,10 @@
       <c r="N122"/>
       <c r="O122"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123"/>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>68</v>
+      </c>
       <c r="B123">
         <f t="shared" si="41"/>
         <v>9.1051999623993586E-5</v>
@@ -15249,8 +15258,10 @@
       <c r="N123"/>
       <c r="O123"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124"/>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
       <c r="B124">
         <f t="shared" si="41"/>
         <v>7.2848232676449136E-4</v>
@@ -15272,8 +15283,10 @@
       <c r="N124"/>
       <c r="O124"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125"/>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
       <c r="B125">
         <f t="shared" si="41"/>
         <v>4.0300384138436396E-6</v>
@@ -15295,7 +15308,7 @@
       <c r="N125"/>
       <c r="O125"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -15312,7 +15325,7 @@
       <c r="N126"/>
       <c r="O126"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="31" t="str">
         <f t="shared" ref="A127:A137" si="42">E70</f>
         <v>linear regression stats</v>
@@ -15341,7 +15354,7 @@
       <c r="N127"/>
       <c r="O127"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="34">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -15370,7 +15383,7 @@
       <c r="N128"/>
       <c r="O128"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="34">
         <f t="shared" si="42"/>
         <v>3.6400000000000006</v>
@@ -15399,7 +15412,7 @@
       <c r="N129"/>
       <c r="O129"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="34">
         <f t="shared" si="42"/>
         <v>7.6400000000000006</v>
@@ -15428,7 +15441,7 @@
       <c r="N130"/>
       <c r="O130"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="34">
         <f t="shared" si="42"/>
         <v>11.64</v>
@@ -15457,7 +15470,7 @@
       <c r="N131"/>
       <c r="O131"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="34">
         <f t="shared" si="42"/>
         <v>15.64</v>
@@ -15486,7 +15499,7 @@
       <c r="N132"/>
       <c r="O132"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="34">
         <f t="shared" si="42"/>
         <v>19.64</v>
@@ -15515,7 +15528,7 @@
       <c r="N133"/>
       <c r="O133"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="34">
         <f t="shared" si="42"/>
         <v>23.64</v>
@@ -15544,7 +15557,7 @@
       <c r="N134"/>
       <c r="O134"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="34">
         <f t="shared" si="42"/>
         <v>27.64</v>
@@ -15573,7 +15586,7 @@
       <c r="N135"/>
       <c r="O135"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="34">
         <f t="shared" si="42"/>
         <v>31.64</v>
@@ -15602,7 +15615,7 @@
       <c r="N136"/>
       <c r="O136"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="34">
         <f t="shared" si="42"/>
         <v>39.099999999999994</v>
@@ -15631,7 +15644,7 @@
       <c r="N137"/>
       <c r="O137"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -15648,7 +15661,7 @@
       <c r="N138"/>
       <c r="O138"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="34" t="str">
         <f t="shared" ref="A139:A147" si="46">E58</f>
         <v>hystersis table</v>
@@ -15657,7 +15670,7 @@
         <f t="shared" ref="B139:B147" si="47">F58</f>
         <v>up 1 - down 1</v>
       </c>
-      <c r="C139" s="38" t="str">
+      <c r="C139" s="37" t="str">
         <f t="shared" ref="C139:C147" si="48">G58</f>
         <v>up 2 - down 2</v>
       </c>
@@ -15677,7 +15690,7 @@
       <c r="N139"/>
       <c r="O139"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="34">
         <f t="shared" si="46"/>
         <v>3.6400000000000006</v>
@@ -15706,7 +15719,7 @@
       <c r="N140"/>
       <c r="O140"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="34">
         <f t="shared" si="46"/>
         <v>7.6400000000000006</v>
@@ -15735,7 +15748,7 @@
       <c r="N141"/>
       <c r="O141"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="34">
         <f t="shared" si="46"/>
         <v>11.64</v>
@@ -15764,7 +15777,7 @@
       <c r="N142"/>
       <c r="O142"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="34">
         <f t="shared" si="46"/>
         <v>15.64</v>
@@ -15793,7 +15806,7 @@
       <c r="N143"/>
       <c r="O143"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="34">
         <f t="shared" si="46"/>
         <v>19.64</v>
@@ -15822,7 +15835,7 @@
       <c r="N144"/>
       <c r="O144"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="34">
         <f t="shared" si="46"/>
         <v>23.64</v>
@@ -15840,7 +15853,7 @@
         <v>3.8017345502666444E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="34">
         <f t="shared" si="46"/>
         <v>27.64</v>
@@ -15858,7 +15871,7 @@
         <v>3.8017345502662891E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="34">
         <f t="shared" si="46"/>
         <v>31.64</v>
@@ -15876,12 +15889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="40" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B151" s="3" t="s">
         <v>102</v>
       </c>
@@ -15889,7 +15902,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B152" s="3" t="s">
         <v>7</v>
       </c>
@@ -15897,67 +15910,67 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B153" s="41">
+      <c r="B153" s="40">
         <f>F54</f>
         <v>0.15532709753952645</v>
       </c>
-      <c r="C153" s="41">
+      <c r="C153" s="40">
         <f>B153/$B$93*100</f>
         <v>0.39725600393740784</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B154" s="41">
+      <c r="B154" s="40">
         <f>F55</f>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="C154" s="41">
+      <c r="C154" s="40">
         <f t="shared" ref="C154:C157" si="50">B154/$B$93*100</f>
         <v>9.7231062666666118E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B155" s="41">
+      <c r="B155" s="40">
         <f>F83</f>
         <v>0.14046777504076394</v>
       </c>
-      <c r="C155" s="41">
+      <c r="C155" s="40">
         <f t="shared" si="50"/>
         <v>0.3592526215876316</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B156" s="41">
+      <c r="B156" s="40">
         <f>F56</f>
         <v>1.2672448500887921E-2</v>
       </c>
-      <c r="C156" s="41">
+      <c r="C156" s="40">
         <f t="shared" si="50"/>
         <v>3.2410354222219752E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B157" s="41">
+      <c r="B157" s="40">
         <f>F68</f>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="C157" s="41">
+      <c r="C157" s="40">
         <f t="shared" si="50"/>
         <v>9.7231062666666118E-2</v>
       </c>
@@ -15973,23 +15986,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B21470-895B-2C48-91C6-DD3DC8C93A51}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A4" zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="3"/>
+    <col min="7" max="7" width="12.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -16000,7 +16013,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -16023,7 +16036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -16046,7 +16059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>29.12</v>
       </c>
@@ -16071,7 +16084,7 @@
       </c>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>29.5</v>
       </c>
@@ -16095,7 +16108,7 @@
         <v>2.7549999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>30</v>
       </c>
@@ -16119,7 +16132,7 @@
         <v>2.2949999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>30.5</v>
       </c>
@@ -16143,7 +16156,7 @@
         <v>1.9430000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>31</v>
       </c>
@@ -16167,7 +16180,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>31.5</v>
       </c>
@@ -16191,7 +16204,7 @@
         <v>1.4950000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>32</v>
       </c>
@@ -16215,18 +16228,18 @@
         <v>1.347</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -16262,7 +16275,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -16298,7 +16311,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>29.12</v>
       </c>
@@ -16335,7 +16348,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>29.5</v>
       </c>
@@ -16372,7 +16385,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>30</v>
       </c>
@@ -16409,7 +16422,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>30.5</v>
       </c>
@@ -16446,7 +16459,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>31</v>
       </c>
@@ -16483,7 +16496,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>31.5</v>
       </c>
@@ -16520,7 +16533,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>32</v>
       </c>
@@ -16557,7 +16570,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -16577,7 +16590,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26" s="31" cm="1">
         <f t="array" ref="B26:E30">LINEST(B18:B24,H18:H24^{1,2,3}, TRUE, TRUE)</f>
@@ -16606,7 +16619,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27">
         <v>6.6963352211656724E-2</v>
@@ -16634,7 +16647,7 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28">
         <v>0.99963390852811007</v>
@@ -16662,7 +16675,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29">
         <v>2730.5577575117218</v>
@@ -16690,7 +16703,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30">
         <v>6.6499074911547655</v>
@@ -16718,7 +16731,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -16738,7 +16751,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -16758,7 +16771,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -16778,7 +16791,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34" t="s">
         <v>107</v>
@@ -16800,7 +16813,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35" t="s">
         <v>108</v>
@@ -16824,7 +16837,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36">
         <v>3.2183999999999999</v>
@@ -16849,7 +16862,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37">
         <v>2.7458</v>
@@ -16874,7 +16887,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38">
         <v>2.2844000000000002</v>
@@ -16899,7 +16912,7 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39">
         <v>1.9469999999999998</v>
@@ -16924,7 +16937,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40">
         <v>1.6874000000000002</v>
@@ -16949,7 +16962,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41">
         <v>1.492</v>
@@ -16974,7 +16987,7 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42">
         <v>1.3466</v>
@@ -16999,8 +17012,8 @@
       <c r="Q42"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="41" t="s">
         <v>112</v>
       </c>
       <c r="B43"/>
@@ -17021,7 +17034,7 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -17053,7 +17066,7 @@
       <c r="Q44"/>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -17085,7 +17098,7 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -17122,7 +17135,7 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.37999999999999901</v>
       </c>
@@ -17159,7 +17172,7 @@
       <c r="Q47"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.87999999999999901</v>
       </c>
@@ -17196,7 +17209,7 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1.379999999999999</v>
       </c>
@@ -17233,7 +17246,7 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1.879999999999999</v>
       </c>
@@ -17270,7 +17283,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2.379999999999999</v>
       </c>
@@ -17307,7 +17320,7 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2.879999999999999</v>
       </c>
@@ -17344,7 +17357,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -17364,8 +17377,8 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" s="41" t="s">
         <v>73</v>
       </c>
       <c r="B54"/>
@@ -17386,7 +17399,7 @@
       <c r="Q54"/>
       <c r="R54"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -17418,7 +17431,7 @@
       <c r="Q55"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -17450,7 +17463,7 @@
       <c r="Q56"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -17487,7 +17500,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.37999999999999901</v>
       </c>
@@ -17524,7 +17537,7 @@
       <c r="Q58"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.87999999999999901</v>
       </c>
@@ -17561,7 +17574,7 @@
       <c r="Q59"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1.379999999999999</v>
       </c>
@@ -17598,7 +17611,7 @@
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1.879999999999999</v>
       </c>
@@ -17635,7 +17648,7 @@
       <c r="Q61"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2.379999999999999</v>
       </c>
@@ -17672,7 +17685,7 @@
       <c r="Q62"/>
       <c r="R62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2.879999999999999</v>
       </c>
@@ -17709,7 +17722,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -17729,7 +17742,7 @@
       <c r="Q64"/>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -17754,8 +17767,8 @@
       <c r="Q65"/>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="42" t="s">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A66" s="41" t="s">
         <v>113</v>
       </c>
       <c r="B66"/>
@@ -17776,7 +17789,7 @@
       <c r="Q66"/>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" cm="1">
         <f t="array" ref="A67:D71">LINEST(H18:H24,B18:B24^{1,2,3}, TRUE, TRUE)</f>
         <v>-4.0778331146351626E-2</v>
@@ -17805,7 +17818,7 @@
       <c r="Q67"/>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>5.3771638911085645E-3</v>
       </c>
@@ -17833,7 +17846,7 @@
       <c r="Q68"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.99992200876384241</v>
       </c>
@@ -17861,7 +17874,7 @@
       <c r="Q69"/>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>12820.953456146945</v>
       </c>
@@ -17889,7 +17902,7 @@
       <c r="Q70"/>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2.832515299971254</v>
       </c>
@@ -17917,7 +17930,7 @@
       <c r="Q71"/>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -17937,7 +17950,7 @@
       <c r="Q72"/>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -17959,7 +17972,7 @@
       <c r="Q73"/>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74">
         <f>3*A67</f>
         <v>-0.12233499343905488</v>
@@ -17988,7 +18001,7 @@
       <c r="Q74"/>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -18013,7 +18026,7 @@
       <c r="Q75"/>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -18033,7 +18046,7 @@
       <c r="Q76"/>
       <c r="R76"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -18053,7 +18066,7 @@
       <c r="Q77"/>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -18073,7 +18086,7 @@
       <c r="Q78"/>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -18093,7 +18106,7 @@
       <c r="Q79"/>
       <c r="R79"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -18113,7 +18126,7 @@
       <c r="Q80"/>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -18133,7 +18146,7 @@
       <c r="Q81"/>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -18153,7 +18166,7 @@
       <c r="Q82"/>
       <c r="R82"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -18173,7 +18186,7 @@
       <c r="Q83"/>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -18193,7 +18206,7 @@
       <c r="Q84"/>
       <c r="R84"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -18213,7 +18226,7 @@
       <c r="Q85"/>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -18233,7 +18246,7 @@
       <c r="Q86"/>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -18253,7 +18266,7 @@
       <c r="Q87"/>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -18273,7 +18286,7 @@
       <c r="Q88"/>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -18293,7 +18306,7 @@
       <c r="Q89"/>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -18313,7 +18326,7 @@
       <c r="Q90"/>
       <c r="R90"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -18333,7 +18346,7 @@
       <c r="Q91"/>
       <c r="R91"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -18353,7 +18366,7 @@
       <c r="Q92"/>
       <c r="R92"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -18373,7 +18386,7 @@
       <c r="Q93"/>
       <c r="R93"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -18393,7 +18406,7 @@
       <c r="Q94"/>
       <c r="R94"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -18413,7 +18426,7 @@
       <c r="Q95"/>
       <c r="R95"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -18433,7 +18446,7 @@
       <c r="Q96"/>
       <c r="R96"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -18453,7 +18466,7 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -18473,7 +18486,7 @@
       <c r="Q98"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -18493,7 +18506,7 @@
       <c r="Q99"/>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -18513,7 +18526,7 @@
       <c r="Q100"/>
       <c r="R100"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -18533,7 +18546,7 @@
       <c r="Q101"/>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -18553,7 +18566,7 @@
       <c r="Q102"/>
       <c r="R102"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -18573,7 +18586,7 @@
       <c r="Q103"/>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -18593,7 +18606,7 @@
       <c r="Q104"/>
       <c r="R104"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -18613,7 +18626,7 @@
       <c r="Q105"/>
       <c r="R105"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -18633,7 +18646,7 @@
       <c r="Q106"/>
       <c r="R106"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -18653,7 +18666,7 @@
       <c r="Q107"/>
       <c r="R107"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -18673,7 +18686,7 @@
       <c r="Q108"/>
       <c r="R108"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -18693,7 +18706,7 @@
       <c r="Q109"/>
       <c r="R109"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -18713,7 +18726,7 @@
       <c r="Q110"/>
       <c r="R110"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -18743,20 +18756,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A93B05A-7C0F-3C47-AB87-40F830A8ACAF}">
   <dimension ref="A2:I280"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="3"/>
-    <col min="9" max="9" width="13.42578125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="17.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.81640625" style="3"/>
+    <col min="9" max="9" width="13.453125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -18764,7 +18777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -18786,7 +18799,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -18805,7 +18818,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>48756732</v>
       </c>
@@ -18827,7 +18840,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>48773372</v>
       </c>
@@ -18851,7 +18864,7 @@
         <v>63.971494836213097</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>48790012</v>
       </c>
@@ -18875,7 +18888,7 @@
         <v>55.213492566969471</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>48806652</v>
       </c>
@@ -18899,7 +18912,7 @@
         <v>40.362966979991469</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>48823292</v>
       </c>
@@ -18923,7 +18936,7 @@
         <v>54.071144444894493</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>48839932</v>
       </c>
@@ -18947,7 +18960,7 @@
         <v>62.829146714137877</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>48856572</v>
       </c>
@@ -18971,7 +18984,7 @@
         <v>57.498188811119995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>48873212</v>
       </c>
@@ -18995,7 +19008,7 @@
         <v>58.640536933195229</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>48889852</v>
       </c>
@@ -19019,7 +19032,7 @@
         <v>45.313142175650874</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>48906492</v>
       </c>
@@ -19043,7 +19056,7 @@
         <v>28.177920344522555</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>48923132</v>
       </c>
@@ -19067,7 +19080,7 @@
         <v>22.085397026787938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>48939772</v>
       </c>
@@ -19091,7 +19104,7 @@
         <v>18.658352660562105</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>48956412</v>
       </c>
@@ -19115,7 +19128,7 @@
         <v>8.7580022692435016</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>48973052</v>
       </c>
@@ -19139,7 +19152,7 @@
         <v>1.1423481220753138</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>48989692</v>
       </c>
@@ -19163,7 +19176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>49006332</v>
       </c>
@@ -19187,7 +19200,7 @@
         <v>-1.1423481220753147</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>49022972</v>
       </c>
@@ -19211,7 +19224,7 @@
         <v>-17.135221831128625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>49039612</v>
       </c>
@@ -19235,7 +19248,7 @@
         <v>-29.701051173956103</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>49056252</v>
       </c>
@@ -19259,7 +19272,7 @@
         <v>-41.886097809425181</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>49072892</v>
       </c>
@@ -19283,7 +19296,7 @@
         <v>-56.355840689044726</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>49089532</v>
       </c>
@@ -19307,7 +19320,7 @@
         <v>-47.597838419801434</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>49106172</v>
       </c>
@@ -19331,7 +19344,7 @@
         <v>-36.555139906407554</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>49122812</v>
       </c>
@@ -19355,7 +19368,7 @@
         <v>-52.928796322819018</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>49139452</v>
       </c>
@@ -19379,7 +19392,7 @@
         <v>-62.829146714137821</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>49156092</v>
       </c>
@@ -19403,7 +19416,7 @@
         <v>-62.448364006779563</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>49172732</v>
       </c>
@@ -19427,7 +19440,7 @@
         <v>-71.206366276022848</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>49189372</v>
       </c>
@@ -19451,7 +19464,7 @@
         <v>-59.021319640553628</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>49206012</v>
       </c>
@@ -19475,7 +19488,7 @@
         <v>-44.170794053575705</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>49222652</v>
       </c>
@@ -19499,7 +19512,7 @@
         <v>-52.92879632281921</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>49239292</v>
       </c>
@@ -19523,7 +19536,7 @@
         <v>-54.071144444894422</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>49255932</v>
       </c>
@@ -19547,7 +19560,7 @@
         <v>-44.170794053575705</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>49272572</v>
       </c>
@@ -19571,7 +19584,7 @@
         <v>-41.50531510206681</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>49289212</v>
       </c>
@@ -19595,7 +19608,7 @@
         <v>-30.462616588672784</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>49305852</v>
       </c>
@@ -19619,7 +19632,7 @@
         <v>-18.277569953203692</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>49322492</v>
       </c>
@@ -19643,7 +19656,7 @@
         <v>-8.7580022692434021</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>49339132</v>
       </c>
@@ -19667,7 +19680,7 @@
         <v>-1.523130829433575</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>49355772</v>
       </c>
@@ -19691,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>49372412</v>
       </c>
@@ -19715,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>49389052</v>
       </c>
@@ -19739,7 +19752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>49405692</v>
       </c>
@@ -19763,7 +19776,7 @@
         <v>1.523130829433575</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>49422332</v>
       </c>
@@ -19787,7 +19800,7 @@
         <v>22.085397026787746</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>49438972</v>
       </c>
@@ -19811,7 +19824,7 @@
         <v>37.697488028482717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>49455612</v>
       </c>
@@ -19835,7 +19848,7 @@
         <v>27.035572222447172</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>49472252</v>
       </c>
@@ -19859,7 +19872,7 @@
         <v>23.608527856221453</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>49488892</v>
       </c>
@@ -19883,7 +19896,7 @@
         <v>27.035572222447264</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49505532</v>
       </c>
@@ -19907,7 +19920,7 @@
         <v>27.035572222447264</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>49522172</v>
       </c>
@@ -19931,7 +19944,7 @@
         <v>29.320268466597572</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>49538812</v>
       </c>
@@ -19955,7 +19968,7 @@
         <v>26.654789515088684</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>49555452</v>
       </c>
@@ -19979,7 +19992,7 @@
         <v>18.658352660562226</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>49572092</v>
       </c>
@@ -20003,7 +20016,7 @@
         <v>12.565829342827607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>49588732</v>
       </c>
@@ -20027,7 +20040,7 @@
         <v>8.3772195618850365</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>49605372</v>
       </c>
@@ -20051,7 +20064,7 @@
         <v>6.0925233177345994</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>49622012</v>
       </c>
@@ -20075,7 +20088,7 @@
         <v>1.5231308294335699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>49638652</v>
       </c>
@@ -20099,7 +20112,7 @@
         <v>-1.1423481220753147</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>49655292</v>
       </c>
@@ -20123,7 +20136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>49671932</v>
       </c>
@@ -20147,7 +20160,7 @@
         <v>-4.9501751956593054</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>49688572</v>
       </c>
@@ -20171,7 +20184,7 @@
         <v>-22.085397026787852</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>49705212</v>
       </c>
@@ -20195,7 +20208,7 @@
         <v>-30.843399296031361</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>49721852</v>
       </c>
@@ -20219,7 +20232,7 @@
         <v>-31.985747418106463</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>49738492</v>
       </c>
@@ -20243,7 +20256,7 @@
         <v>-31.985747418106463</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>49755132</v>
       </c>
@@ -20267,7 +20280,7 @@
         <v>-22.085397026787852</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>49771772</v>
       </c>
@@ -20291,7 +20304,7 @@
         <v>-20.562266197354276</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>49788412</v>
       </c>
@@ -20315,7 +20328,7 @@
         <v>-25.893224100372056</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>49805052</v>
       </c>
@@ -20339,7 +20352,7 @@
         <v>-25.893224100371949</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>49821692</v>
       </c>
@@ -20363,7 +20376,7 @@
         <v>-23.227745148863058</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>49838332</v>
       </c>
@@ -20387,7 +20400,7 @@
         <v>-19.800700782637197</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>49854972</v>
       </c>
@@ -20411,7 +20424,7 @@
         <v>-13.708177464902723</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>49871612</v>
       </c>
@@ -20435,7 +20448,7 @@
         <v>-6.0925233177346199</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>49888252</v>
       </c>
@@ -20459,7 +20472,7 @@
         <v>-1.1423481220752079</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>49904892</v>
       </c>
@@ -20483,7 +20496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>49921532</v>
       </c>
@@ -20507,7 +20520,7 @@
         <v>13.708177464902707</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>49938172</v>
       </c>
@@ -20531,7 +20544,7 @@
         <v>28.177920344522363</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>49954812</v>
       </c>
@@ -20555,7 +20568,7 @@
         <v>24.370093270938373</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>49971452</v>
       </c>
@@ -20579,7 +20592,7 @@
         <v>28.17792034452247</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>49988092</v>
       </c>
@@ -20603,7 +20616,7 @@
         <v>45.313142175651016</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>50004732</v>
       </c>
@@ -20627,7 +20640,7 @@
         <v>50.644100078668686</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>50021372</v>
       </c>
@@ -20651,7 +20664,7 @@
         <v>61.306015884704138</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>50038012</v>
       </c>
@@ -20675,7 +20688,7 @@
         <v>72.348714398098167</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>50054652</v>
       </c>
@@ -20699,7 +20712,7 @@
         <v>56.73662339640331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>50071292</v>
       </c>
@@ -20723,7 +20736,7 @@
         <v>46.455490297726222</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>50087932</v>
       </c>
@@ -20747,7 +20760,7 @@
         <v>60.163667762629039</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>50104572</v>
       </c>
@@ -20771,7 +20784,7 @@
         <v>62.829146714137927</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>50121212</v>
       </c>
@@ -20795,7 +20808,7 @@
         <v>60.163667762628933</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>50137852</v>
       </c>
@@ -20819,7 +20832,7 @@
         <v>59.782885055270562</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>50154492</v>
       </c>
@@ -20843,7 +20856,7 @@
         <v>44.170794053575406</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>50171132</v>
       </c>
@@ -20867,7 +20880,7 @@
         <v>35.793574491690322</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>50187772</v>
       </c>
@@ -20891,7 +20904,7 @@
         <v>33.128095540181988</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>50204412</v>
       </c>
@@ -20915,7 +20928,7 @@
         <v>25.893224100371949</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>50221052</v>
       </c>
@@ -20939,7 +20952,7 @@
         <v>20.562266197353956</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>50237692</v>
       </c>
@@ -20963,7 +20976,7 @@
         <v>14.469742879619655</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>50254332</v>
       </c>
@@ -20987,7 +21000,7 @@
         <v>8.7580022692435104</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>50270972</v>
       </c>
@@ -21011,7 +21024,7 @@
         <v>3.8078270735840976</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>50287612</v>
       </c>
@@ -21035,7 +21048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>50304252</v>
       </c>
@@ -21059,7 +21072,7 @@
         <v>-8.7580022692435104</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>50320892</v>
       </c>
@@ -21083,7 +21096,7 @@
         <v>-34.270443662256987</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>50337532</v>
       </c>
@@ -21107,7 +21120,7 @@
         <v>-51.405665493385314</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>50354172</v>
       </c>
@@ -21131,7 +21144,7 @@
         <v>-43.028445931500492</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>50370812</v>
       </c>
@@ -21155,7 +21168,7 @@
         <v>-35.412791784332299</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>50387452</v>
       </c>
@@ -21179,7 +21192,7 @@
         <v>-52.928796322819103</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>50404092</v>
       </c>
@@ -21203,7 +21216,7 @@
         <v>-70.064018153947757</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>50420732</v>
       </c>
@@ -21227,7 +21240,7 @@
         <v>-77.29888959375748</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>50437372</v>
       </c>
@@ -21251,7 +21264,7 @@
         <v>-88.341588107151409</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>50454012</v>
       </c>
@@ -21275,7 +21288,7 @@
         <v>-79.583585837907464</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>50470652</v>
       </c>
@@ -21299,7 +21312,7 @@
         <v>-70.064018153947288</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>50487292</v>
       </c>
@@ -21323,7 +21336,7 @@
         <v>-82.249064789416892</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>50503932</v>
       </c>
@@ -21347,7 +21360,7 @@
         <v>-87.19923998507609</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>50520572</v>
       </c>
@@ -21371,7 +21384,7 @@
         <v>-89.483936229226615</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>50537212</v>
       </c>
@@ -21395,7 +21408,7 @@
         <v>-89.483936229226714</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>50553852</v>
       </c>
@@ -21419,7 +21432,7 @@
         <v>-67.779321909797233</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>50570492</v>
       </c>
@@ -21443,7 +21456,7 @@
         <v>-47.978621127159798</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>50587132</v>
       </c>
@@ -21467,7 +21480,7 @@
         <v>-44.170794053575754</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>50603772</v>
       </c>
@@ -21491,7 +21504,7 @@
         <v>-38.078270735841187</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>50620412</v>
       </c>
@@ -21515,7 +21528,7 @@
         <v>-24.370093270938373</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>50637052</v>
       </c>
@@ -21539,7 +21552,7 @@
         <v>-13.327394757544395</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>50653692</v>
       </c>
@@ -21563,7 +21576,7 @@
         <v>-7.2348714398097744</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>50670332</v>
       </c>
@@ -21587,7 +21600,7 @@
         <v>-3.8078270735840976</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>50686972</v>
       </c>
@@ -21611,7 +21624,7 @@
         <v>1.1423481220752079</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>50703612</v>
       </c>
@@ -21635,7 +21648,7 @@
         <v>15.992873709053285</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>50720252</v>
       </c>
@@ -21659,7 +21672,7 @@
         <v>23.227745148863164</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>50736892</v>
       </c>
@@ -21683,7 +21696,7 @@
         <v>39.220618857916399</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>50753532</v>
       </c>
@@ -21707,7 +21720,7 @@
         <v>57.498188811119711</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>50770172</v>
       </c>
@@ -21731,7 +21744,7 @@
         <v>57.878971518478515</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>50786812</v>
       </c>
@@ -21755,7 +21768,7 @@
         <v>70.0640181539477</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>50803452</v>
       </c>
@@ -21779,7 +21792,7 @@
         <v>70.064018153947643</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>50820092</v>
       </c>
@@ -21803,7 +21816,7 @@
         <v>47.978621127159798</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>50836732</v>
       </c>
@@ -21827,7 +21840,7 @@
         <v>57.498188811120045</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>50853372</v>
       </c>
@@ -21851,7 +21864,7 @@
         <v>74.633410642248691</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>50870012</v>
       </c>
@@ -21875,7 +21888,7 @@
         <v>68.540887324514188</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>50886652</v>
       </c>
@@ -21899,7 +21912,7 @@
         <v>70.064018153947643</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>50903292</v>
       </c>
@@ -21923,7 +21936,7 @@
         <v>63.971494836213033</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>50919932</v>
       </c>
@@ -21947,7 +21960,7 @@
         <v>40.362966979991498</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>50936572</v>
       </c>
@@ -21971,7 +21984,7 @@
         <v>33.128095540181334</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>50953212</v>
       </c>
@@ -21995,7 +22008,7 @@
         <v>36.935922613765982</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>50969852</v>
       </c>
@@ -22019,7 +22032,7 @@
         <v>30.843399296031361</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>50986492</v>
       </c>
@@ -22043,7 +22056,7 @@
         <v>23.227745148863058</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>51003132</v>
       </c>
@@ -22067,7 +22080,7 @@
         <v>17.13522183112844</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>51019772</v>
       </c>
@@ -22091,7 +22104,7 @@
         <v>11.042698513394033</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>51036412</v>
       </c>
@@ -22115,7 +22128,7 @@
         <v>3.4270443662258372</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>51053052</v>
       </c>
@@ -22139,7 +22152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>51069692</v>
       </c>
@@ -22163,7 +22176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>51086332</v>
       </c>
@@ -22187,7 +22200,7 @@
         <v>-11.042698513394033</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>51102972</v>
       </c>
@@ -22211,7 +22224,7 @@
         <v>-20.562266197354276</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>51119612</v>
       </c>
@@ -22235,7 +22248,7 @@
         <v>-15.612091001694864</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>51136252</v>
       </c>
@@ -22259,7 +22272,7 @@
         <v>-19.800700782637435</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>51152892</v>
       </c>
@@ -22283,7 +22296,7 @@
         <v>-25.893224100372056</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>51169532</v>
       </c>
@@ -22307,7 +22320,7 @@
         <v>-24.370093270938373</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>51186172</v>
       </c>
@@ -22331,7 +22344,7 @@
         <v>-28.177920344522363</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>51202812</v>
       </c>
@@ -22355,7 +22368,7 @@
         <v>-25.893224100371949</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>51219452</v>
       </c>
@@ -22379,7 +22392,7 @@
         <v>-17.13522183112844</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>51236092</v>
       </c>
@@ -22403,7 +22416,7 @@
         <v>-15.992873709053232</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>51252732</v>
       </c>
@@ -22427,7 +22440,7 @@
         <v>-14.850525586977932</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>51269372</v>
       </c>
@@ -22451,7 +22464,7 @@
         <v>-8.7580022692434021</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>51286012</v>
       </c>
@@ -22475,7 +22488,7 @@
         <v>-4.9501751956593054</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>51302652</v>
       </c>
@@ -22499,7 +22512,7 @@
         <v>-3.4270443662257306</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>51319292</v>
       </c>
@@ -22523,7 +22536,7 @@
         <v>-2.2846962441504157</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>51335932</v>
       </c>
@@ -22547,7 +22560,7 @@
         <v>-1.1423481220752079</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>51352572</v>
       </c>
@@ -22571,7 +22584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>51369212</v>
       </c>
@@ -22595,7 +22608,7 @@
         <v>11.042698513393818</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>51385852</v>
       </c>
@@ -22619,7 +22632,7 @@
         <v>28.17792034452247</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>51402492</v>
       </c>
@@ -22643,7 +22656,7 @@
         <v>28.17792034452247</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>51419132</v>
       </c>
@@ -22667,7 +22680,7 @@
         <v>18.277569953203752</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>51435772</v>
       </c>
@@ -22691,7 +22704,7 @@
         <v>19.419918075279067</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>51452412</v>
       </c>
@@ -22715,7 +22728,7 @@
         <v>29.320268466597572</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>51469052</v>
       </c>
@@ -22739,7 +22752,7 @@
         <v>29.701051173956046</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>51485692</v>
       </c>
@@ -22763,7 +22776,7 @@
         <v>24.75087597829674</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>51502332</v>
       </c>
@@ -22787,7 +22800,7 @@
         <v>20.56226619735417</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>51518972</v>
       </c>
@@ -22811,7 +22824,7 @@
         <v>13.327394757544448</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>51535612</v>
       </c>
@@ -22835,7 +22848,7 @@
         <v>8.7580022692435104</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>51552252</v>
       </c>
@@ -22859,7 +22872,7 @@
         <v>7.6156541471683017</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>51568892</v>
       </c>
@@ -22883,7 +22896,7 @@
         <v>4.9501751956592397</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>51585532</v>
       </c>
@@ -22907,7 +22920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>51602172</v>
       </c>
@@ -22931,7 +22944,7 @@
         <v>-4.9501751956593054</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>51618812</v>
       </c>
@@ -22955,7 +22968,7 @@
         <v>-8.7580022692435104</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>51635452</v>
       </c>
@@ -22979,7 +22992,7 @@
         <v>-20.94304890471275</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>51652092</v>
       </c>
@@ -23003,7 +23016,7 @@
         <v>-36.935922613765982</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>51668732</v>
       </c>
@@ -23027,7 +23040,7 @@
         <v>-46.455490297726115</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>51685372</v>
       </c>
@@ -23051,7 +23064,7 @@
         <v>-58.640536933195357</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>51702012</v>
       </c>
@@ -23075,7 +23088,7 @@
         <v>-55.213492566969627</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>51718652</v>
       </c>
@@ -23099,7 +23112,7 @@
         <v>-36.935922613765875</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>51735292</v>
       </c>
@@ -23123,7 +23136,7 @@
         <v>-49.120969249235117</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>51751932</v>
       </c>
@@ -23147,7 +23160,7 @@
         <v>-70.064018153947643</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>51768572</v>
       </c>
@@ -23171,7 +23184,7 @@
         <v>-68.921670031872338</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>51785212</v>
       </c>
@@ -23195,7 +23208,7 @@
         <v>-78.441237715832798</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>51801852</v>
       </c>
@@ -23219,7 +23232,7 @@
         <v>-77.298889593757579</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>51818492</v>
       </c>
@@ -23243,7 +23256,7 @@
         <v>-50.263317371310322</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>51835132</v>
       </c>
@@ -23267,7 +23280,7 @@
         <v>-49.12096924923501</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>51851772</v>
       </c>
@@ -23291,7 +23304,7 @@
         <v>-57.878971518478465</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>51868412</v>
       </c>
@@ -23315,7 +23328,7 @@
         <v>-46.455490297726278</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>51885052</v>
       </c>
@@ -23339,7 +23352,7 @@
         <v>-37.697488028482212</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>51901692</v>
       </c>
@@ -23363,7 +23376,7 @@
         <v>-31.985747418106463</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>51918332</v>
       </c>
@@ -23387,7 +23400,7 @@
         <v>-22.085397026787906</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>51934972</v>
       </c>
@@ -23411,7 +23424,7 @@
         <v>-9.9003503913187174</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>51951612</v>
       </c>
@@ -23435,7 +23448,7 @@
         <v>-1.5231308294336283</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>51968252</v>
       </c>
@@ -23459,7 +23472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>51984892</v>
       </c>
@@ -23483,7 +23496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>52001532</v>
       </c>
@@ -23507,7 +23520,7 @@
         <v>15.992873709053285</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>52018172</v>
       </c>
@@ -23531,7 +23544,7 @@
         <v>36.935922613765875</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>52034812</v>
       </c>
@@ -23555,7 +23568,7 @@
         <v>54.071144444894365</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>52051452</v>
       </c>
@@ -23579,7 +23592,7 @@
         <v>72.348714398098124</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>52068092</v>
       </c>
@@ -23603,7 +23616,7 @@
         <v>71.206366276022905</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>52084732</v>
       </c>
@@ -23627,7 +23640,7 @@
         <v>52.92879632281921</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>52101372</v>
       </c>
@@ -23651,7 +23664,7 @@
         <v>60.163667762629039</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>52118012</v>
       </c>
@@ -23675,7 +23688,7 @@
         <v>85.676109155642621</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>52134652</v>
       </c>
@@ -23699,7 +23712,7 @@
         <v>77.29888959375748</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>52151292</v>
       </c>
@@ -23723,7 +23736,7 @@
         <v>50.263317371310215</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>52167932</v>
       </c>
@@ -23747,7 +23760,7 @@
         <v>30.462616588672585</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>52184572</v>
       </c>
@@ -23771,7 +23784,7 @@
         <v>18.658352660562226</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>52201212</v>
       </c>
@@ -23795,7 +23808,7 @@
         <v>11.042698513393818</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>52217852</v>
       </c>
@@ -23819,7 +23832,7 @@
         <v>7.2348714398098277</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>52234492</v>
       </c>
@@ -23843,7 +23856,7 @@
         <v>3.8078270735842041</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>52251132</v>
       </c>
@@ -23867,7 +23880,7 @@
         <v>1.1423481220752079</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>52267772</v>
       </c>
@@ -23891,7 +23904,7 @@
         <v>6.349072690454979</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="11"/>
     </row>
   </sheetData>
@@ -23904,26 +23917,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7189C96-DF02-FD4B-8F50-F3EE187D16C6}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3"/>
-    <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="12.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="3"/>
+    <col min="5" max="5" width="11.54296875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1"/>
@@ -23936,7 +23949,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="62" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -23969,33 +23982,33 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="43">
         <v>100</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>120</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>0</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>603</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>116</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>0</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="44">
         <v>410</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="47">
         <f>B4-A4</f>
         <v>20</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="47">
         <f>E4-B4</f>
         <v>-4</v>
       </c>
@@ -24003,33 +24016,33 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="43">
         <v>100</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>120</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>579</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>117</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>399</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="47">
         <f t="shared" ref="H5:H68" si="0">B5-A5</f>
         <v>20</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="47">
         <f t="shared" ref="I5:I68" si="1">E5-B5</f>
         <v>-3</v>
       </c>
@@ -24037,33 +24050,33 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="43">
         <v>100</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>120</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>0</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>600</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>116</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>0</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>394</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
@@ -24071,33 +24084,33 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="43">
         <v>100</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>120</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>0</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>583</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>117</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>0</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>399</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="47">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="47">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
@@ -24105,64 +24118,64 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="43">
         <v>100</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>120</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>0</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>600</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>116</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <v>0</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>388</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="47">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="43">
         <v>100</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>120</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>0</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>583</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>116</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>0</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>404</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="47">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="47">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
@@ -24176,33 +24189,33 @@
       </c>
       <c r="T9" s="32"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="43">
         <v>100</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>120</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>0</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>602</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>116</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>0</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>392</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="47">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
@@ -24220,33 +24233,33 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="43">
         <v>100</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>121</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>0</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>585</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>115</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>0</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>394</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="47">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="47">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
@@ -24270,33 +24283,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="43">
         <v>100</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>120</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>0</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>602</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>117</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <v>0</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>394</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="47">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="47">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
@@ -24321,33 +24334,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="43">
         <v>100</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>119</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>0</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="45">
         <v>581</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>116</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <v>0</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>386</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="47">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="47">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
@@ -24372,8 +24385,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="42">
         <v>200</v>
       </c>
       <c r="B14">
@@ -24394,11 +24407,11 @@
       <c r="G14">
         <v>47</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="48">
         <f t="shared" si="1"/>
         <v>-9</v>
       </c>
@@ -24422,8 +24435,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="42">
         <v>200</v>
       </c>
       <c r="B15">
@@ -24444,11 +24457,11 @@
       <c r="G15">
         <v>47</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="48">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
@@ -24473,8 +24486,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="42">
         <v>200</v>
       </c>
       <c r="B16">
@@ -24495,11 +24508,11 @@
       <c r="G16">
         <v>47</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="48">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
@@ -24524,8 +24537,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="42">
         <v>200</v>
       </c>
       <c r="B17" s="3">
@@ -24546,11 +24559,11 @@
       <c r="G17" s="3">
         <v>47</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="48">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="48">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
@@ -24575,8 +24588,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="42">
         <v>200</v>
       </c>
       <c r="B18" s="3">
@@ -24597,11 +24610,11 @@
       <c r="G18" s="3">
         <v>47</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="48">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
@@ -24626,8 +24639,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="42">
         <v>200</v>
       </c>
       <c r="B19" s="3">
@@ -24648,11 +24661,11 @@
       <c r="G19" s="3">
         <v>47</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="48">
         <f t="shared" si="1"/>
         <v>-9</v>
       </c>
@@ -24677,8 +24690,8 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="42">
         <v>200</v>
       </c>
       <c r="B20" s="3">
@@ -24699,11 +24712,11 @@
       <c r="G20" s="3">
         <v>47</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="48">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
@@ -24728,8 +24741,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="42">
         <v>200</v>
       </c>
       <c r="B21" s="3">
@@ -24750,18 +24763,18 @@
       <c r="G21" s="3">
         <v>48</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="48">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="42">
         <v>200</v>
       </c>
       <c r="B22" s="3">
@@ -24782,18 +24795,18 @@
       <c r="G22" s="3">
         <v>47</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="48">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="42">
         <v>200</v>
       </c>
       <c r="B23" s="3">
@@ -24814,327 +24827,327 @@
       <c r="G23" s="3">
         <v>47</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="48">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="43">
         <v>300</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="44">
         <v>323</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="45">
         <v>0</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="44">
         <v>67</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="44">
         <v>316</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="44">
         <v>0</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="44">
         <v>12</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="47">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="47">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="43">
         <v>300</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="44">
         <v>322</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="45">
         <v>0</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="44">
         <v>66</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="44">
         <v>321</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="44">
         <v>0</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="44">
         <v>12</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="47">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="47">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="43">
         <v>300</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="44">
         <v>322</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="45">
         <v>0</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="44">
         <v>66</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="44">
         <v>316</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="44">
         <v>0</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="44">
         <v>12</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="47">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="47">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="43">
         <v>300</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="45">
         <v>321</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="45">
         <v>0</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="45">
         <v>65</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="45">
         <v>321</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="46">
         <v>0</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="45">
         <v>12</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="47">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="43">
         <v>300</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="45">
         <v>321</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="45">
         <v>0</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="45">
         <v>66</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="45">
         <v>316</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="46">
         <v>0</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="45">
         <v>12</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="47">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="47">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="44">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="43">
         <v>300</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="45">
         <v>321</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="45">
         <v>0</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="45">
         <v>65</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="45">
         <v>322</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="46">
         <v>0</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="45">
         <v>12</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="47">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="43">
         <v>300</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="45">
         <v>320</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="45">
         <v>0</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="45">
         <v>67</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="45">
         <v>317</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="46">
         <v>0</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="45">
         <v>12</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="47">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="47">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="43">
         <v>300</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="45">
         <v>322</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="45">
         <v>0</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="45">
         <v>67</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="45">
         <v>322</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="46">
         <v>0</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="45">
         <v>11</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="47">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" s="43">
         <v>300</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="45">
         <v>322</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="45">
         <v>0</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="45">
         <v>67</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="45">
         <v>315</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="46">
         <v>0</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="45">
         <v>12</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="47">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="47">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="43">
         <v>300</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="45">
         <v>322</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="45">
         <v>0</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="45">
         <v>67</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="45">
         <v>315</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="46">
         <v>0</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="45">
         <v>12</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="47">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="47">
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="42">
         <v>400</v>
       </c>
       <c r="B34">
@@ -25155,17 +25168,17 @@
       <c r="G34">
         <v>6</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I34" s="49">
+      <c r="I34" s="48">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="42">
         <v>400</v>
       </c>
       <c r="B35">
@@ -25186,17 +25199,17 @@
       <c r="G35">
         <v>5</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I35" s="49">
+      <c r="I35" s="48">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="42">
         <v>400</v>
       </c>
       <c r="B36">
@@ -25217,17 +25230,17 @@
       <c r="G36">
         <v>6</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="48">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="42">
         <v>400</v>
       </c>
       <c r="B37" s="3">
@@ -25248,17 +25261,17 @@
       <c r="G37" s="3">
         <v>5</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="48">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I37" s="49">
+      <c r="I37" s="48">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="42">
         <v>400</v>
       </c>
       <c r="B38" s="3">
@@ -25279,17 +25292,17 @@
       <c r="G38" s="3">
         <v>6</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="48">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I38" s="49">
+      <c r="I38" s="48">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="42">
         <v>400</v>
       </c>
       <c r="B39" s="3">
@@ -25310,17 +25323,17 @@
       <c r="G39" s="3">
         <v>5</v>
       </c>
-      <c r="H39" s="49">
+      <c r="H39" s="48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I39" s="49">
+      <c r="I39" s="48">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="42">
         <v>400</v>
       </c>
       <c r="B40" s="3">
@@ -25341,17 +25354,17 @@
       <c r="G40" s="3">
         <v>7</v>
       </c>
-      <c r="H40" s="49">
+      <c r="H40" s="48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="48">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="42">
         <v>400</v>
       </c>
       <c r="B41" s="3">
@@ -25372,17 +25385,17 @@
       <c r="G41" s="3">
         <v>5</v>
       </c>
-      <c r="H41" s="49">
+      <c r="H41" s="48">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I41" s="49">
+      <c r="I41" s="48">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="42">
         <v>400</v>
       </c>
       <c r="B42" s="3">
@@ -25403,17 +25416,17 @@
       <c r="G42" s="3">
         <v>6</v>
       </c>
-      <c r="H42" s="49">
+      <c r="H42" s="48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I42" s="49">
+      <c r="I42" s="48">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="42">
         <v>400</v>
       </c>
       <c r="B43" s="3">
@@ -25434,327 +25447,327 @@
       <c r="G43" s="3">
         <v>5</v>
       </c>
-      <c r="H43" s="49">
+      <c r="H43" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I43" s="49">
+      <c r="I43" s="48">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="43">
         <v>500</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="44">
         <v>525</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="45">
         <v>0</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="44">
         <v>16</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="44">
         <v>618</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="44">
         <v>2</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="44">
         <v>3</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="47">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I44" s="48">
+      <c r="I44" s="47">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="44">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="43">
         <v>500</v>
       </c>
-      <c r="B45" s="45">
+      <c r="B45" s="44">
         <v>527</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="45">
         <v>0</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="44">
         <v>17</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="44">
         <v>536</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="44">
         <v>2</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="44">
         <v>3</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="47">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I45" s="48">
+      <c r="I45" s="47">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="44">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="43">
         <v>500</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="44">
         <v>524</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="45">
         <v>0</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="44">
         <v>17</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="44">
         <v>648</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="44">
         <v>2</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="44">
         <v>3</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="47">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I46" s="48">
+      <c r="I46" s="47">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="44">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="43">
         <v>500</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="45">
         <v>527</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="45">
         <v>0</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="45">
         <v>17</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="45">
         <v>545</v>
       </c>
-      <c r="F47" s="47">
+      <c r="F47" s="46">
         <v>2</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="45">
         <v>3</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="47">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I47" s="48">
+      <c r="I47" s="47">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="44">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="43">
         <v>500</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="45">
         <v>524</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="45">
         <v>0</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="45">
         <v>17</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="45">
         <v>639</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="46">
         <v>2</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="45">
         <v>3</v>
       </c>
-      <c r="H48" s="48">
+      <c r="H48" s="47">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I48" s="48">
+      <c r="I48" s="47">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="43">
         <v>500</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="45">
         <v>525</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="45">
         <v>0</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="45">
         <v>17</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="45">
         <v>553</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="46">
         <v>2</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="45">
         <v>3</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="47">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I49" s="48">
+      <c r="I49" s="47">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="44">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="43">
         <v>500</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="45">
         <v>528</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="45">
         <v>0</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="45">
         <v>18</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="45">
         <v>653</v>
       </c>
-      <c r="F50" s="47">
+      <c r="F50" s="46">
         <v>2</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="45">
         <v>3</v>
       </c>
-      <c r="H50" s="48">
+      <c r="H50" s="47">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I50" s="48">
+      <c r="I50" s="47">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="44">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="43">
         <v>500</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="45">
         <v>524</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="45">
         <v>0</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="45">
         <v>17</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="45">
         <v>546</v>
       </c>
-      <c r="F51" s="47">
+      <c r="F51" s="46">
         <v>2</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="45">
         <v>3</v>
       </c>
-      <c r="H51" s="48">
+      <c r="H51" s="47">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I51" s="48">
+      <c r="I51" s="47">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="44">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="43">
         <v>500</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="45">
         <v>523</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="45">
         <v>0</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="45">
         <v>17</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="45">
         <v>635</v>
       </c>
-      <c r="F52" s="47">
+      <c r="F52" s="46">
         <v>2</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="45">
         <v>3</v>
       </c>
-      <c r="H52" s="48">
+      <c r="H52" s="47">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I52" s="48">
+      <c r="I52" s="47">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="44">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="43">
         <v>500</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="45">
         <v>524</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="45">
         <v>0</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="45">
         <v>17</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="45">
         <v>545</v>
       </c>
-      <c r="F53" s="47">
+      <c r="F53" s="46">
         <v>2</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="45">
         <v>3</v>
       </c>
-      <c r="H53" s="48">
+      <c r="H53" s="47">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I53" s="48">
+      <c r="I53" s="47">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="42">
         <v>600</v>
       </c>
       <c r="B54">
@@ -25775,17 +25788,17 @@
       <c r="G54">
         <v>2</v>
       </c>
-      <c r="H54" s="49">
+      <c r="H54" s="48">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I54" s="49">
+      <c r="I54" s="48">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="42">
         <v>600</v>
       </c>
       <c r="B55">
@@ -25806,17 +25819,17 @@
       <c r="G55">
         <v>2</v>
       </c>
-      <c r="H55" s="49">
+      <c r="H55" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I55" s="49">
+      <c r="I55" s="48">
         <f t="shared" si="1"/>
         <v>-29</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="42">
         <v>600</v>
       </c>
       <c r="B56">
@@ -25837,17 +25850,17 @@
       <c r="G56">
         <v>2</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="48">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I56" s="49">
+      <c r="I56" s="48">
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="42">
         <v>600</v>
       </c>
       <c r="B57" s="3">
@@ -25868,17 +25881,17 @@
       <c r="G57" s="3">
         <v>2</v>
       </c>
-      <c r="H57" s="49">
+      <c r="H57" s="48">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="I57" s="49">
+      <c r="I57" s="48">
         <f t="shared" si="1"/>
         <v>-36</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="42">
         <v>600</v>
       </c>
       <c r="B58" s="3">
@@ -25899,17 +25912,17 @@
       <c r="G58" s="3">
         <v>2</v>
       </c>
-      <c r="H58" s="49">
+      <c r="H58" s="48">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I58" s="49">
+      <c r="I58" s="48">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="42">
         <v>600</v>
       </c>
       <c r="B59" s="3">
@@ -25930,17 +25943,17 @@
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="49">
+      <c r="H59" s="48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I59" s="49">
+      <c r="I59" s="48">
         <f t="shared" si="1"/>
         <v>-22</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="43">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="42">
         <v>600</v>
       </c>
       <c r="B60" s="3">
@@ -25961,17 +25974,17 @@
       <c r="G60" s="3">
         <v>2</v>
       </c>
-      <c r="H60" s="49">
+      <c r="H60" s="48">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="I60" s="49">
+      <c r="I60" s="48">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="43">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="42">
         <v>600</v>
       </c>
       <c r="B61" s="3">
@@ -25992,17 +26005,17 @@
       <c r="G61" s="3">
         <v>2</v>
       </c>
-      <c r="H61" s="49">
+      <c r="H61" s="48">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I61" s="49">
+      <c r="I61" s="48">
         <f t="shared" si="1"/>
         <v>-21</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="43">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="42">
         <v>600</v>
       </c>
       <c r="B62" s="3">
@@ -26023,17 +26036,17 @@
       <c r="G62" s="3">
         <v>2</v>
       </c>
-      <c r="H62" s="49">
+      <c r="H62" s="48">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="I62" s="49">
+      <c r="I62" s="48">
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="43">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="42">
         <v>600</v>
       </c>
       <c r="B63" s="3">
@@ -26054,327 +26067,327 @@
       <c r="G63" s="3">
         <v>2</v>
       </c>
-      <c r="H63" s="49">
+      <c r="H63" s="48">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I63" s="49">
+      <c r="I63" s="48">
         <f t="shared" si="1"/>
         <v>-40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="44">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="43">
         <v>700</v>
       </c>
-      <c r="B64" s="45">
+      <c r="B64" s="44">
         <v>722</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="45">
         <v>0</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="44">
         <v>6</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E64" s="44">
         <v>988</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="44">
         <v>2</v>
       </c>
-      <c r="G64" s="45">
+      <c r="G64" s="44">
         <v>2</v>
       </c>
-      <c r="H64" s="48">
+      <c r="H64" s="47">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I64" s="48">
+      <c r="I64" s="47">
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="44">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="43">
         <v>700</v>
       </c>
-      <c r="B65" s="45">
+      <c r="B65" s="44">
         <v>736</v>
       </c>
-      <c r="C65" s="46">
+      <c r="C65" s="45">
         <v>0</v>
       </c>
-      <c r="D65" s="45">
+      <c r="D65" s="44">
         <v>6</v>
       </c>
-      <c r="E65" s="45">
+      <c r="E65" s="44">
         <v>675</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="44">
         <v>2</v>
       </c>
-      <c r="G65" s="45">
+      <c r="G65" s="44">
         <v>2</v>
       </c>
-      <c r="H65" s="48">
+      <c r="H65" s="47">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I65" s="48">
+      <c r="I65" s="47">
         <f t="shared" si="1"/>
         <v>-61</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="44">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="43">
         <v>700</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="44">
         <v>726</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="45">
         <v>0</v>
       </c>
-      <c r="D66" s="45">
+      <c r="D66" s="44">
         <v>6</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E66" s="44">
         <v>1011</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="44">
         <v>2</v>
       </c>
-      <c r="G66" s="45">
+      <c r="G66" s="44">
         <v>2</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H66" s="47">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="I66" s="48">
+      <c r="I66" s="47">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="44">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="43">
         <v>700</v>
       </c>
-      <c r="B67" s="46">
+      <c r="B67" s="45">
         <v>732</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="45">
         <v>0</v>
       </c>
-      <c r="D67" s="46">
+      <c r="D67" s="45">
         <v>6</v>
       </c>
-      <c r="E67" s="46">
+      <c r="E67" s="45">
         <v>675</v>
       </c>
-      <c r="F67" s="47">
+      <c r="F67" s="46">
         <v>2</v>
       </c>
-      <c r="G67" s="46">
+      <c r="G67" s="45">
         <v>2</v>
       </c>
-      <c r="H67" s="48">
+      <c r="H67" s="47">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I67" s="48">
+      <c r="I67" s="47">
         <f t="shared" si="1"/>
         <v>-57</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="44">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="43">
         <v>700</v>
       </c>
-      <c r="B68" s="46">
+      <c r="B68" s="45">
         <v>725</v>
       </c>
-      <c r="C68" s="46">
+      <c r="C68" s="45">
         <v>0</v>
       </c>
-      <c r="D68" s="46">
+      <c r="D68" s="45">
         <v>6</v>
       </c>
-      <c r="E68" s="46">
+      <c r="E68" s="45">
         <v>1009</v>
       </c>
-      <c r="F68" s="47">
+      <c r="F68" s="46">
         <v>2</v>
       </c>
-      <c r="G68" s="46">
+      <c r="G68" s="45">
         <v>2</v>
       </c>
-      <c r="H68" s="48">
+      <c r="H68" s="47">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I68" s="48">
+      <c r="I68" s="47">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="44">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="43">
         <v>700</v>
       </c>
-      <c r="B69" s="46">
+      <c r="B69" s="45">
         <v>733</v>
       </c>
-      <c r="C69" s="46">
+      <c r="C69" s="45">
         <v>0</v>
       </c>
-      <c r="D69" s="46">
+      <c r="D69" s="45">
         <v>6</v>
       </c>
-      <c r="E69" s="46">
+      <c r="E69" s="45">
         <v>660</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="46">
         <v>2</v>
       </c>
-      <c r="G69" s="46">
+      <c r="G69" s="45">
         <v>2</v>
       </c>
-      <c r="H69" s="48">
+      <c r="H69" s="47">
         <f t="shared" ref="H69:H103" si="2">B69-A69</f>
         <v>33</v>
       </c>
-      <c r="I69" s="48">
+      <c r="I69" s="47">
         <f t="shared" ref="I69:I103" si="3">E69-B69</f>
         <v>-73</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="44">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="43">
         <v>700</v>
       </c>
-      <c r="B70" s="46">
+      <c r="B70" s="45">
         <v>727</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="45">
         <v>0</v>
       </c>
-      <c r="D70" s="46">
+      <c r="D70" s="45">
         <v>6</v>
       </c>
-      <c r="E70" s="46">
+      <c r="E70" s="45">
         <v>996</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F70" s="46">
         <v>2</v>
       </c>
-      <c r="G70" s="46">
+      <c r="G70" s="45">
         <v>2</v>
       </c>
-      <c r="H70" s="48">
+      <c r="H70" s="47">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I70" s="48">
+      <c r="I70" s="47">
         <f t="shared" si="3"/>
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="44">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="43">
         <v>700</v>
       </c>
-      <c r="B71" s="46">
+      <c r="B71" s="45">
         <v>735</v>
       </c>
-      <c r="C71" s="46">
+      <c r="C71" s="45">
         <v>0</v>
       </c>
-      <c r="D71" s="46">
+      <c r="D71" s="45">
         <v>6</v>
       </c>
-      <c r="E71" s="46">
+      <c r="E71" s="45">
         <v>696</v>
       </c>
-      <c r="F71" s="47">
+      <c r="F71" s="46">
         <v>2</v>
       </c>
-      <c r="G71" s="46">
+      <c r="G71" s="45">
         <v>2</v>
       </c>
-      <c r="H71" s="48">
+      <c r="H71" s="47">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="I71" s="48">
+      <c r="I71" s="47">
         <f t="shared" si="3"/>
         <v>-39</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="44">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="43">
         <v>700</v>
       </c>
-      <c r="B72" s="46">
+      <c r="B72" s="45">
         <v>732</v>
       </c>
-      <c r="C72" s="46">
+      <c r="C72" s="45">
         <v>0</v>
       </c>
-      <c r="D72" s="46">
+      <c r="D72" s="45">
         <v>6</v>
       </c>
-      <c r="E72" s="46">
+      <c r="E72" s="45">
         <v>1008</v>
       </c>
-      <c r="F72" s="47">
+      <c r="F72" s="46">
         <v>2</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="45">
         <v>1</v>
       </c>
-      <c r="H72" s="48">
+      <c r="H72" s="47">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="I72" s="48">
+      <c r="I72" s="47">
         <f t="shared" si="3"/>
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="44">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="43">
         <v>700</v>
       </c>
-      <c r="B73" s="46">
+      <c r="B73" s="45">
         <v>733</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="45">
         <v>0</v>
       </c>
-      <c r="D73" s="46">
+      <c r="D73" s="45">
         <v>6</v>
       </c>
-      <c r="E73" s="46">
+      <c r="E73" s="45">
         <v>708</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F73" s="46">
         <v>2</v>
       </c>
-      <c r="G73" s="46">
+      <c r="G73" s="45">
         <v>2</v>
       </c>
-      <c r="H73" s="48">
+      <c r="H73" s="47">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="I73" s="48">
+      <c r="I73" s="47">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="43">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="42">
         <v>800</v>
       </c>
       <c r="B74">
@@ -26395,17 +26408,17 @@
       <c r="G74">
         <v>2</v>
       </c>
-      <c r="H74" s="49">
+      <c r="H74" s="48">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I74" s="49">
+      <c r="I74" s="48">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="43">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="42">
         <v>800</v>
       </c>
       <c r="B75">
@@ -26426,17 +26439,17 @@
       <c r="G75">
         <v>2</v>
       </c>
-      <c r="H75" s="49">
+      <c r="H75" s="48">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="I75" s="49">
+      <c r="I75" s="48">
         <f t="shared" si="3"/>
         <v>-137</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="43">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="42">
         <v>800</v>
       </c>
       <c r="B76">
@@ -26457,17 +26470,17 @@
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76" s="49">
+      <c r="H76" s="48">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I76" s="49">
+      <c r="I76" s="48">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="42">
         <v>800</v>
       </c>
       <c r="B77" s="3">
@@ -26488,17 +26501,17 @@
       <c r="G77" s="3">
         <v>1</v>
       </c>
-      <c r="H77" s="49">
+      <c r="H77" s="48">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="I77" s="49">
+      <c r="I77" s="48">
         <f t="shared" si="3"/>
         <v>-124</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="43">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="42">
         <v>800</v>
       </c>
       <c r="B78" s="3">
@@ -26519,17 +26532,17 @@
       <c r="G78" s="3">
         <v>2</v>
       </c>
-      <c r="H78" s="49">
+      <c r="H78" s="48">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I78" s="49">
+      <c r="I78" s="48">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="43">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="42">
         <v>800</v>
       </c>
       <c r="B79" s="3">
@@ -26550,17 +26563,17 @@
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="H79" s="49">
+      <c r="H79" s="48">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="I79" s="49">
+      <c r="I79" s="48">
         <f t="shared" si="3"/>
         <v>-117</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="43">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="42">
         <v>800</v>
       </c>
       <c r="B80" s="3">
@@ -26581,17 +26594,17 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="49">
+      <c r="H80" s="48">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I80" s="49">
+      <c r="I80" s="48">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="43">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="42">
         <v>800</v>
       </c>
       <c r="B81" s="3">
@@ -26612,17 +26625,17 @@
       <c r="G81" s="3">
         <v>2</v>
       </c>
-      <c r="H81" s="49">
+      <c r="H81" s="48">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="I81" s="49">
+      <c r="I81" s="48">
         <f t="shared" si="3"/>
         <v>-135</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="43">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="42">
         <v>800</v>
       </c>
       <c r="B82" s="3">
@@ -26643,17 +26656,17 @@
       <c r="G82" s="3">
         <v>2</v>
       </c>
-      <c r="H82" s="49">
+      <c r="H82" s="48">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I82" s="49">
+      <c r="I82" s="48">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="43">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="42">
         <v>800</v>
       </c>
       <c r="B83" s="3">
@@ -26674,327 +26687,327 @@
       <c r="G83" s="3">
         <v>1</v>
       </c>
-      <c r="H83" s="49">
+      <c r="H83" s="48">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="I83" s="49">
+      <c r="I83" s="48">
         <f t="shared" si="3"/>
         <v>-94</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="44">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="43">
         <v>900</v>
       </c>
-      <c r="B84" s="45">
+      <c r="B84" s="44">
         <v>968</v>
       </c>
-      <c r="C84" s="46">
+      <c r="C84" s="45">
         <v>2</v>
       </c>
-      <c r="D84" s="45">
+      <c r="D84" s="44">
         <v>4</v>
       </c>
-      <c r="E84" s="45">
+      <c r="E84" s="44">
         <v>769</v>
       </c>
-      <c r="F84" s="45">
+      <c r="F84" s="44">
         <v>2</v>
       </c>
-      <c r="G84" s="45">
+      <c r="G84" s="44">
         <v>2</v>
       </c>
-      <c r="H84" s="48">
+      <c r="H84" s="47">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="I84" s="48">
+      <c r="I84" s="47">
         <f t="shared" si="3"/>
         <v>-199</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="44">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="43">
         <v>900</v>
       </c>
-      <c r="B85" s="45">
+      <c r="B85" s="44">
         <v>896</v>
       </c>
-      <c r="C85" s="46">
+      <c r="C85" s="45">
         <v>2</v>
       </c>
-      <c r="D85" s="45">
+      <c r="D85" s="44">
         <v>4</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="44">
         <v>1076</v>
       </c>
-      <c r="F85" s="45">
+      <c r="F85" s="44">
         <v>2</v>
       </c>
-      <c r="G85" s="45">
+      <c r="G85" s="44">
         <v>2</v>
       </c>
-      <c r="H85" s="48">
+      <c r="H85" s="47">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="I85" s="48">
+      <c r="I85" s="47">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="44">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="43">
         <v>900</v>
       </c>
-      <c r="B86" s="45">
+      <c r="B86" s="44">
         <v>969</v>
       </c>
-      <c r="C86" s="46">
+      <c r="C86" s="45">
         <v>2</v>
       </c>
-      <c r="D86" s="45">
+      <c r="D86" s="44">
         <v>4</v>
       </c>
-      <c r="E86" s="45">
+      <c r="E86" s="44">
         <v>794</v>
       </c>
-      <c r="F86" s="45">
+      <c r="F86" s="44">
         <v>2</v>
       </c>
-      <c r="G86" s="45">
+      <c r="G86" s="44">
         <v>1</v>
       </c>
-      <c r="H86" s="48">
+      <c r="H86" s="47">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="I86" s="48">
+      <c r="I86" s="47">
         <f t="shared" si="3"/>
         <v>-175</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="44">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="43">
         <v>900</v>
       </c>
-      <c r="B87" s="46">
+      <c r="B87" s="45">
         <v>908</v>
       </c>
-      <c r="C87" s="46">
+      <c r="C87" s="45">
         <v>2</v>
       </c>
-      <c r="D87" s="46">
+      <c r="D87" s="45">
         <v>4</v>
       </c>
-      <c r="E87" s="46">
+      <c r="E87" s="45">
         <v>1087</v>
       </c>
-      <c r="F87" s="47">
+      <c r="F87" s="46">
         <v>2</v>
       </c>
-      <c r="G87" s="46">
+      <c r="G87" s="45">
         <v>2</v>
       </c>
-      <c r="H87" s="48">
+      <c r="H87" s="47">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I87" s="48">
+      <c r="I87" s="47">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="44">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="43">
         <v>900</v>
       </c>
-      <c r="B88" s="46">
+      <c r="B88" s="45">
         <v>965</v>
       </c>
-      <c r="C88" s="46">
+      <c r="C88" s="45">
         <v>2</v>
       </c>
-      <c r="D88" s="46">
+      <c r="D88" s="45">
         <v>4</v>
       </c>
-      <c r="E88" s="46">
+      <c r="E88" s="45">
         <v>737</v>
       </c>
-      <c r="F88" s="47">
+      <c r="F88" s="46">
         <v>2</v>
       </c>
-      <c r="G88" s="46">
+      <c r="G88" s="45">
         <v>1</v>
       </c>
-      <c r="H88" s="48">
+      <c r="H88" s="47">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="I88" s="48">
+      <c r="I88" s="47">
         <f t="shared" si="3"/>
         <v>-228</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="44">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="43">
         <v>900</v>
       </c>
-      <c r="B89" s="46">
+      <c r="B89" s="45">
         <v>902</v>
       </c>
-      <c r="C89" s="46">
+      <c r="C89" s="45">
         <v>2</v>
       </c>
-      <c r="D89" s="46">
+      <c r="D89" s="45">
         <v>4</v>
       </c>
-      <c r="E89" s="46">
+      <c r="E89" s="45">
         <v>1103</v>
       </c>
-      <c r="F89" s="47">
+      <c r="F89" s="46">
         <v>2</v>
       </c>
-      <c r="G89" s="46">
+      <c r="G89" s="45">
         <v>1</v>
       </c>
-      <c r="H89" s="48">
+      <c r="H89" s="47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I89" s="48">
+      <c r="I89" s="47">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="44">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="43">
         <v>900</v>
       </c>
-      <c r="B90" s="46">
+      <c r="B90" s="45">
         <v>963</v>
       </c>
-      <c r="C90" s="46">
+      <c r="C90" s="45">
         <v>2</v>
       </c>
-      <c r="D90" s="46">
+      <c r="D90" s="45">
         <v>4</v>
       </c>
-      <c r="E90" s="46">
+      <c r="E90" s="45">
         <v>779</v>
       </c>
-      <c r="F90" s="47">
+      <c r="F90" s="46">
         <v>2</v>
       </c>
-      <c r="G90" s="46">
+      <c r="G90" s="45">
         <v>1</v>
       </c>
-      <c r="H90" s="48">
+      <c r="H90" s="47">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="I90" s="48">
+      <c r="I90" s="47">
         <f t="shared" si="3"/>
         <v>-184</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="44">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="43">
         <v>900</v>
       </c>
-      <c r="B91" s="46">
+      <c r="B91" s="45">
         <v>904</v>
       </c>
-      <c r="C91" s="46">
+      <c r="C91" s="45">
         <v>2</v>
       </c>
-      <c r="D91" s="46">
+      <c r="D91" s="45">
         <v>4</v>
       </c>
-      <c r="E91" s="46">
+      <c r="E91" s="45">
         <v>1112</v>
       </c>
-      <c r="F91" s="47">
+      <c r="F91" s="46">
         <v>2</v>
       </c>
-      <c r="G91" s="46">
+      <c r="G91" s="45">
         <v>1</v>
       </c>
-      <c r="H91" s="48">
+      <c r="H91" s="47">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I91" s="48">
+      <c r="I91" s="47">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="44">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="43">
         <v>900</v>
       </c>
-      <c r="B92" s="46">
+      <c r="B92" s="45">
         <v>965</v>
       </c>
-      <c r="C92" s="46">
+      <c r="C92" s="45">
         <v>2</v>
       </c>
-      <c r="D92" s="46">
+      <c r="D92" s="45">
         <v>4</v>
       </c>
-      <c r="E92" s="46">
+      <c r="E92" s="45">
         <v>707</v>
       </c>
-      <c r="F92" s="47">
+      <c r="F92" s="46">
         <v>2</v>
       </c>
-      <c r="G92" s="46">
+      <c r="G92" s="45">
         <v>2</v>
       </c>
-      <c r="H92" s="48">
+      <c r="H92" s="47">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="I92" s="48">
+      <c r="I92" s="47">
         <f t="shared" si="3"/>
         <v>-258</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="44">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="43">
         <v>900</v>
       </c>
-      <c r="B93" s="46">
+      <c r="B93" s="45">
         <v>897</v>
       </c>
-      <c r="C93" s="46">
+      <c r="C93" s="45">
         <v>2</v>
       </c>
-      <c r="D93" s="46">
+      <c r="D93" s="45">
         <v>4</v>
       </c>
-      <c r="E93" s="46">
+      <c r="E93" s="45">
         <v>1109</v>
       </c>
-      <c r="F93" s="47">
+      <c r="F93" s="46">
         <v>2</v>
       </c>
-      <c r="G93" s="46">
+      <c r="G93" s="45">
         <v>1</v>
       </c>
-      <c r="H93" s="48">
+      <c r="H93" s="47">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="I93" s="48">
+      <c r="I93" s="47">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="43">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="42">
         <v>1000</v>
       </c>
       <c r="B94">
@@ -27015,17 +27028,17 @@
       <c r="G94">
         <v>1</v>
       </c>
-      <c r="H94" s="49">
+      <c r="H94" s="48">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="I94" s="49">
+      <c r="I94" s="48">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="43">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="42">
         <v>1000</v>
       </c>
       <c r="B95">
@@ -27046,17 +27059,17 @@
       <c r="G95">
         <v>1</v>
       </c>
-      <c r="H95" s="49">
+      <c r="H95" s="48">
         <f t="shared" si="2"/>
         <v>-33</v>
       </c>
-      <c r="I95" s="49">
+      <c r="I95" s="48">
         <f t="shared" si="3"/>
         <v>-137</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="43">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="42">
         <v>1000</v>
       </c>
       <c r="B96">
@@ -27077,17 +27090,17 @@
       <c r="G96">
         <v>1</v>
       </c>
-      <c r="H96" s="49">
+      <c r="H96" s="48">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="I96" s="49">
+      <c r="I96" s="48">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="43">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="42">
         <v>1000</v>
       </c>
       <c r="B97" s="3">
@@ -27108,17 +27121,17 @@
       <c r="G97" s="3">
         <v>1</v>
       </c>
-      <c r="H97" s="49">
+      <c r="H97" s="48">
         <f t="shared" si="2"/>
         <v>-65</v>
       </c>
-      <c r="I97" s="49">
+      <c r="I97" s="48">
         <f t="shared" si="3"/>
         <v>-134</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="43">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="42">
         <v>1000</v>
       </c>
       <c r="B98" s="3">
@@ -27139,17 +27152,17 @@
       <c r="G98" s="3">
         <v>1</v>
       </c>
-      <c r="H98" s="49">
+      <c r="H98" s="48">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="I98" s="49">
+      <c r="I98" s="48">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="43">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="42">
         <v>1000</v>
       </c>
       <c r="B99" s="3">
@@ -27170,17 +27183,17 @@
       <c r="G99" s="3">
         <v>1</v>
       </c>
-      <c r="H99" s="49">
+      <c r="H99" s="48">
         <f t="shared" si="2"/>
         <v>-24</v>
       </c>
-      <c r="I99" s="49">
+      <c r="I99" s="48">
         <f t="shared" si="3"/>
         <v>-168</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="43">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="42">
         <v>1000</v>
       </c>
       <c r="B100" s="3">
@@ -27201,17 +27214,17 @@
       <c r="G100" s="3">
         <v>1</v>
       </c>
-      <c r="H100" s="49">
+      <c r="H100" s="48">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="I100" s="49">
+      <c r="I100" s="48">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="43">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="42">
         <v>1000</v>
       </c>
       <c r="B101" s="3">
@@ -27232,17 +27245,17 @@
       <c r="G101" s="3">
         <v>1</v>
       </c>
-      <c r="H101" s="49">
+      <c r="H101" s="48">
         <f t="shared" si="2"/>
         <v>-47</v>
       </c>
-      <c r="I101" s="49">
+      <c r="I101" s="48">
         <f t="shared" si="3"/>
         <v>-62</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="43">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" s="42">
         <v>1000</v>
       </c>
       <c r="B102" s="3">
@@ -27263,17 +27276,17 @@
       <c r="G102" s="3">
         <v>1</v>
       </c>
-      <c r="H102" s="49">
+      <c r="H102" s="48">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="I102" s="49">
+      <c r="I102" s="48">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="43">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="42">
         <v>1000</v>
       </c>
       <c r="B103" s="3">
@@ -27294,21 +27307,21 @@
       <c r="G103" s="3">
         <v>1</v>
       </c>
-      <c r="H103" s="49">
+      <c r="H103" s="48">
         <f t="shared" si="2"/>
         <v>-41</v>
       </c>
-      <c r="I103" s="49">
+      <c r="I103" s="48">
         <f t="shared" si="3"/>
         <v>-102</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -27321,7 +27334,7 @@
       <c r="J107"/>
       <c r="K107"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -27334,7 +27347,7 @@
       <c r="J108"/>
       <c r="K108"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -27347,7 +27360,7 @@
       <c r="J109"/>
       <c r="K109"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -27360,7 +27373,7 @@
       <c r="J110"/>
       <c r="K110"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -27373,7 +27386,7 @@
       <c r="J111"/>
       <c r="K111"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -27386,7 +27399,7 @@
       <c r="J112"/>
       <c r="K112"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -27399,7 +27412,7 @@
       <c r="J113"/>
       <c r="K113"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -27412,7 +27425,7 @@
       <c r="J114"/>
       <c r="K114"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -27425,7 +27438,7 @@
       <c r="J115"/>
       <c r="K115"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -27438,7 +27451,7 @@
       <c r="J116"/>
       <c r="K116"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -27451,7 +27464,7 @@
       <c r="J117"/>
       <c r="K117"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -27464,7 +27477,7 @@
       <c r="J118"/>
       <c r="K118"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -27477,7 +27490,7 @@
       <c r="J119"/>
       <c r="K119"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -27490,7 +27503,7 @@
       <c r="J120"/>
       <c r="K120"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -27503,7 +27516,7 @@
       <c r="J121"/>
       <c r="K121"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -27516,7 +27529,7 @@
       <c r="J122"/>
       <c r="K122"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -27529,7 +27542,7 @@
       <c r="J123"/>
       <c r="K123"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>

--- a/03_Displacement_Data_Collection_Tables.xlsx
+++ b/03_Displacement_Data_Collection_Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\School\Year 3\MEC-E-301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC E 301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3793E4-E92B-468B-9006-8D78D21FC5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C836EB3-34AE-4047-BBE7-2E960111874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Info and Rubric" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
   <si>
     <t xml:space="preserve">Student Surname: </t>
   </si>
@@ -434,15 +434,22 @@
   <si>
     <t>displacement</t>
   </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -569,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,9 +686,11 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,25 +2559,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-5.4682341856953087E-3</c:v>
+                  <c:v>-5.3390184340180724E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39923496654021307</c:v>
+                  <c:v>0.39897296955665951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86319975403865001</c:v>
+                  <c:v>0.8634182521414111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3629637622388628</c:v>
+                  <c:v>1.3634229686579289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.89598843318951</c:v>
+                  <c:v>1.8962580465386552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4065257589345155</c:v>
+                  <c:v>2.406304016476609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8575555592439379</c:v>
+                  <c:v>2.8567174341609078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10775,16 +10784,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355763</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>587113</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>74137</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11170,58 +11179,58 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="11"/>
+    <col min="2" max="2" width="18.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
@@ -11232,7 +11241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
@@ -11241,7 +11250,7 @@
       </c>
       <c r="C18" s="14"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
@@ -11250,7 +11259,7 @@
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>17</v>
       </c>
@@ -11259,7 +11268,7 @@
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
@@ -11268,7 +11277,7 @@
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>53</v>
       </c>
@@ -11277,7 +11286,7 @@
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -11286,7 +11295,7 @@
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>20</v>
       </c>
@@ -11295,7 +11304,7 @@
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>30</v>
       </c>
@@ -11304,7 +11313,7 @@
       </c>
       <c r="C25" s="14"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>56</v>
       </c>
@@ -11313,7 +11322,7 @@
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -11322,7 +11331,7 @@
       </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>22</v>
       </c>
@@ -11331,7 +11340,7 @@
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>23</v>
       </c>
@@ -11340,7 +11349,7 @@
       </c>
       <c r="C29" s="14"/>
     </row>
-    <row r="30" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>24</v>
       </c>
@@ -11349,7 +11358,7 @@
       </c>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14" t="s">
         <v>25</v>
@@ -11359,7 +11368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14" t="s">
         <v>27</v>
@@ -11369,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14" t="s">
         <v>54</v>
@@ -11378,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14" t="s">
         <v>55</v>
@@ -11397,27 +11406,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B5DFEB-27AC-C14C-9885-2E931D118C39}">
   <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" style="3" customWidth="1"/>
     <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="11" width="10.81640625" style="3"/>
-    <col min="12" max="12" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.81640625" style="3"/>
+    <col min="8" max="11" width="10.85546875" style="3"/>
+    <col min="12" max="12" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -11428,7 +11437,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -11454,7 +11463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -11480,7 +11489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>28.36</v>
       </c>
@@ -11501,7 +11510,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>32</v>
       </c>
@@ -11528,7 +11537,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>36</v>
       </c>
@@ -11555,7 +11564,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>40</v>
       </c>
@@ -11582,7 +11591,7 @@
         <v>1.038</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>44</v>
       </c>
@@ -11609,7 +11618,7 @@
         <v>1.357</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>48</v>
       </c>
@@ -11636,7 +11645,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>52</v>
       </c>
@@ -11663,7 +11672,7 @@
         <v>1.982</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>56</v>
       </c>
@@ -11690,7 +11699,7 @@
         <v>2.3010000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>60</v>
       </c>
@@ -11717,7 +11726,7 @@
         <v>2.617</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>67.459999999999994</v>
       </c>
@@ -11738,13 +11747,13 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -11752,7 +11761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -11775,7 +11784,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>0</v>
       </c>
@@ -11808,7 +11817,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>0</v>
       </c>
@@ -11840,7 +11849,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>0</v>
       </c>
@@ -11872,7 +11881,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11904,7 +11913,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11931,7 +11940,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11949,7 +11958,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11974,7 +11983,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -11998,7 +12007,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>3.6400000000000006</v>
       </c>
@@ -12015,7 +12024,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7.6400000000000006</v>
       </c>
@@ -12032,7 +12041,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.6400000000000006</v>
       </c>
@@ -12051,7 +12060,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.6400000000000006</v>
       </c>
@@ -12085,7 +12094,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.6400000000000006</v>
       </c>
@@ -12120,7 +12129,7 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.6400000000000006</v>
       </c>
@@ -12165,7 +12174,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7.6400000000000006</v>
       </c>
@@ -12210,7 +12219,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11.64</v>
       </c>
@@ -12255,7 +12264,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11.64</v>
       </c>
@@ -12300,7 +12309,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11.64</v>
       </c>
@@ -12345,7 +12354,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11.64</v>
       </c>
@@ -12390,7 +12399,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11.64</v>
       </c>
@@ -12435,7 +12444,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11.64</v>
       </c>
@@ -12480,7 +12489,7 @@
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15.64</v>
       </c>
@@ -12516,7 +12525,7 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>15.64</v>
       </c>
@@ -12539,7 +12548,7 @@
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15.64</v>
       </c>
@@ -12578,10 +12587,10 @@
       <c r="M42" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="N42"/>
+      <c r="N42" s="28"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15.64</v>
       </c>
@@ -12617,10 +12626,10 @@
         <f>MAX(G43,I43,K43)-MIN(G43,I43,K43)</f>
         <v>0</v>
       </c>
-      <c r="N43"/>
+      <c r="N43" s="30"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15.64</v>
       </c>
@@ -12668,10 +12677,10 @@
         <f t="shared" ref="M44:M51" si="14">MAX(G44,I44,K44)-MIN(G44,I44,K44)</f>
         <v>3.801734550266378E-2</v>
       </c>
-      <c r="N44"/>
+      <c r="N44" s="30"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15.64</v>
       </c>
@@ -12719,10 +12728,10 @@
         <f t="shared" si="14"/>
         <v>3.8017345502662891E-2</v>
       </c>
-      <c r="N45"/>
+      <c r="N45" s="30"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19.64</v>
       </c>
@@ -12770,10 +12779,10 @@
         <f t="shared" si="14"/>
         <v>3.8017345502661115E-2</v>
       </c>
-      <c r="N46"/>
+      <c r="N46" s="30"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19.64</v>
       </c>
@@ -12821,10 +12830,10 @@
         <f t="shared" si="14"/>
         <v>3.8017345502662891E-2</v>
       </c>
-      <c r="N47"/>
+      <c r="N47" s="30"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19.64</v>
       </c>
@@ -12872,10 +12881,10 @@
         <f t="shared" si="14"/>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="N48"/>
+      <c r="N48" s="30"/>
       <c r="O48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19.64</v>
       </c>
@@ -12923,10 +12932,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N49"/>
+      <c r="N49" s="30"/>
       <c r="O49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19.64</v>
       </c>
@@ -12974,10 +12983,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N50"/>
+      <c r="N50" s="30"/>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19.64</v>
       </c>
@@ -13025,10 +13034,10 @@
         <f t="shared" si="14"/>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="N51"/>
+      <c r="N51" s="30"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>23.64</v>
       </c>
@@ -13064,10 +13073,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="30"/>
-      <c r="N52"/>
+      <c r="N52" s="30"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23.64</v>
       </c>
@@ -13090,7 +13099,7 @@
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>23.64</v>
       </c>
@@ -13120,7 +13129,7 @@
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>23.64</v>
       </c>
@@ -13150,7 +13159,7 @@
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>23.64</v>
       </c>
@@ -13180,7 +13189,7 @@
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>23.64</v>
       </c>
@@ -13198,12 +13207,16 @@
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
+      <c r="L57" s="29">
+        <v>0</v>
+      </c>
+      <c r="M57" s="29">
+        <v>0</v>
+      </c>
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>27.64</v>
       </c>
@@ -13230,11 +13243,15 @@
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
-      <c r="L58"/>
-      <c r="M58"/>
+      <c r="L58" s="29">
+        <v>0</v>
+      </c>
+      <c r="M58" s="29">
+        <v>3.801734550266378E-2</v>
+      </c>
       <c r="N58"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27.64</v>
       </c>
@@ -13265,11 +13282,15 @@
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
       <c r="K59" s="30"/>
-      <c r="L59"/>
-      <c r="M59"/>
+      <c r="L59" s="29">
+        <v>3.8017345502661115E-2</v>
+      </c>
+      <c r="M59" s="29">
+        <v>3.8017345502662891E-2</v>
+      </c>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>27.64</v>
       </c>
@@ -13300,11 +13321,15 @@
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="30"/>
-      <c r="L60"/>
-      <c r="M60"/>
+      <c r="L60" s="29">
+        <v>3.8017345502662891E-2</v>
+      </c>
+      <c r="M60" s="29">
+        <v>3.8017345502661115E-2</v>
+      </c>
       <c r="N60"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>27.64</v>
       </c>
@@ -13335,11 +13360,15 @@
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
       <c r="K61" s="30"/>
-      <c r="L61"/>
-      <c r="M61"/>
+      <c r="L61" s="29">
+        <v>3.8017345502666444E-2</v>
+      </c>
+      <c r="M61" s="29">
+        <v>3.8017345502662891E-2</v>
+      </c>
       <c r="N61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>27.64</v>
       </c>
@@ -13370,11 +13399,15 @@
       <c r="I62" s="30"/>
       <c r="J62" s="30"/>
       <c r="K62" s="30"/>
-      <c r="L62"/>
-      <c r="M62"/>
+      <c r="L62" s="29">
+        <v>0</v>
+      </c>
+      <c r="M62" s="29">
+        <v>3.8017345502666444E-2</v>
+      </c>
       <c r="N62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27.64</v>
       </c>
@@ -13405,11 +13438,15 @@
       <c r="I63" s="30"/>
       <c r="J63" s="30"/>
       <c r="K63" s="30"/>
-      <c r="L63"/>
-      <c r="M63"/>
+      <c r="L63" s="29">
+        <v>3.8017345502662891E-2</v>
+      </c>
+      <c r="M63" s="29">
+        <v>0</v>
+      </c>
       <c r="N63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>31.64</v>
       </c>
@@ -13440,11 +13477,15 @@
       <c r="I64" s="30"/>
       <c r="J64" s="30"/>
       <c r="K64" s="30"/>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="L64" s="29">
+        <v>0</v>
+      </c>
+      <c r="M64" s="29">
+        <v>0</v>
+      </c>
       <c r="N64"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>31.64</v>
       </c>
@@ -13475,11 +13516,15 @@
       <c r="I65" s="30"/>
       <c r="J65" s="30"/>
       <c r="K65" s="30"/>
-      <c r="L65"/>
-      <c r="M65"/>
+      <c r="L65" s="29">
+        <v>0</v>
+      </c>
+      <c r="M65" s="29">
+        <v>3.8017345502666444E-2</v>
+      </c>
       <c r="N65"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>31.64</v>
       </c>
@@ -13514,7 +13559,7 @@
       <c r="M66"/>
       <c r="N66"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>31.64</v>
       </c>
@@ -13530,7 +13575,7 @@
       <c r="M67"/>
       <c r="N67"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>31.64</v>
       </c>
@@ -13565,7 +13610,7 @@
       <c r="M68"/>
       <c r="N68"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>31.64</v>
       </c>
@@ -13586,7 +13631,7 @@
       <c r="M69"/>
       <c r="N69"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>39.099999999999994</v>
       </c>
@@ -13617,7 +13662,7 @@
       <c r="M70"/>
       <c r="N70"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>39.099999999999994</v>
       </c>
@@ -13657,7 +13702,7 @@
       </c>
       <c r="N71"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>39.099999999999994</v>
       </c>
@@ -13696,7 +13741,7 @@
       </c>
       <c r="N72"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -13729,7 +13774,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -13762,7 +13807,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -13795,7 +13840,7 @@
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -13824,7 +13869,7 @@
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -13853,7 +13898,7 @@
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -13882,7 +13927,7 @@
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -13911,7 +13956,7 @@
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -13940,7 +13985,7 @@
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -13957,7 +14002,7 @@
       <c r="N81"/>
       <c r="O81"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -13974,7 +14019,7 @@
       <c r="N82"/>
       <c r="O82"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -13996,7 +14041,7 @@
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -14013,7 +14058,7 @@
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -14032,7 +14077,7 @@
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>99</v>
       </c>
@@ -14051,7 +14096,7 @@
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" ref="A87:D91" si="30">E19</f>
         <v>slope</v>
@@ -14080,7 +14125,7 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="30"/>
         <v>standard err slope</v>
@@ -14109,7 +14154,7 @@
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="30"/>
         <v>r^2</v>
@@ -14138,7 +14183,7 @@
       <c r="N89"/>
       <c r="O89"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90" s="30">
         <f t="shared" si="30"/>
@@ -14161,7 +14206,7 @@
       <c r="N90"/>
       <c r="O90"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91" s="30">
         <f t="shared" si="30"/>
@@ -14184,7 +14229,7 @@
       <c r="N91"/>
       <c r="O91"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="str">
         <f t="shared" ref="A92:C93" si="31">E25</f>
         <v>sensitivity</v>
@@ -14210,7 +14255,7 @@
       <c r="N92"/>
       <c r="O92"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="str">
         <f t="shared" si="31"/>
         <v>span</v>
@@ -14236,7 +14281,7 @@
       <c r="N93"/>
       <c r="O93"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -14253,7 +14298,7 @@
       <c r="N94"/>
       <c r="O94"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="38" t="s">
         <v>100</v>
       </c>
@@ -14272,7 +14317,7 @@
       <c r="N95"/>
       <c r="O95"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" ref="A96:A119" si="32">E29</f>
         <v>Converted V-&gt;mm</v>
@@ -14292,7 +14337,7 @@
       <c r="N96"/>
       <c r="O96"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" t="str">
         <f t="shared" ref="B97:B119" si="33">F30</f>
@@ -14327,7 +14372,7 @@
       <c r="N97"/>
       <c r="O97"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -14356,7 +14401,7 @@
       <c r="N98"/>
       <c r="O98"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="32"/>
         <v>3.6400000000000006</v>
@@ -14394,7 +14439,7 @@
       <c r="N99"/>
       <c r="O99"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="32"/>
         <v>7.6400000000000006</v>
@@ -14432,7 +14477,7 @@
       <c r="N100"/>
       <c r="O100"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="32"/>
         <v>11.64</v>
@@ -14470,7 +14515,7 @@
       <c r="N101"/>
       <c r="O101"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="32"/>
         <v>15.64</v>
@@ -14508,7 +14553,7 @@
       <c r="N102"/>
       <c r="O102"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="32"/>
         <v>19.64</v>
@@ -14546,7 +14591,7 @@
       <c r="N103"/>
       <c r="O103"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="32"/>
         <v>23.64</v>
@@ -14584,7 +14629,7 @@
       <c r="N104"/>
       <c r="O104"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="32"/>
         <v>27.64</v>
@@ -14622,7 +14667,7 @@
       <c r="N105"/>
       <c r="O105"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="32"/>
         <v>31.64</v>
@@ -14660,7 +14705,7 @@
       <c r="N106"/>
       <c r="O106"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="32"/>
         <v>39.099999999999994</v>
@@ -14689,7 +14734,7 @@
       <c r="N107"/>
       <c r="O107"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -14706,7 +14751,7 @@
       <c r="N108"/>
       <c r="O108"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="str">
         <f t="shared" si="32"/>
         <v>deviation table</v>
@@ -14750,7 +14795,7 @@
       <c r="N109"/>
       <c r="O109"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="50">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -14782,7 +14827,7 @@
       <c r="N110"/>
       <c r="O110"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="50">
         <f t="shared" si="32"/>
         <v>3.6400000000000006</v>
@@ -14826,7 +14871,7 @@
       <c r="N111"/>
       <c r="O111"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="50">
         <f t="shared" si="32"/>
         <v>7.6400000000000006</v>
@@ -14870,7 +14915,7 @@
       <c r="N112"/>
       <c r="O112"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="50">
         <f t="shared" si="32"/>
         <v>11.64</v>
@@ -14914,7 +14959,7 @@
       <c r="N113"/>
       <c r="O113"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="50">
         <f t="shared" si="32"/>
         <v>15.64</v>
@@ -14958,7 +15003,7 @@
       <c r="N114"/>
       <c r="O114"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="50">
         <f t="shared" si="32"/>
         <v>19.64</v>
@@ -15002,7 +15047,7 @@
       <c r="N115"/>
       <c r="O115"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="50">
         <f t="shared" si="32"/>
         <v>23.64</v>
@@ -15046,7 +15091,7 @@
       <c r="N116"/>
       <c r="O116"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="50">
         <f t="shared" si="32"/>
         <v>27.64</v>
@@ -15090,7 +15135,7 @@
       <c r="N117"/>
       <c r="O117"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="50">
         <f t="shared" si="32"/>
         <v>31.64</v>
@@ -15134,7 +15179,7 @@
       <c r="N118"/>
       <c r="O118"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="50">
         <f t="shared" si="32"/>
         <v>39.099999999999994</v>
@@ -15166,7 +15211,7 @@
       <c r="N119"/>
       <c r="O119"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -15183,7 +15228,7 @@
       <c r="N120"/>
       <c r="O120"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>64</v>
       </c>
@@ -15208,7 +15253,7 @@
       <c r="N121"/>
       <c r="O121"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>66</v>
       </c>
@@ -15233,7 +15278,7 @@
       <c r="N122"/>
       <c r="O122"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>68</v>
       </c>
@@ -15258,7 +15303,7 @@
       <c r="N123"/>
       <c r="O123"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -15283,7 +15328,7 @@
       <c r="N124"/>
       <c r="O124"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -15308,7 +15353,7 @@
       <c r="N125"/>
       <c r="O125"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -15325,7 +15370,7 @@
       <c r="N126"/>
       <c r="O126"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="str">
         <f t="shared" ref="A127:A137" si="42">E70</f>
         <v>linear regression stats</v>
@@ -15354,20 +15399,20 @@
       <c r="N127"/>
       <c r="O127"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="B128" s="33">
+      <c r="B128" s="34">
         <f t="shared" si="43"/>
         <v>-0.15532709753952645</v>
       </c>
-      <c r="C128" s="31">
+      <c r="C128" s="33">
         <f t="shared" si="44"/>
         <v>-1.4859322498762515E-2</v>
       </c>
-      <c r="D128" s="33">
+      <c r="D128" s="34">
         <f t="shared" si="45"/>
         <v>0.14046777504076394</v>
       </c>
@@ -15383,20 +15428,20 @@
       <c r="N128"/>
       <c r="O128"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <f t="shared" si="42"/>
         <v>3.6400000000000006</v>
       </c>
-      <c r="B129" s="33">
+      <c r="B129" s="34">
         <f t="shared" si="43"/>
         <v>-1.893744427492668E-2</v>
       </c>
-      <c r="C129" s="31">
+      <c r="C129" s="33">
         <f t="shared" si="44"/>
         <v>-1.4666908390112548E-2</v>
       </c>
-      <c r="D129" s="33">
+      <c r="D129" s="34">
         <f t="shared" si="45"/>
         <v>4.2705358848141323E-3</v>
       </c>
@@ -15412,20 +15457,20 @@
       <c r="N129"/>
       <c r="O129"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <f t="shared" si="42"/>
         <v>7.6400000000000006</v>
       </c>
-      <c r="B130" s="33">
+      <c r="B130" s="34">
         <f t="shared" si="43"/>
         <v>5.5254748760540075E-2</v>
       </c>
-      <c r="C130" s="31">
+      <c r="C130" s="33">
         <f t="shared" si="44"/>
         <v>-1.4455464314673023E-2</v>
       </c>
-      <c r="D130" s="33">
+      <c r="D130" s="34">
         <f t="shared" si="45"/>
         <v>-6.9710213075213093E-2</v>
       </c>
@@ -15441,20 +15486,20 @@
       <c r="N130"/>
       <c r="O130"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <f t="shared" si="42"/>
         <v>11.64</v>
       </c>
-      <c r="B131" s="33">
+      <c r="B131" s="34">
         <f t="shared" si="43"/>
         <v>3.440357803934635E-2</v>
       </c>
-      <c r="C131" s="31">
+      <c r="C131" s="33">
         <f t="shared" si="44"/>
         <v>-1.4244020239233497E-2</v>
       </c>
-      <c r="D131" s="33">
+      <c r="D131" s="34">
         <f t="shared" si="45"/>
         <v>-4.8647598278579847E-2</v>
       </c>
@@ -15470,20 +15515,20 @@
       <c r="N131"/>
       <c r="O131"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="34">
         <f t="shared" si="42"/>
         <v>15.64</v>
       </c>
-      <c r="B132" s="33">
+      <c r="B132" s="34">
         <f t="shared" si="43"/>
         <v>3.2561080069485847E-2</v>
       </c>
-      <c r="C132" s="31">
+      <c r="C132" s="33">
         <f t="shared" si="44"/>
         <v>-1.4032576163793973E-2</v>
       </c>
-      <c r="D132" s="33">
+      <c r="D132" s="34">
         <f t="shared" si="45"/>
         <v>-4.6593656233279823E-2</v>
       </c>
@@ -15499,20 +15544,20 @@
       <c r="N132"/>
       <c r="O132"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <f t="shared" si="42"/>
         <v>19.64</v>
       </c>
-      <c r="B133" s="33">
+      <c r="B133" s="34">
         <f t="shared" si="43"/>
         <v>-7.2987634030390325E-3</v>
       </c>
-      <c r="C133" s="31">
+      <c r="C133" s="33">
         <f t="shared" si="44"/>
         <v>-1.3821132088354449E-2</v>
       </c>
-      <c r="D133" s="33">
+      <c r="D133" s="34">
         <f t="shared" si="45"/>
         <v>-6.5223686853154161E-3</v>
       </c>
@@ -15528,20 +15573,20 @@
       <c r="N133"/>
       <c r="O133"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
         <f t="shared" si="42"/>
         <v>23.64</v>
       </c>
-      <c r="B134" s="33">
+      <c r="B134" s="34">
         <f t="shared" si="43"/>
         <v>-2.8050371224566106E-3</v>
       </c>
-      <c r="C134" s="31">
+      <c r="C134" s="33">
         <f t="shared" si="44"/>
         <v>-1.3609688012914923E-2</v>
       </c>
-      <c r="D134" s="33">
+      <c r="D134" s="34">
         <f t="shared" si="45"/>
         <v>-1.0804650890458312E-2</v>
       </c>
@@ -15557,20 +15602,20 @@
       <c r="N134"/>
       <c r="O134"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <f t="shared" si="42"/>
         <v>27.64</v>
       </c>
-      <c r="B135" s="33">
+      <c r="B135" s="34">
         <f t="shared" si="43"/>
         <v>3.3369810410346666E-2</v>
       </c>
-      <c r="C135" s="31">
+      <c r="C135" s="33">
         <f t="shared" si="44"/>
         <v>-1.3398243937475398E-2</v>
       </c>
-      <c r="D135" s="33">
+      <c r="D135" s="34">
         <f t="shared" si="45"/>
         <v>-4.6768054347822066E-2</v>
       </c>
@@ -15586,20 +15631,20 @@
       <c r="N135"/>
       <c r="O135"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="34">
         <f t="shared" si="42"/>
         <v>31.64</v>
       </c>
-      <c r="B136" s="33">
+      <c r="B136" s="34">
         <f t="shared" si="43"/>
         <v>1.2518639689152641E-2</v>
       </c>
-      <c r="C136" s="31">
+      <c r="C136" s="33">
         <f t="shared" si="44"/>
         <v>-1.3186799862035874E-2</v>
       </c>
-      <c r="D136" s="33">
+      <c r="D136" s="34">
         <f t="shared" si="45"/>
         <v>-2.5705439551188515E-2</v>
       </c>
@@ -15615,20 +15660,20 @@
       <c r="N136"/>
       <c r="O136"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="34">
         <f t="shared" si="42"/>
         <v>39.099999999999994</v>
       </c>
-      <c r="B137" s="33">
+      <c r="B137" s="34">
         <f t="shared" si="43"/>
         <v>-0.12280612679762015</v>
       </c>
-      <c r="C137" s="31">
+      <c r="C137" s="33">
         <f t="shared" si="44"/>
         <v>-1.279245666134116E-2</v>
       </c>
-      <c r="D137" s="33">
+      <c r="D137" s="34">
         <f t="shared" si="45"/>
         <v>0.110013670136279</v>
       </c>
@@ -15644,7 +15689,7 @@
       <c r="N137"/>
       <c r="O137"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -15661,7 +15706,7 @@
       <c r="N138"/>
       <c r="O138"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="34" t="str">
         <f t="shared" ref="A139:A147" si="46">E58</f>
         <v>hystersis table</v>
@@ -15690,20 +15735,20 @@
       <c r="N139"/>
       <c r="O139"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
         <f t="shared" si="46"/>
         <v>3.6400000000000006</v>
       </c>
-      <c r="B140" s="33">
+      <c r="B140" s="34">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="C140" s="33">
+      <c r="C140" s="34">
         <f t="shared" si="48"/>
         <v>-3.801734550266378E-2</v>
       </c>
-      <c r="D140" s="33">
+      <c r="D140" s="34">
         <f t="shared" si="49"/>
         <v>-3.801734550266378E-2</v>
       </c>
@@ -15719,20 +15764,20 @@
       <c r="N140"/>
       <c r="O140"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
         <f t="shared" si="46"/>
         <v>7.6400000000000006</v>
       </c>
-      <c r="B141" s="33">
+      <c r="B141" s="34">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="C141" s="33">
+      <c r="C141" s="34">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="D141" s="33">
+      <c r="D141" s="34">
         <f t="shared" si="49"/>
         <v>-3.8017345502662891E-2</v>
       </c>
@@ -15748,20 +15793,20 @@
       <c r="N141"/>
       <c r="O141"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="34">
         <f t="shared" si="46"/>
         <v>11.64</v>
       </c>
-      <c r="B142" s="33">
+      <c r="B142" s="34">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="C142" s="33">
+      <c r="C142" s="34">
         <f t="shared" si="48"/>
         <v>3.8017345502661115E-2</v>
       </c>
-      <c r="D142" s="33">
+      <c r="D142" s="34">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
@@ -15777,20 +15822,20 @@
       <c r="N142"/>
       <c r="O142"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="34">
         <f t="shared" si="46"/>
         <v>15.64</v>
       </c>
-      <c r="B143" s="33">
+      <c r="B143" s="34">
         <f t="shared" si="47"/>
         <v>3.8017345502662891E-2</v>
       </c>
-      <c r="C143" s="33">
+      <c r="C143" s="34">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="D143" s="33">
+      <c r="D143" s="34">
         <f t="shared" si="49"/>
         <v>-3.8017345502662891E-2</v>
       </c>
@@ -15806,20 +15851,20 @@
       <c r="N143"/>
       <c r="O143"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="34">
         <f t="shared" si="46"/>
         <v>19.64</v>
       </c>
-      <c r="B144" s="33">
+      <c r="B144" s="34">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="C144" s="33">
+      <c r="C144" s="34">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="D144" s="33">
+      <c r="D144" s="34">
         <f t="shared" si="49"/>
         <v>3.8017345502666444E-2</v>
       </c>
@@ -15835,66 +15880,66 @@
       <c r="N144"/>
       <c r="O144"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="34">
         <f t="shared" si="46"/>
         <v>23.64</v>
       </c>
-      <c r="B145" s="33">
+      <c r="B145" s="34">
         <f t="shared" si="47"/>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="C145" s="33">
+      <c r="C145" s="34">
         <f t="shared" si="48"/>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="D145" s="33">
+      <c r="D145" s="34">
         <f t="shared" si="49"/>
         <v>3.8017345502666444E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="34">
         <f t="shared" si="46"/>
         <v>27.64</v>
       </c>
-      <c r="B146" s="33">
+      <c r="B146" s="34">
         <f t="shared" si="47"/>
         <v>3.8017345502662891E-2</v>
       </c>
-      <c r="C146" s="33">
+      <c r="C146" s="34">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="D146" s="33">
+      <c r="D146" s="34">
         <f t="shared" si="49"/>
         <v>3.8017345502662891E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="34">
         <f t="shared" si="46"/>
         <v>31.64</v>
       </c>
-      <c r="B147" s="33">
+      <c r="B147" s="34">
         <f t="shared" si="47"/>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="C147" s="33">
+      <c r="C147" s="34">
         <f t="shared" si="48"/>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="D147" s="33">
+      <c r="D147" s="34">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
         <v>102</v>
       </c>
@@ -15902,7 +15947,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
         <v>7</v>
       </c>
@@ -15910,59 +15955,59 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B153" s="40">
+      <c r="B153" s="21">
         <f>F54</f>
         <v>0.15532709753952645</v>
       </c>
-      <c r="C153" s="40">
+      <c r="C153" s="21">
         <f>B153/$B$93*100</f>
         <v>0.39725600393740784</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B154" s="40">
+      <c r="B154" s="21">
         <f>F55</f>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="C154" s="40">
+      <c r="C154" s="52">
         <f t="shared" ref="C154:C157" si="50">B154/$B$93*100</f>
         <v>9.7231062666666118E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B155" s="40">
+      <c r="B155" s="21">
         <f>F83</f>
         <v>0.14046777504076394</v>
       </c>
-      <c r="C155" s="40">
+      <c r="C155" s="21">
         <f t="shared" si="50"/>
         <v>0.3592526215876316</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B156" s="40">
-        <f>F56</f>
-        <v>1.2672448500887921E-2</v>
+      <c r="B156" s="21">
+        <f>3.3/(2^10*B92)</f>
+        <v>4.0838945364189583E-2</v>
       </c>
       <c r="C156" s="40">
-        <f t="shared" si="50"/>
-        <v>3.2410354222219752E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <f>B156/B93</f>
+        <v>1.0444743059895036E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>89</v>
       </c>
@@ -15970,9 +16015,9 @@
         <f>F68</f>
         <v>3.8017345502666444E-2</v>
       </c>
-      <c r="C157" s="40">
-        <f t="shared" si="50"/>
-        <v>9.7231062666666118E-2</v>
+      <c r="C157" s="53">
+        <f>B157/B93</f>
+        <v>9.7231062666666116E-4</v>
       </c>
     </row>
   </sheetData>
@@ -15986,23 +16031,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B21470-895B-2C48-91C6-DD3DC8C93A51}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView topLeftCell="A38" zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="3"/>
+    <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -16013,7 +16058,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -16036,7 +16081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -16059,7 +16104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>29.12</v>
       </c>
@@ -16084,7 +16129,7 @@
       </c>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>29.5</v>
       </c>
@@ -16108,7 +16153,7 @@
         <v>2.7549999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>30</v>
       </c>
@@ -16132,7 +16177,7 @@
         <v>2.2949999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>30.5</v>
       </c>
@@ -16156,7 +16201,7 @@
         <v>1.9430000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>31</v>
       </c>
@@ -16180,7 +16225,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>31.5</v>
       </c>
@@ -16204,7 +16249,7 @@
         <v>1.4950000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>32</v>
       </c>
@@ -16228,18 +16273,18 @@
         <v>1.347</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -16275,7 +16320,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -16311,7 +16356,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29.12</v>
       </c>
@@ -16338,8 +16383,12 @@
         <v>3.2183999999999999</v>
       </c>
       <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
+      <c r="J18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -16348,7 +16397,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>29.5</v>
       </c>
@@ -16375,9 +16424,16 @@
         <v>2.7458</v>
       </c>
       <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="J19" s="44">
+        <v>0</v>
+      </c>
+      <c r="K19" s="44">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="L19" s="29">
+        <f>$B$26*K19^3+$C$26*K19^2+$D$26*K19+$E$26</f>
+        <v>-5.8968227852140842E-3</v>
+      </c>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
@@ -16385,7 +16441,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30</v>
       </c>
@@ -16412,9 +16468,16 @@
         <v>2.2844000000000002</v>
       </c>
       <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="J20" s="44">
+        <v>0</v>
+      </c>
+      <c r="K20" s="44">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="L20" s="29">
+        <f t="shared" ref="L20:L53" si="2">$B$26*K20^3+$C$26*K20^2+$D$26*K20+$E$26</f>
+        <v>-5.8968227852140842E-3</v>
+      </c>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -16422,7 +16485,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30.5</v>
       </c>
@@ -16449,9 +16512,16 @@
         <v>1.9469999999999998</v>
       </c>
       <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="J21" s="44">
+        <v>0</v>
+      </c>
+      <c r="K21" s="44">
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="L21" s="29">
+        <f t="shared" si="2"/>
+        <v>-3.1100832878649953E-3</v>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
@@ -16459,7 +16529,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31</v>
       </c>
@@ -16486,9 +16556,16 @@
         <v>1.6874000000000002</v>
       </c>
       <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
+      <c r="J22" s="44">
+        <v>0</v>
+      </c>
+      <c r="K22" s="44">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="L22" s="29">
+        <f t="shared" si="2"/>
+        <v>-5.8968227852140842E-3</v>
+      </c>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
@@ -16496,7 +16573,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31.5</v>
       </c>
@@ -16523,9 +16600,16 @@
         <v>1.492</v>
       </c>
       <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
+      <c r="J23" s="44">
+        <v>0</v>
+      </c>
+      <c r="K23" s="44">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="L23" s="29">
+        <f t="shared" si="2"/>
+        <v>-5.8968227852140842E-3</v>
+      </c>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -16533,7 +16617,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -16560,9 +16644,16 @@
         <v>1.3466</v>
       </c>
       <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
+      <c r="J24">
+        <v>0.37999999999999901</v>
+      </c>
+      <c r="K24">
+        <v>2.746</v>
+      </c>
+      <c r="L24" s="29">
+        <f t="shared" si="2"/>
+        <v>0.39880144709500698</v>
+      </c>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
@@ -16570,7 +16661,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -16580,9 +16671,16 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="J25">
+        <v>0.37999999999999901</v>
+      </c>
+      <c r="K25">
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="L25" s="29">
+        <f t="shared" si="2"/>
+        <v>0.4073941184468417</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
@@ -16590,28 +16688,35 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="B26" s="31" cm="1">
-        <f t="array" ref="B26:E30">LINEST(B18:B24,H18:H24^{1,2,3}, TRUE, TRUE)</f>
-        <v>-0.34269401961771823</v>
-      </c>
-      <c r="C26" s="31">
-        <v>2.9865159451000407</v>
-      </c>
-      <c r="D26" s="31">
-        <v>-9.5067247089362947</v>
-      </c>
-      <c r="E26" s="31">
-        <v>11.080568753423044</v>
+      <c r="B26" s="34" cm="1">
+        <f t="array" ref="B26:E30">LINEST(J19:J53,K19:K53^{1,2,3}, TRUE, TRUE)</f>
+        <v>-0.34079703439950132</v>
+      </c>
+      <c r="C26" s="34">
+        <v>2.9728697291139201</v>
+      </c>
+      <c r="D26" s="34">
+        <v>-9.4752232982505564</v>
+      </c>
+      <c r="E26" s="34">
+        <v>11.057423823094759</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
+      <c r="J26">
+        <v>0.37999999999999901</v>
+      </c>
+      <c r="K26">
+        <v>2.746</v>
+      </c>
+      <c r="L26" s="29">
+        <f t="shared" si="2"/>
+        <v>0.39880144709500698</v>
+      </c>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -16619,27 +16724,34 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27">
-        <v>6.6963352211656724E-2</v>
+        <v>2.5474976442518022E-2</v>
       </c>
       <c r="C27">
-        <v>0.45804293907580934</v>
+        <v>0.17424560969728292</v>
       </c>
       <c r="D27">
-        <v>1.0030286453212274</v>
+        <v>0.38154519601934023</v>
       </c>
       <c r="E27">
-        <v>0.70114301071346552</v>
+        <v>0.26669566164286568</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
+      <c r="J27">
+        <v>0.37999999999999901</v>
+      </c>
+      <c r="K27">
+        <v>2.746</v>
+      </c>
+      <c r="L27" s="29">
+        <f t="shared" si="2"/>
+        <v>0.39880144709500698</v>
+      </c>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -16647,13 +16759,13 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28">
-        <v>0.99963390852811007</v>
+        <v>0.99945181439800412</v>
       </c>
       <c r="C28">
-        <v>2.8491905213518225E-2</v>
+        <v>2.42524311179994E-2</v>
       </c>
       <c r="D28" t="e">
         <v>#N/A</v>
@@ -16665,9 +16777,16 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
+      <c r="J28">
+        <v>0.37999999999999901</v>
+      </c>
+      <c r="K28">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="L28" s="29">
+        <f t="shared" si="2"/>
+        <v>0.39109638177755812</v>
+      </c>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -16675,13 +16794,13 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29">
-        <v>2730.5577575117218</v>
+        <v>18839.730031536226</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D29" t="e">
         <v>#N/A</v>
@@ -16693,9 +16812,16 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
+      <c r="J29" s="44">
+        <v>0.87999999999999901</v>
+      </c>
+      <c r="K29" s="44">
+        <v>2.2850000000000001</v>
+      </c>
+      <c r="L29" s="29">
+        <f t="shared" si="2"/>
+        <v>0.86268161727921999</v>
+      </c>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -16703,13 +16829,13 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30">
-        <v>6.6499074911547655</v>
+        <v>33.243480692845147</v>
       </c>
       <c r="C30">
-        <v>2.4353659880883213E-3</v>
+        <v>1.8233592869132474E-2</v>
       </c>
       <c r="D30" t="e">
         <v>#N/A</v>
@@ -16721,9 +16847,16 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
+      <c r="J30" s="44">
+        <v>0.87999999999999901</v>
+      </c>
+      <c r="K30" s="44">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="L30" s="29">
+        <f t="shared" si="2"/>
+        <v>0.87501905492205978</v>
+      </c>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -16731,7 +16864,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -16741,9 +16874,16 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
+      <c r="J31" s="44">
+        <v>0.87999999999999901</v>
+      </c>
+      <c r="K31" s="44">
+        <v>2.282</v>
+      </c>
+      <c r="L31" s="29">
+        <f t="shared" si="2"/>
+        <v>0.86636938470725688</v>
+      </c>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
@@ -16751,7 +16891,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -16761,9 +16901,16 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
+      <c r="J32" s="44">
+        <v>0.87999999999999901</v>
+      </c>
+      <c r="K32" s="44">
+        <v>2.2850000000000001</v>
+      </c>
+      <c r="L32" s="29">
+        <f t="shared" si="2"/>
+        <v>0.86268161727921999</v>
+      </c>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
@@ -16771,7 +16918,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -16781,9 +16928,16 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="J33" s="44">
+        <v>0.87999999999999901</v>
+      </c>
+      <c r="K33" s="44">
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="L33" s="29">
+        <f t="shared" si="2"/>
+        <v>0.8504715208480409</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -16791,7 +16945,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" t="s">
         <v>107</v>
@@ -16803,9 +16957,16 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
+      <c r="J34">
+        <v>1.379999999999999</v>
+      </c>
+      <c r="K34">
+        <v>1.95</v>
+      </c>
+      <c r="L34" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3581081260188519</v>
+      </c>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
@@ -16813,7 +16974,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" t="s">
         <v>108</v>
@@ -16827,9 +16988,16 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="J35">
+        <v>1.379999999999999</v>
+      </c>
+      <c r="K35">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="L35" s="29">
+        <f t="shared" si="2"/>
+        <v>1.342269131629557</v>
+      </c>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -16837,14 +17005,14 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36">
         <v>3.2183999999999999</v>
       </c>
       <c r="C36">
         <f>$B$26*B36^3+$C$26*B36^2+$D$26*B36+$E$26</f>
-        <v>-5.4682341856953087E-3</v>
+        <v>-5.3390184340180724E-3</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -16852,9 +17020,16 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
+      <c r="J36">
+        <v>1.379999999999999</v>
+      </c>
+      <c r="K36">
+        <v>1.94</v>
+      </c>
+      <c r="L36" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3758931227698632</v>
+      </c>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -16862,14 +17037,14 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37">
         <v>2.7458</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C42" si="2">$B$26*B37^3+$C$26*B37^2+$D$26*B37+$E$26</f>
-        <v>0.39923496654021307</v>
+        <f t="shared" ref="C37:C42" si="3">$B$26*B37^3+$C$26*B37^2+$D$26*B37+$E$26</f>
+        <v>0.39897296955665951</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -16877,9 +17052,16 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="J37">
+        <v>1.379999999999999</v>
+      </c>
+      <c r="K37">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="L37" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3705369387313802</v>
+      </c>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
@@ -16887,14 +17069,14 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38">
         <v>2.2844000000000002</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
-        <v>0.86319975403865001</v>
+        <f t="shared" si="3"/>
+        <v>0.8634182521414111</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -16902,9 +17084,16 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
+      <c r="J38">
+        <v>1.379999999999999</v>
+      </c>
+      <c r="K38">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="L38" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3705369387313802</v>
+      </c>
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
@@ -16912,14 +17101,14 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39">
         <v>1.9469999999999998</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
-        <v>1.3629637622388628</v>
+        <f t="shared" si="3"/>
+        <v>1.3634229686579289</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -16927,9 +17116,16 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="J39" s="44">
+        <v>1.879999999999999</v>
+      </c>
+      <c r="K39" s="44">
+        <v>1.679</v>
+      </c>
+      <c r="L39" s="29">
+        <f t="shared" si="2"/>
+        <v>1.9161153149227452</v>
+      </c>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
@@ -16937,14 +17133,14 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40">
         <v>1.6874000000000002</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
-        <v>1.89598843318951</v>
+        <f t="shared" si="3"/>
+        <v>1.8962580465386552</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -16952,9 +17148,16 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
+      <c r="J40" s="44">
+        <v>1.879999999999999</v>
+      </c>
+      <c r="K40" s="44">
+        <v>1.679</v>
+      </c>
+      <c r="L40" s="29">
+        <f t="shared" si="2"/>
+        <v>1.9161153149227452</v>
+      </c>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
@@ -16962,14 +17165,14 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41">
         <v>1.492</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
-        <v>2.4065257589345155</v>
+        <f t="shared" si="3"/>
+        <v>2.406304016476609</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -16977,9 +17180,16 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="J41" s="44">
+        <v>1.879999999999999</v>
+      </c>
+      <c r="K41" s="44">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="L41" s="29">
+        <f t="shared" si="2"/>
+        <v>1.8924957097740176</v>
+      </c>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
@@ -16987,14 +17197,14 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42">
         <v>1.3466</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
-        <v>2.8575555592439379</v>
+        <f t="shared" si="3"/>
+        <v>2.8567174341609078</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -17002,9 +17212,16 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
+      <c r="J42" s="44">
+        <v>1.879999999999999</v>
+      </c>
+      <c r="K42" s="44">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="L42" s="29">
+        <f t="shared" si="2"/>
+        <v>1.8854585172620641</v>
+      </c>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
@@ -17012,7 +17229,7 @@
       <c r="Q42"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>112</v>
       </c>
@@ -17024,9 +17241,16 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
+      <c r="J43" s="44">
+        <v>1.879999999999999</v>
+      </c>
+      <c r="K43" s="44">
+        <v>1.698</v>
+      </c>
+      <c r="L43" s="29">
+        <f t="shared" si="2"/>
+        <v>1.8714511981640953</v>
+      </c>
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
@@ -17034,7 +17258,7 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -17056,9 +17280,16 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
+      <c r="J44">
+        <v>2.379999999999999</v>
+      </c>
+      <c r="K44">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="L44" s="29">
+        <f t="shared" si="2"/>
+        <v>2.3976767702689408</v>
+      </c>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
@@ -17066,7 +17297,7 @@
       <c r="Q44"/>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -17088,9 +17319,16 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="J45">
+        <v>2.379999999999999</v>
+      </c>
+      <c r="K45">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="L45" s="29">
+        <f t="shared" si="2"/>
+        <v>2.4149573170039318</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
@@ -17098,36 +17336,43 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="29">
         <v>0</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="29">
         <f>$B$26*C18^3+$C$26*C18^2+$D$26*C18+$E$26</f>
-        <v>-6.02760677465497E-3</v>
-      </c>
-      <c r="C46" s="30">
-        <f t="shared" ref="C46:F46" si="3">$B$26*D18^3+$C$26*D18^2+$D$26*D18+$E$26</f>
-        <v>-6.02760677465497E-3</v>
-      </c>
-      <c r="D46" s="30">
-        <f t="shared" si="3"/>
-        <v>-3.2330596846854576E-3</v>
-      </c>
-      <c r="E46" s="30">
-        <f t="shared" si="3"/>
-        <v>-6.02760677465497E-3</v>
-      </c>
-      <c r="F46" s="30">
-        <f t="shared" si="3"/>
-        <v>-6.02760677465497E-3</v>
+        <v>-5.8968227852140842E-3</v>
+      </c>
+      <c r="C46" s="29">
+        <f t="shared" ref="C46:F46" si="4">$B$26*D18^3+$C$26*D18^2+$D$26*D18+$E$26</f>
+        <v>-5.8968227852140842E-3</v>
+      </c>
+      <c r="D46" s="29">
+        <f t="shared" si="4"/>
+        <v>-3.1100832878649953E-3</v>
+      </c>
+      <c r="E46" s="29">
+        <f t="shared" si="4"/>
+        <v>-5.8968227852140842E-3</v>
+      </c>
+      <c r="F46" s="29">
+        <f t="shared" si="4"/>
+        <v>-5.8968227852140842E-3</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
+      <c r="J46">
+        <v>2.379999999999999</v>
+      </c>
+      <c r="K46">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="L46" s="29">
+        <f t="shared" si="2"/>
+        <v>2.4149573170039318</v>
+      </c>
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
@@ -17135,36 +17380,43 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.37999999999999901</v>
       </c>
-      <c r="B47" s="30">
-        <f t="shared" ref="B47:F47" si="4">$B$26*C19^3+$C$26*C19^2+$D$26*C19+$E$26</f>
-        <v>0.39906355033086172</v>
-      </c>
-      <c r="C47" s="30">
-        <f t="shared" si="4"/>
-        <v>0.40765071681144605</v>
-      </c>
-      <c r="D47" s="30">
-        <f t="shared" si="4"/>
-        <v>0.39906355033086172</v>
-      </c>
-      <c r="E47" s="30">
-        <f t="shared" si="4"/>
-        <v>0.39906355033086172</v>
-      </c>
-      <c r="F47" s="30">
-        <f t="shared" si="4"/>
-        <v>0.39136310094557203</v>
+      <c r="B47" s="29">
+        <f t="shared" ref="B47:F47" si="5">$B$26*C19^3+$C$26*C19^2+$D$26*C19+$E$26</f>
+        <v>0.39880144709500698</v>
+      </c>
+      <c r="C47" s="29">
+        <f t="shared" si="5"/>
+        <v>0.4073941184468417</v>
+      </c>
+      <c r="D47" s="29">
+        <f t="shared" si="5"/>
+        <v>0.39880144709500698</v>
+      </c>
+      <c r="E47" s="29">
+        <f t="shared" si="5"/>
+        <v>0.39880144709500698</v>
+      </c>
+      <c r="F47" s="29">
+        <f t="shared" si="5"/>
+        <v>0.39109638177755812</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
+      <c r="J47">
+        <v>2.379999999999999</v>
+      </c>
+      <c r="K47">
+        <v>1.492</v>
+      </c>
+      <c r="L47" s="29">
+        <f t="shared" si="2"/>
+        <v>2.406304016476609</v>
+      </c>
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
@@ -17172,36 +17424,43 @@
       <c r="Q47"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.87999999999999901</v>
       </c>
-      <c r="B48" s="30">
-        <f t="shared" ref="B48:F48" si="5">$B$26*C20^3+$C$26*C20^2+$D$26*C20+$E$26</f>
-        <v>0.86246380776664822</v>
-      </c>
-      <c r="C48" s="30">
-        <f t="shared" si="5"/>
-        <v>0.8747898311803759</v>
-      </c>
-      <c r="D48" s="30">
-        <f t="shared" si="5"/>
-        <v>0.86614813691804926</v>
-      </c>
-      <c r="E48" s="30">
-        <f t="shared" si="5"/>
-        <v>0.86246380776664822</v>
-      </c>
-      <c r="F48" s="30">
-        <f t="shared" si="5"/>
-        <v>0.85026525404104625</v>
+      <c r="B48" s="29">
+        <f t="shared" ref="B48:F48" si="6">$B$26*C20^3+$C$26*C20^2+$D$26*C20+$E$26</f>
+        <v>0.86268161727921999</v>
+      </c>
+      <c r="C48" s="29">
+        <f t="shared" si="6"/>
+        <v>0.87501905492205978</v>
+      </c>
+      <c r="D48" s="29">
+        <f t="shared" si="6"/>
+        <v>0.86636938470725688</v>
+      </c>
+      <c r="E48" s="29">
+        <f t="shared" si="6"/>
+        <v>0.86268161727921999</v>
+      </c>
+      <c r="F48" s="29">
+        <f t="shared" si="6"/>
+        <v>0.8504715208480409</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
+      <c r="J48">
+        <v>2.379999999999999</v>
+      </c>
+      <c r="K48">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="L48" s="29">
+        <f t="shared" si="2"/>
+        <v>2.3976767702689408</v>
+      </c>
       <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
@@ -17209,36 +17468,43 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.379999999999999</v>
       </c>
-      <c r="B49" s="30">
-        <f t="shared" ref="B49:F49" si="6">$B$26*C21^3+$C$26*C21^2+$D$26*C21+$E$26</f>
-        <v>1.3576491335272447</v>
-      </c>
-      <c r="C49" s="30">
-        <f t="shared" si="6"/>
-        <v>1.3418110549671454</v>
-      </c>
-      <c r="D49" s="30">
-        <f t="shared" si="6"/>
-        <v>1.3754335973326519</v>
-      </c>
-      <c r="E49" s="30">
-        <f t="shared" si="6"/>
-        <v>1.3700775189747265</v>
-      </c>
-      <c r="F49" s="30">
-        <f t="shared" si="6"/>
-        <v>1.3700775189747265</v>
+      <c r="B49" s="29">
+        <f t="shared" ref="B49:F49" si="7">$B$26*C21^3+$C$26*C21^2+$D$26*C21+$E$26</f>
+        <v>1.3581081260188519</v>
+      </c>
+      <c r="C49" s="29">
+        <f t="shared" si="7"/>
+        <v>1.342269131629557</v>
+      </c>
+      <c r="D49" s="29">
+        <f t="shared" si="7"/>
+        <v>1.3758931227698632</v>
+      </c>
+      <c r="E49" s="29">
+        <f t="shared" si="7"/>
+        <v>1.3705369387313802</v>
+      </c>
+      <c r="F49" s="29">
+        <f t="shared" si="7"/>
+        <v>1.3705369387313802</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="J49" s="44">
+        <v>2.879999999999999</v>
+      </c>
+      <c r="K49" s="44">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="L49" s="29">
+        <f t="shared" si="2"/>
+        <v>2.8322172774518908</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
@@ -17246,36 +17512,43 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.879999999999999</v>
       </c>
-      <c r="B50" s="30">
-        <f t="shared" ref="B50:F50" si="7">$B$26*C22^3+$C$26*C22^2+$D$26*C22+$E$26</f>
-        <v>1.9158598658495105</v>
-      </c>
-      <c r="C50" s="30">
-        <f t="shared" si="7"/>
-        <v>1.9158598658495105</v>
-      </c>
-      <c r="D50" s="30">
-        <f t="shared" si="7"/>
-        <v>1.892223463366701</v>
-      </c>
-      <c r="E50" s="30">
-        <f t="shared" si="7"/>
-        <v>1.8851813895058864</v>
-      </c>
-      <c r="F50" s="30">
-        <f t="shared" si="7"/>
-        <v>1.8711645243273054</v>
+      <c r="B50" s="29">
+        <f t="shared" ref="B50:F50" si="8">$B$26*C22^3+$C$26*C22^2+$D$26*C22+$E$26</f>
+        <v>1.9161153149227452</v>
+      </c>
+      <c r="C50" s="29">
+        <f t="shared" si="8"/>
+        <v>1.9161153149227452</v>
+      </c>
+      <c r="D50" s="29">
+        <f t="shared" si="8"/>
+        <v>1.8924957097740176</v>
+      </c>
+      <c r="E50" s="29">
+        <f t="shared" si="8"/>
+        <v>1.8854585172620641</v>
+      </c>
+      <c r="F50" s="29">
+        <f t="shared" si="8"/>
+        <v>1.8714511981640953</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
+      <c r="J50" s="44">
+        <v>2.879999999999999</v>
+      </c>
+      <c r="K50" s="44">
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="L50" s="29">
+        <f t="shared" si="2"/>
+        <v>2.8988365854895495</v>
+      </c>
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
@@ -17283,36 +17556,43 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.379999999999999</v>
       </c>
-      <c r="B51" s="30">
-        <f t="shared" ref="B51:F51" si="8">$B$26*C23^3+$C$26*C23^2+$D$26*C23+$E$26</f>
-        <v>2.3978882104723471</v>
-      </c>
-      <c r="C51" s="30">
-        <f t="shared" si="8"/>
-        <v>2.4151894545119212</v>
-      </c>
-      <c r="D51" s="30">
-        <f t="shared" si="8"/>
-        <v>2.4151894545119212</v>
-      </c>
-      <c r="E51" s="30">
-        <f t="shared" si="8"/>
-        <v>2.4065257589345155</v>
-      </c>
-      <c r="F51" s="30">
-        <f t="shared" si="8"/>
-        <v>2.3978882104723471</v>
+      <c r="B51" s="29">
+        <f t="shared" ref="B51:F51" si="9">$B$26*C23^3+$C$26*C23^2+$D$26*C23+$E$26</f>
+        <v>2.3976767702689408</v>
+      </c>
+      <c r="C51" s="29">
+        <f t="shared" si="9"/>
+        <v>2.4149573170039318</v>
+      </c>
+      <c r="D51" s="29">
+        <f t="shared" si="9"/>
+        <v>2.4149573170039318</v>
+      </c>
+      <c r="E51" s="29">
+        <f t="shared" si="9"/>
+        <v>2.406304016476609</v>
+      </c>
+      <c r="F51" s="29">
+        <f t="shared" si="9"/>
+        <v>2.3976767702689408</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
+      <c r="J51" s="44">
+        <v>2.879999999999999</v>
+      </c>
+      <c r="K51" s="44">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="L51" s="29">
+        <f t="shared" si="2"/>
+        <v>2.8653670538620784</v>
+      </c>
       <c r="M51"/>
       <c r="N51"/>
       <c r="O51"/>
@@ -17320,36 +17600,43 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.879999999999999</v>
       </c>
-      <c r="B52" s="30">
-        <f t="shared" ref="B52:F52" si="9">$B$26*C24^3+$C$26*C24^2+$D$26*C24+$E$26</f>
-        <v>2.8330182186994559</v>
-      </c>
-      <c r="C52" s="30">
-        <f t="shared" si="9"/>
-        <v>2.8997395337348539</v>
-      </c>
-      <c r="D52" s="30">
-        <f t="shared" si="9"/>
-        <v>2.8662183988513554</v>
-      </c>
-      <c r="E52" s="30">
-        <f t="shared" si="9"/>
-        <v>2.8330182186994559</v>
-      </c>
-      <c r="F52" s="30">
-        <f t="shared" si="9"/>
-        <v>2.8562247381144346</v>
+      <c r="B52" s="29">
+        <f t="shared" ref="B52:F52" si="10">$B$26*C24^3+$C$26*C24^2+$D$26*C24+$E$26</f>
+        <v>2.8322172774518908</v>
+      </c>
+      <c r="C52" s="29">
+        <f t="shared" si="10"/>
+        <v>2.8988365854895495</v>
+      </c>
+      <c r="D52" s="29">
+        <f t="shared" si="10"/>
+        <v>2.8653670538620784</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="10"/>
+        <v>2.8322172774518908</v>
+      </c>
+      <c r="F52" s="29">
+        <f t="shared" si="10"/>
+        <v>2.8553886396788002</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
+      <c r="J52" s="44">
+        <v>2.879999999999999</v>
+      </c>
+      <c r="K52" s="44">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="L52" s="29">
+        <f t="shared" si="2"/>
+        <v>2.8322172774518908</v>
+      </c>
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
@@ -17357,7 +17644,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -17367,9 +17654,16 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="J53" s="44">
+        <v>2.879999999999999</v>
+      </c>
+      <c r="K53" s="44">
+        <v>1.347</v>
+      </c>
+      <c r="L53" s="29">
+        <f t="shared" si="2"/>
+        <v>2.8553886396788002</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
@@ -17377,7 +17671,7 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>73</v>
       </c>
@@ -17399,7 +17693,7 @@
       <c r="Q54"/>
       <c r="R54"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -17431,7 +17725,7 @@
       <c r="Q55"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -17463,29 +17757,29 @@
       <c r="Q56"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
       <c r="B57" s="29">
         <f>B46-$A46</f>
-        <v>-6.02760677465497E-3</v>
+        <v>-5.8968227852140842E-3</v>
       </c>
       <c r="C57" s="29">
-        <f t="shared" ref="C57:F57" si="10">C46-$A46</f>
-        <v>-6.02760677465497E-3</v>
+        <f t="shared" ref="C57:F57" si="11">C46-$A46</f>
+        <v>-5.8968227852140842E-3</v>
       </c>
       <c r="D57" s="29">
-        <f t="shared" si="10"/>
-        <v>-3.2330596846854576E-3</v>
+        <f t="shared" si="11"/>
+        <v>-3.1100832878649953E-3</v>
       </c>
       <c r="E57" s="29">
-        <f t="shared" si="10"/>
-        <v>-6.02760677465497E-3</v>
+        <f t="shared" si="11"/>
+        <v>-5.8968227852140842E-3</v>
       </c>
       <c r="F57" s="29">
-        <f t="shared" si="10"/>
-        <v>-6.02760677465497E-3</v>
+        <f t="shared" si="11"/>
+        <v>-5.8968227852140842E-3</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -17500,29 +17794,29 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.37999999999999901</v>
       </c>
       <c r="B58" s="29">
-        <f t="shared" ref="B58:F58" si="11">B47-$A47</f>
-        <v>1.9063550330862711E-2</v>
+        <f t="shared" ref="B58:F58" si="12">B47-$A47</f>
+        <v>1.8801447095007973E-2</v>
       </c>
       <c r="C58" s="29">
-        <f t="shared" si="11"/>
-        <v>2.765071681144704E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.7394118446842697E-2</v>
       </c>
       <c r="D58" s="29">
-        <f t="shared" si="11"/>
-        <v>1.9063550330862711E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.8801447095007973E-2</v>
       </c>
       <c r="E58" s="29">
-        <f t="shared" si="11"/>
-        <v>1.9063550330862711E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.8801447095007973E-2</v>
       </c>
       <c r="F58" s="29">
-        <f t="shared" si="11"/>
-        <v>1.1363100945573024E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.1096381777559117E-2</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -17537,29 +17831,29 @@
       <c r="Q58"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.87999999999999901</v>
       </c>
       <c r="B59" s="29">
-        <f t="shared" ref="B59:F59" si="12">B48-$A48</f>
-        <v>-1.7536192233350789E-2</v>
+        <f t="shared" ref="B59:F59" si="13">B48-$A48</f>
+        <v>-1.7318382720779013E-2</v>
       </c>
       <c r="C59" s="29">
-        <f t="shared" si="12"/>
-        <v>-5.2101688196231066E-3</v>
+        <f t="shared" si="13"/>
+        <v>-4.980945077939225E-3</v>
       </c>
       <c r="D59" s="29">
-        <f t="shared" si="12"/>
-        <v>-1.3851863081949745E-2</v>
+        <f t="shared" si="13"/>
+        <v>-1.3630615292742121E-2</v>
       </c>
       <c r="E59" s="29">
-        <f t="shared" si="12"/>
-        <v>-1.7536192233350789E-2</v>
+        <f t="shared" si="13"/>
+        <v>-1.7318382720779013E-2</v>
       </c>
       <c r="F59" s="29">
-        <f t="shared" si="12"/>
-        <v>-2.9734745958952757E-2</v>
+        <f t="shared" si="13"/>
+        <v>-2.9528479151958109E-2</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -17574,29 +17868,29 @@
       <c r="Q59"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.379999999999999</v>
       </c>
       <c r="B60" s="29">
-        <f t="shared" ref="B60:F60" si="13">B49-$A49</f>
-        <v>-2.2350866472754305E-2</v>
+        <f t="shared" ref="B60:F60" si="14">B49-$A49</f>
+        <v>-2.1891873981147114E-2</v>
       </c>
       <c r="C60" s="29">
-        <f t="shared" si="13"/>
-        <v>-3.8188945032853638E-2</v>
+        <f t="shared" si="14"/>
+        <v>-3.7730868370442039E-2</v>
       </c>
       <c r="D60" s="29">
-        <f t="shared" si="13"/>
-        <v>-4.5664026673470914E-3</v>
+        <f t="shared" si="14"/>
+        <v>-4.1068772301358081E-3</v>
       </c>
       <c r="E60" s="29">
-        <f t="shared" si="13"/>
-        <v>-9.9224810252724893E-3</v>
+        <f t="shared" si="14"/>
+        <v>-9.4630612686188442E-3</v>
       </c>
       <c r="F60" s="29">
-        <f t="shared" si="13"/>
-        <v>-9.9224810252724893E-3</v>
+        <f t="shared" si="14"/>
+        <v>-9.4630612686188442E-3</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -17611,29 +17905,29 @@
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.879999999999999</v>
       </c>
       <c r="B61" s="29">
-        <f t="shared" ref="B61:F61" si="14">B50-$A50</f>
-        <v>3.5859865849511507E-2</v>
+        <f t="shared" ref="B61:F61" si="15">B50-$A50</f>
+        <v>3.6115314922746222E-2</v>
       </c>
       <c r="C61" s="29">
-        <f t="shared" si="14"/>
-        <v>3.5859865849511507E-2</v>
+        <f t="shared" si="15"/>
+        <v>3.6115314922746222E-2</v>
       </c>
       <c r="D61" s="29">
-        <f t="shared" si="14"/>
-        <v>1.2223463366701992E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.2495709774018593E-2</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" si="14"/>
-        <v>5.1813895058874238E-3</v>
+        <f t="shared" si="15"/>
+        <v>5.4585172620651434E-3</v>
       </c>
       <c r="F61" s="29">
-        <f t="shared" si="14"/>
-        <v>-8.8354756726936046E-3</v>
+        <f t="shared" si="15"/>
+        <v>-8.5488018359036744E-3</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -17648,29 +17942,29 @@
       <c r="Q61"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.379999999999999</v>
       </c>
       <c r="B62" s="29">
-        <f t="shared" ref="B62:F62" si="15">B51-$A51</f>
-        <v>1.7888210472348121E-2</v>
+        <f t="shared" ref="B62:F62" si="16">B51-$A51</f>
+        <v>1.7676770268941766E-2</v>
       </c>
       <c r="C62" s="29">
-        <f t="shared" si="15"/>
-        <v>3.5189454511922236E-2</v>
+        <f t="shared" si="16"/>
+        <v>3.4957317003932786E-2</v>
       </c>
       <c r="D62" s="29">
-        <f t="shared" si="15"/>
-        <v>3.5189454511922236E-2</v>
+        <f t="shared" si="16"/>
+        <v>3.4957317003932786E-2</v>
       </c>
       <c r="E62" s="29">
-        <f t="shared" si="15"/>
-        <v>2.6525758934516475E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.6304016476609959E-2</v>
       </c>
       <c r="F62" s="29">
-        <f t="shared" si="15"/>
-        <v>1.7888210472348121E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.7676770268941766E-2</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -17685,29 +17979,29 @@
       <c r="Q62"/>
       <c r="R62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.879999999999999</v>
       </c>
       <c r="B63" s="29">
-        <f t="shared" ref="B63:F63" si="16">B52-$A52</f>
-        <v>-4.6981781300543091E-2</v>
+        <f t="shared" ref="B63:F63" si="17">B52-$A52</f>
+        <v>-4.7782722548108225E-2</v>
       </c>
       <c r="C63" s="29">
-        <f t="shared" si="16"/>
-        <v>1.973953373485493E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.8836585489550473E-2</v>
       </c>
       <c r="D63" s="29">
-        <f t="shared" si="16"/>
-        <v>-1.3781601148643574E-2</v>
+        <f t="shared" si="17"/>
+        <v>-1.4632946137920655E-2</v>
       </c>
       <c r="E63" s="29">
-        <f t="shared" si="16"/>
-        <v>-4.6981781300543091E-2</v>
+        <f t="shared" si="17"/>
+        <v>-4.7782722548108225E-2</v>
       </c>
       <c r="F63" s="29">
-        <f t="shared" si="16"/>
-        <v>-2.3775261885564447E-2</v>
+        <f t="shared" si="17"/>
+        <v>-2.4611360321198816E-2</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -17722,7 +18016,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -17742,13 +18036,13 @@
       <c r="Q64"/>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>105</v>
       </c>
       <c r="B65" s="29">
         <f t="array" ref="B65">MAX(ABS(B57:F64))</f>
-        <v>4.6981781300543091E-2</v>
+        <v>4.7782722548108225E-2</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -17767,7 +18061,7 @@
       <c r="Q65"/>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>113</v>
       </c>
@@ -17789,18 +18083,18 @@
       <c r="Q66"/>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A67" cm="1">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" cm="1">
         <f t="array" ref="A67:D71">LINEST(H18:H24,B18:B24^{1,2,3}, TRUE, TRUE)</f>
         <v>-4.0778331146351626E-2</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="29">
         <v>0.35664330477194106</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="29">
         <v>-1.3383059747179238</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="29">
         <v>3.2137899470424713</v>
       </c>
       <c r="E67"/>
@@ -17818,7 +18112,7 @@
       <c r="Q67"/>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5.3771638911085645E-3</v>
       </c>
@@ -17846,7 +18140,7 @@
       <c r="Q68"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.99992200876384241</v>
       </c>
@@ -17874,7 +18168,7 @@
       <c r="Q69"/>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12820.953456146945</v>
       </c>
@@ -17902,7 +18196,7 @@
       <c r="Q70"/>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.832515299971254</v>
       </c>
@@ -17930,7 +18224,7 @@
       <c r="Q71"/>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -17950,7 +18244,7 @@
       <c r="Q72"/>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -17972,7 +18266,7 @@
       <c r="Q73"/>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>3*A67</f>
         <v>-0.12233499343905488</v>
@@ -18001,11 +18295,11 @@
       <c r="Q74"/>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>111</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="29">
         <f>A74*3^2+B74*3+C74</f>
         <v>-0.29946108703777141</v>
       </c>
@@ -18026,7 +18320,7 @@
       <c r="Q75"/>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -18046,7 +18340,7 @@
       <c r="Q76"/>
       <c r="R76"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -18066,7 +18360,7 @@
       <c r="Q77"/>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -18086,7 +18380,7 @@
       <c r="Q78"/>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -18106,7 +18400,7 @@
       <c r="Q79"/>
       <c r="R79"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -18126,7 +18420,7 @@
       <c r="Q80"/>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -18146,7 +18440,7 @@
       <c r="Q81"/>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -18166,7 +18460,7 @@
       <c r="Q82"/>
       <c r="R82"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -18186,7 +18480,7 @@
       <c r="Q83"/>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -18206,7 +18500,7 @@
       <c r="Q84"/>
       <c r="R84"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -18226,7 +18520,7 @@
       <c r="Q85"/>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -18246,7 +18540,7 @@
       <c r="Q86"/>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -18266,7 +18560,7 @@
       <c r="Q87"/>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -18286,7 +18580,7 @@
       <c r="Q88"/>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -18306,7 +18600,7 @@
       <c r="Q89"/>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -18326,7 +18620,7 @@
       <c r="Q90"/>
       <c r="R90"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -18346,7 +18640,7 @@
       <c r="Q91"/>
       <c r="R91"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -18366,7 +18660,7 @@
       <c r="Q92"/>
       <c r="R92"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -18386,7 +18680,7 @@
       <c r="Q93"/>
       <c r="R93"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -18406,7 +18700,7 @@
       <c r="Q94"/>
       <c r="R94"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -18426,7 +18720,7 @@
       <c r="Q95"/>
       <c r="R95"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -18446,7 +18740,7 @@
       <c r="Q96"/>
       <c r="R96"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -18466,7 +18760,7 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -18486,7 +18780,7 @@
       <c r="Q98"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -18506,7 +18800,7 @@
       <c r="Q99"/>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -18526,7 +18820,7 @@
       <c r="Q100"/>
       <c r="R100"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -18546,7 +18840,7 @@
       <c r="Q101"/>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -18566,7 +18860,7 @@
       <c r="Q102"/>
       <c r="R102"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -18586,7 +18880,7 @@
       <c r="Q103"/>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -18606,7 +18900,7 @@
       <c r="Q104"/>
       <c r="R104"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -18626,7 +18920,7 @@
       <c r="Q105"/>
       <c r="R105"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -18646,7 +18940,7 @@
       <c r="Q106"/>
       <c r="R106"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -18666,7 +18960,7 @@
       <c r="Q107"/>
       <c r="R107"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -18686,7 +18980,7 @@
       <c r="Q108"/>
       <c r="R108"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -18706,7 +19000,7 @@
       <c r="Q109"/>
       <c r="R109"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -18726,7 +19020,7 @@
       <c r="Q110"/>
       <c r="R110"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -18748,7 +19042,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18757,19 +19052,19 @@
   <dimension ref="A2:I280"/>
   <sheetViews>
     <sheetView zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F216"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.81640625" style="3"/>
-    <col min="9" max="9" width="13.453125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.81640625" style="3"/>
+    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="3"/>
+    <col min="9" max="9" width="13.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -18777,7 +19072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -18799,7 +19094,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -18818,7 +19113,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>48756732</v>
       </c>
@@ -18840,7 +19135,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>48773372</v>
       </c>
@@ -18864,7 +19159,7 @@
         <v>63.971494836213097</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>48790012</v>
       </c>
@@ -18888,7 +19183,7 @@
         <v>55.213492566969471</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>48806652</v>
       </c>
@@ -18912,7 +19207,7 @@
         <v>40.362966979991469</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>48823292</v>
       </c>
@@ -18936,7 +19231,7 @@
         <v>54.071144444894493</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>48839932</v>
       </c>
@@ -18960,7 +19255,7 @@
         <v>62.829146714137877</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>48856572</v>
       </c>
@@ -18984,7 +19279,7 @@
         <v>57.498188811119995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>48873212</v>
       </c>
@@ -19008,7 +19303,7 @@
         <v>58.640536933195229</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>48889852</v>
       </c>
@@ -19032,7 +19327,7 @@
         <v>45.313142175650874</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>48906492</v>
       </c>
@@ -19056,7 +19351,7 @@
         <v>28.177920344522555</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>48923132</v>
       </c>
@@ -19080,7 +19375,7 @@
         <v>22.085397026787938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>48939772</v>
       </c>
@@ -19104,7 +19399,7 @@
         <v>18.658352660562105</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>48956412</v>
       </c>
@@ -19128,7 +19423,7 @@
         <v>8.7580022692435016</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>48973052</v>
       </c>
@@ -19152,7 +19447,7 @@
         <v>1.1423481220753138</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>48989692</v>
       </c>
@@ -19176,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>49006332</v>
       </c>
@@ -19200,7 +19495,7 @@
         <v>-1.1423481220753147</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>49022972</v>
       </c>
@@ -19224,7 +19519,7 @@
         <v>-17.135221831128625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>49039612</v>
       </c>
@@ -19248,7 +19543,7 @@
         <v>-29.701051173956103</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>49056252</v>
       </c>
@@ -19272,7 +19567,7 @@
         <v>-41.886097809425181</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>49072892</v>
       </c>
@@ -19296,7 +19591,7 @@
         <v>-56.355840689044726</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>49089532</v>
       </c>
@@ -19320,7 +19615,7 @@
         <v>-47.597838419801434</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>49106172</v>
       </c>
@@ -19344,7 +19639,7 @@
         <v>-36.555139906407554</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>49122812</v>
       </c>
@@ -19368,7 +19663,7 @@
         <v>-52.928796322819018</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>49139452</v>
       </c>
@@ -19392,7 +19687,7 @@
         <v>-62.829146714137821</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>49156092</v>
       </c>
@@ -19416,7 +19711,7 @@
         <v>-62.448364006779563</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>49172732</v>
       </c>
@@ -19440,7 +19735,7 @@
         <v>-71.206366276022848</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>49189372</v>
       </c>
@@ -19464,7 +19759,7 @@
         <v>-59.021319640553628</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>49206012</v>
       </c>
@@ -19488,7 +19783,7 @@
         <v>-44.170794053575705</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>49222652</v>
       </c>
@@ -19512,7 +19807,7 @@
         <v>-52.92879632281921</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>49239292</v>
       </c>
@@ -19536,7 +19831,7 @@
         <v>-54.071144444894422</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>49255932</v>
       </c>
@@ -19560,7 +19855,7 @@
         <v>-44.170794053575705</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>49272572</v>
       </c>
@@ -19584,7 +19879,7 @@
         <v>-41.50531510206681</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>49289212</v>
       </c>
@@ -19608,7 +19903,7 @@
         <v>-30.462616588672784</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>49305852</v>
       </c>
@@ -19632,7 +19927,7 @@
         <v>-18.277569953203692</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>49322492</v>
       </c>
@@ -19656,7 +19951,7 @@
         <v>-8.7580022692434021</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>49339132</v>
       </c>
@@ -19680,7 +19975,7 @@
         <v>-1.523130829433575</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>49355772</v>
       </c>
@@ -19704,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>49372412</v>
       </c>
@@ -19728,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>49389052</v>
       </c>
@@ -19752,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>49405692</v>
       </c>
@@ -19776,7 +20071,7 @@
         <v>1.523130829433575</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>49422332</v>
       </c>
@@ -19800,7 +20095,7 @@
         <v>22.085397026787746</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>49438972</v>
       </c>
@@ -19824,7 +20119,7 @@
         <v>37.697488028482717</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>49455612</v>
       </c>
@@ -19848,7 +20143,7 @@
         <v>27.035572222447172</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>49472252</v>
       </c>
@@ -19872,7 +20167,7 @@
         <v>23.608527856221453</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>49488892</v>
       </c>
@@ -19896,7 +20191,7 @@
         <v>27.035572222447264</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49505532</v>
       </c>
@@ -19920,7 +20215,7 @@
         <v>27.035572222447264</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49522172</v>
       </c>
@@ -19944,7 +20239,7 @@
         <v>29.320268466597572</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>49538812</v>
       </c>
@@ -19968,7 +20263,7 @@
         <v>26.654789515088684</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>49555452</v>
       </c>
@@ -19992,7 +20287,7 @@
         <v>18.658352660562226</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>49572092</v>
       </c>
@@ -20016,7 +20311,7 @@
         <v>12.565829342827607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>49588732</v>
       </c>
@@ -20040,7 +20335,7 @@
         <v>8.3772195618850365</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>49605372</v>
       </c>
@@ -20064,7 +20359,7 @@
         <v>6.0925233177345994</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>49622012</v>
       </c>
@@ -20088,7 +20383,7 @@
         <v>1.5231308294335699</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>49638652</v>
       </c>
@@ -20112,7 +20407,7 @@
         <v>-1.1423481220753147</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>49655292</v>
       </c>
@@ -20136,7 +20431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>49671932</v>
       </c>
@@ -20160,7 +20455,7 @@
         <v>-4.9501751956593054</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>49688572</v>
       </c>
@@ -20184,7 +20479,7 @@
         <v>-22.085397026787852</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>49705212</v>
       </c>
@@ -20208,7 +20503,7 @@
         <v>-30.843399296031361</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>49721852</v>
       </c>
@@ -20232,7 +20527,7 @@
         <v>-31.985747418106463</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>49738492</v>
       </c>
@@ -20256,7 +20551,7 @@
         <v>-31.985747418106463</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>49755132</v>
       </c>
@@ -20280,7 +20575,7 @@
         <v>-22.085397026787852</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>49771772</v>
       </c>
@@ -20304,7 +20599,7 @@
         <v>-20.562266197354276</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>49788412</v>
       </c>
@@ -20328,7 +20623,7 @@
         <v>-25.893224100372056</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>49805052</v>
       </c>
@@ -20352,7 +20647,7 @@
         <v>-25.893224100371949</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>49821692</v>
       </c>
@@ -20376,7 +20671,7 @@
         <v>-23.227745148863058</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>49838332</v>
       </c>
@@ -20400,7 +20695,7 @@
         <v>-19.800700782637197</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>49854972</v>
       </c>
@@ -20424,7 +20719,7 @@
         <v>-13.708177464902723</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>49871612</v>
       </c>
@@ -20448,7 +20743,7 @@
         <v>-6.0925233177346199</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>49888252</v>
       </c>
@@ -20472,7 +20767,7 @@
         <v>-1.1423481220752079</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>49904892</v>
       </c>
@@ -20496,7 +20791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>49921532</v>
       </c>
@@ -20520,7 +20815,7 @@
         <v>13.708177464902707</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>49938172</v>
       </c>
@@ -20544,7 +20839,7 @@
         <v>28.177920344522363</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>49954812</v>
       </c>
@@ -20568,7 +20863,7 @@
         <v>24.370093270938373</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>49971452</v>
       </c>
@@ -20592,7 +20887,7 @@
         <v>28.17792034452247</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>49988092</v>
       </c>
@@ -20616,7 +20911,7 @@
         <v>45.313142175651016</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>50004732</v>
       </c>
@@ -20640,7 +20935,7 @@
         <v>50.644100078668686</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>50021372</v>
       </c>
@@ -20664,7 +20959,7 @@
         <v>61.306015884704138</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>50038012</v>
       </c>
@@ -20688,7 +20983,7 @@
         <v>72.348714398098167</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>50054652</v>
       </c>
@@ -20712,7 +21007,7 @@
         <v>56.73662339640331</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>50071292</v>
       </c>
@@ -20736,7 +21031,7 @@
         <v>46.455490297726222</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>50087932</v>
       </c>
@@ -20760,7 +21055,7 @@
         <v>60.163667762629039</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>50104572</v>
       </c>
@@ -20784,7 +21079,7 @@
         <v>62.829146714137927</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>50121212</v>
       </c>
@@ -20808,7 +21103,7 @@
         <v>60.163667762628933</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>50137852</v>
       </c>
@@ -20832,7 +21127,7 @@
         <v>59.782885055270562</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>50154492</v>
       </c>
@@ -20856,7 +21151,7 @@
         <v>44.170794053575406</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>50171132</v>
       </c>
@@ -20880,7 +21175,7 @@
         <v>35.793574491690322</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>50187772</v>
       </c>
@@ -20904,7 +21199,7 @@
         <v>33.128095540181988</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>50204412</v>
       </c>
@@ -20928,7 +21223,7 @@
         <v>25.893224100371949</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>50221052</v>
       </c>
@@ -20952,7 +21247,7 @@
         <v>20.562266197353956</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>50237692</v>
       </c>
@@ -20976,7 +21271,7 @@
         <v>14.469742879619655</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>50254332</v>
       </c>
@@ -21000,7 +21295,7 @@
         <v>8.7580022692435104</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>50270972</v>
       </c>
@@ -21024,7 +21319,7 @@
         <v>3.8078270735840976</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>50287612</v>
       </c>
@@ -21048,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>50304252</v>
       </c>
@@ -21072,7 +21367,7 @@
         <v>-8.7580022692435104</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>50320892</v>
       </c>
@@ -21096,7 +21391,7 @@
         <v>-34.270443662256987</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>50337532</v>
       </c>
@@ -21120,7 +21415,7 @@
         <v>-51.405665493385314</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>50354172</v>
       </c>
@@ -21144,7 +21439,7 @@
         <v>-43.028445931500492</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>50370812</v>
       </c>
@@ -21168,7 +21463,7 @@
         <v>-35.412791784332299</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>50387452</v>
       </c>
@@ -21192,7 +21487,7 @@
         <v>-52.928796322819103</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>50404092</v>
       </c>
@@ -21216,7 +21511,7 @@
         <v>-70.064018153947757</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>50420732</v>
       </c>
@@ -21240,7 +21535,7 @@
         <v>-77.29888959375748</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>50437372</v>
       </c>
@@ -21264,7 +21559,7 @@
         <v>-88.341588107151409</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>50454012</v>
       </c>
@@ -21288,7 +21583,7 @@
         <v>-79.583585837907464</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>50470652</v>
       </c>
@@ -21312,7 +21607,7 @@
         <v>-70.064018153947288</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>50487292</v>
       </c>
@@ -21336,7 +21631,7 @@
         <v>-82.249064789416892</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>50503932</v>
       </c>
@@ -21360,7 +21655,7 @@
         <v>-87.19923998507609</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>50520572</v>
       </c>
@@ -21384,7 +21679,7 @@
         <v>-89.483936229226615</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>50537212</v>
       </c>
@@ -21408,7 +21703,7 @@
         <v>-89.483936229226714</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>50553852</v>
       </c>
@@ -21432,7 +21727,7 @@
         <v>-67.779321909797233</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>50570492</v>
       </c>
@@ -21456,7 +21751,7 @@
         <v>-47.978621127159798</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>50587132</v>
       </c>
@@ -21480,7 +21775,7 @@
         <v>-44.170794053575754</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>50603772</v>
       </c>
@@ -21504,7 +21799,7 @@
         <v>-38.078270735841187</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>50620412</v>
       </c>
@@ -21528,7 +21823,7 @@
         <v>-24.370093270938373</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>50637052</v>
       </c>
@@ -21552,7 +21847,7 @@
         <v>-13.327394757544395</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>50653692</v>
       </c>
@@ -21576,7 +21871,7 @@
         <v>-7.2348714398097744</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>50670332</v>
       </c>
@@ -21600,7 +21895,7 @@
         <v>-3.8078270735840976</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>50686972</v>
       </c>
@@ -21624,7 +21919,7 @@
         <v>1.1423481220752079</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>50703612</v>
       </c>
@@ -21648,7 +21943,7 @@
         <v>15.992873709053285</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>50720252</v>
       </c>
@@ -21672,7 +21967,7 @@
         <v>23.227745148863164</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>50736892</v>
       </c>
@@ -21696,7 +21991,7 @@
         <v>39.220618857916399</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>50753532</v>
       </c>
@@ -21720,7 +22015,7 @@
         <v>57.498188811119711</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>50770172</v>
       </c>
@@ -21744,7 +22039,7 @@
         <v>57.878971518478515</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>50786812</v>
       </c>
@@ -21768,7 +22063,7 @@
         <v>70.0640181539477</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>50803452</v>
       </c>
@@ -21792,7 +22087,7 @@
         <v>70.064018153947643</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>50820092</v>
       </c>
@@ -21816,7 +22111,7 @@
         <v>47.978621127159798</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>50836732</v>
       </c>
@@ -21840,7 +22135,7 @@
         <v>57.498188811120045</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>50853372</v>
       </c>
@@ -21864,7 +22159,7 @@
         <v>74.633410642248691</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>50870012</v>
       </c>
@@ -21888,7 +22183,7 @@
         <v>68.540887324514188</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>50886652</v>
       </c>
@@ -21912,7 +22207,7 @@
         <v>70.064018153947643</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>50903292</v>
       </c>
@@ -21936,7 +22231,7 @@
         <v>63.971494836213033</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>50919932</v>
       </c>
@@ -21960,7 +22255,7 @@
         <v>40.362966979991498</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>50936572</v>
       </c>
@@ -21984,7 +22279,7 @@
         <v>33.128095540181334</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>50953212</v>
       </c>
@@ -22008,7 +22303,7 @@
         <v>36.935922613765982</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>50969852</v>
       </c>
@@ -22032,7 +22327,7 @@
         <v>30.843399296031361</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>50986492</v>
       </c>
@@ -22056,7 +22351,7 @@
         <v>23.227745148863058</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>51003132</v>
       </c>
@@ -22080,7 +22375,7 @@
         <v>17.13522183112844</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>51019772</v>
       </c>
@@ -22104,7 +22399,7 @@
         <v>11.042698513394033</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>51036412</v>
       </c>
@@ -22128,7 +22423,7 @@
         <v>3.4270443662258372</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>51053052</v>
       </c>
@@ -22152,7 +22447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>51069692</v>
       </c>
@@ -22176,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>51086332</v>
       </c>
@@ -22200,7 +22495,7 @@
         <v>-11.042698513394033</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>51102972</v>
       </c>
@@ -22224,7 +22519,7 @@
         <v>-20.562266197354276</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>51119612</v>
       </c>
@@ -22248,7 +22543,7 @@
         <v>-15.612091001694864</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>51136252</v>
       </c>
@@ -22272,7 +22567,7 @@
         <v>-19.800700782637435</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>51152892</v>
       </c>
@@ -22296,7 +22591,7 @@
         <v>-25.893224100372056</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>51169532</v>
       </c>
@@ -22320,7 +22615,7 @@
         <v>-24.370093270938373</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>51186172</v>
       </c>
@@ -22344,7 +22639,7 @@
         <v>-28.177920344522363</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>51202812</v>
       </c>
@@ -22368,7 +22663,7 @@
         <v>-25.893224100371949</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>51219452</v>
       </c>
@@ -22392,7 +22687,7 @@
         <v>-17.13522183112844</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>51236092</v>
       </c>
@@ -22416,7 +22711,7 @@
         <v>-15.992873709053232</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>51252732</v>
       </c>
@@ -22440,7 +22735,7 @@
         <v>-14.850525586977932</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>51269372</v>
       </c>
@@ -22464,7 +22759,7 @@
         <v>-8.7580022692434021</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>51286012</v>
       </c>
@@ -22488,7 +22783,7 @@
         <v>-4.9501751956593054</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>51302652</v>
       </c>
@@ -22512,7 +22807,7 @@
         <v>-3.4270443662257306</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>51319292</v>
       </c>
@@ -22536,7 +22831,7 @@
         <v>-2.2846962441504157</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>51335932</v>
       </c>
@@ -22560,7 +22855,7 @@
         <v>-1.1423481220752079</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>51352572</v>
       </c>
@@ -22584,7 +22879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>51369212</v>
       </c>
@@ -22608,7 +22903,7 @@
         <v>11.042698513393818</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>51385852</v>
       </c>
@@ -22632,7 +22927,7 @@
         <v>28.17792034452247</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>51402492</v>
       </c>
@@ -22656,7 +22951,7 @@
         <v>28.17792034452247</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>51419132</v>
       </c>
@@ -22680,7 +22975,7 @@
         <v>18.277569953203752</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>51435772</v>
       </c>
@@ -22704,7 +22999,7 @@
         <v>19.419918075279067</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>51452412</v>
       </c>
@@ -22728,7 +23023,7 @@
         <v>29.320268466597572</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>51469052</v>
       </c>
@@ -22752,7 +23047,7 @@
         <v>29.701051173956046</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>51485692</v>
       </c>
@@ -22776,7 +23071,7 @@
         <v>24.75087597829674</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>51502332</v>
       </c>
@@ -22800,7 +23095,7 @@
         <v>20.56226619735417</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>51518972</v>
       </c>
@@ -22824,7 +23119,7 @@
         <v>13.327394757544448</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>51535612</v>
       </c>
@@ -22848,7 +23143,7 @@
         <v>8.7580022692435104</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>51552252</v>
       </c>
@@ -22872,7 +23167,7 @@
         <v>7.6156541471683017</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>51568892</v>
       </c>
@@ -22896,7 +23191,7 @@
         <v>4.9501751956592397</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>51585532</v>
       </c>
@@ -22920,7 +23215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>51602172</v>
       </c>
@@ -22944,7 +23239,7 @@
         <v>-4.9501751956593054</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>51618812</v>
       </c>
@@ -22968,7 +23263,7 @@
         <v>-8.7580022692435104</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>51635452</v>
       </c>
@@ -22992,7 +23287,7 @@
         <v>-20.94304890471275</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>51652092</v>
       </c>
@@ -23016,7 +23311,7 @@
         <v>-36.935922613765982</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>51668732</v>
       </c>
@@ -23040,7 +23335,7 @@
         <v>-46.455490297726115</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>51685372</v>
       </c>
@@ -23064,7 +23359,7 @@
         <v>-58.640536933195357</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>51702012</v>
       </c>
@@ -23088,7 +23383,7 @@
         <v>-55.213492566969627</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>51718652</v>
       </c>
@@ -23112,7 +23407,7 @@
         <v>-36.935922613765875</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>51735292</v>
       </c>
@@ -23136,7 +23431,7 @@
         <v>-49.120969249235117</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>51751932</v>
       </c>
@@ -23160,7 +23455,7 @@
         <v>-70.064018153947643</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>51768572</v>
       </c>
@@ -23184,7 +23479,7 @@
         <v>-68.921670031872338</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>51785212</v>
       </c>
@@ -23208,7 +23503,7 @@
         <v>-78.441237715832798</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>51801852</v>
       </c>
@@ -23232,7 +23527,7 @@
         <v>-77.298889593757579</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>51818492</v>
       </c>
@@ -23256,7 +23551,7 @@
         <v>-50.263317371310322</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>51835132</v>
       </c>
@@ -23280,7 +23575,7 @@
         <v>-49.12096924923501</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>51851772</v>
       </c>
@@ -23304,7 +23599,7 @@
         <v>-57.878971518478465</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>51868412</v>
       </c>
@@ -23328,7 +23623,7 @@
         <v>-46.455490297726278</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>51885052</v>
       </c>
@@ -23352,7 +23647,7 @@
         <v>-37.697488028482212</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>51901692</v>
       </c>
@@ -23376,7 +23671,7 @@
         <v>-31.985747418106463</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>51918332</v>
       </c>
@@ -23400,7 +23695,7 @@
         <v>-22.085397026787906</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>51934972</v>
       </c>
@@ -23424,7 +23719,7 @@
         <v>-9.9003503913187174</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>51951612</v>
       </c>
@@ -23448,7 +23743,7 @@
         <v>-1.5231308294336283</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>51968252</v>
       </c>
@@ -23472,7 +23767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>51984892</v>
       </c>
@@ -23496,7 +23791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>52001532</v>
       </c>
@@ -23520,7 +23815,7 @@
         <v>15.992873709053285</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>52018172</v>
       </c>
@@ -23544,7 +23839,7 @@
         <v>36.935922613765875</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>52034812</v>
       </c>
@@ -23568,7 +23863,7 @@
         <v>54.071144444894365</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>52051452</v>
       </c>
@@ -23592,7 +23887,7 @@
         <v>72.348714398098124</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>52068092</v>
       </c>
@@ -23616,7 +23911,7 @@
         <v>71.206366276022905</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>52084732</v>
       </c>
@@ -23640,7 +23935,7 @@
         <v>52.92879632281921</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>52101372</v>
       </c>
@@ -23664,7 +23959,7 @@
         <v>60.163667762629039</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>52118012</v>
       </c>
@@ -23688,7 +23983,7 @@
         <v>85.676109155642621</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>52134652</v>
       </c>
@@ -23712,7 +24007,7 @@
         <v>77.29888959375748</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>52151292</v>
       </c>
@@ -23736,7 +24031,7 @@
         <v>50.263317371310215</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>52167932</v>
       </c>
@@ -23760,7 +24055,7 @@
         <v>30.462616588672585</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>52184572</v>
       </c>
@@ -23784,7 +24079,7 @@
         <v>18.658352660562226</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>52201212</v>
       </c>
@@ -23808,7 +24103,7 @@
         <v>11.042698513393818</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>52217852</v>
       </c>
@@ -23832,7 +24127,7 @@
         <v>7.2348714398098277</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>52234492</v>
       </c>
@@ -23856,7 +24151,7 @@
         <v>3.8078270735842041</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>52251132</v>
       </c>
@@ -23880,7 +24175,7 @@
         <v>1.1423481220752079</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>52267772</v>
       </c>
@@ -23904,7 +24199,7 @@
         <v>6.349072690454979</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="11"/>
     </row>
   </sheetData>
@@ -23917,26 +24212,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7189C96-DF02-FD4B-8F50-F3EE187D16C6}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="3"/>
-    <col min="5" max="5" width="11.54296875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="3"/>
+    <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1"/>
@@ -23949,7 +24244,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -23982,7 +24277,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
         <v>100</v>
       </c>
@@ -24016,7 +24311,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
         <v>100</v>
       </c>
@@ -24050,7 +24345,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
         <v>100</v>
       </c>
@@ -24084,7 +24379,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <v>100</v>
       </c>
@@ -24118,7 +24413,7 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="43">
         <v>100</v>
       </c>
@@ -24149,7 +24444,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>100</v>
       </c>
@@ -24189,7 +24484,7 @@
       </c>
       <c r="T9" s="32"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <v>100</v>
       </c>
@@ -24233,7 +24528,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>100</v>
       </c>
@@ -24283,7 +24578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>100</v>
       </c>
@@ -24334,7 +24629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <v>100</v>
       </c>
@@ -24385,7 +24680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>200</v>
       </c>
@@ -24435,7 +24730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>200</v>
       </c>
@@ -24486,7 +24781,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>200</v>
       </c>
@@ -24537,7 +24832,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>200</v>
       </c>
@@ -24588,7 +24883,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>200</v>
       </c>
@@ -24639,7 +24934,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>200</v>
       </c>
@@ -24690,7 +24985,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>200</v>
       </c>
@@ -24741,7 +25036,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>200</v>
       </c>
@@ -24773,7 +25068,7 @@
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>200</v>
       </c>
@@ -24805,7 +25100,7 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>200</v>
       </c>
@@ -24836,7 +25131,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="43">
         <v>300</v>
       </c>
@@ -24867,7 +25162,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
         <v>300</v>
       </c>
@@ -24898,7 +25193,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
         <v>300</v>
       </c>
@@ -24929,7 +25224,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <v>300</v>
       </c>
@@ -24960,7 +25255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
         <v>300</v>
       </c>
@@ -24991,7 +25286,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <v>300</v>
       </c>
@@ -25022,7 +25317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="43">
         <v>300</v>
       </c>
@@ -25053,7 +25348,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>300</v>
       </c>
@@ -25084,7 +25379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="43">
         <v>300</v>
       </c>
@@ -25115,7 +25410,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="43">
         <v>300</v>
       </c>
@@ -25146,7 +25441,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>400</v>
       </c>
@@ -25177,7 +25472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>400</v>
       </c>
@@ -25208,7 +25503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>400</v>
       </c>
@@ -25239,7 +25534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>400</v>
       </c>
@@ -25270,7 +25565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>400</v>
       </c>
@@ -25301,7 +25596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>400</v>
       </c>
@@ -25332,7 +25627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>400</v>
       </c>
@@ -25363,7 +25658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>400</v>
       </c>
@@ -25394,7 +25689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>400</v>
       </c>
@@ -25425,7 +25720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>400</v>
       </c>
@@ -25455,8 +25750,17 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="43">
         <v>500</v>
       </c>
@@ -25486,8 +25790,17 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>20</v>
+      </c>
+      <c r="N44" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="43">
         <v>500</v>
       </c>
@@ -25517,8 +25830,17 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>20</v>
+      </c>
+      <c r="N45" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
         <v>500</v>
       </c>
@@ -25548,8 +25870,17 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>20</v>
+      </c>
+      <c r="N46" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
         <v>500</v>
       </c>
@@ -25579,8 +25910,17 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>20</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
         <v>500</v>
       </c>
@@ -25610,8 +25950,17 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>20</v>
+      </c>
+      <c r="N48" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <v>500</v>
       </c>
@@ -25641,8 +25990,17 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>20</v>
+      </c>
+      <c r="N49" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="43">
         <v>500</v>
       </c>
@@ -25672,8 +26030,17 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L50" s="3">
+        <v>100</v>
+      </c>
+      <c r="M50" s="3">
+        <v>20</v>
+      </c>
+      <c r="N50" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="43">
         <v>500</v>
       </c>
@@ -25703,8 +26070,17 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L51" s="3">
+        <v>100</v>
+      </c>
+      <c r="M51" s="3">
+        <v>21</v>
+      </c>
+      <c r="N51" s="3">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="43">
         <v>500</v>
       </c>
@@ -25734,8 +26110,17 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>20</v>
+      </c>
+      <c r="N52" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
         <v>500</v>
       </c>
@@ -25765,8 +26150,17 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L53" s="3">
+        <v>100</v>
+      </c>
+      <c r="M53" s="3">
+        <v>19</v>
+      </c>
+      <c r="N53" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>600</v>
       </c>
@@ -25797,7 +26191,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>600</v>
       </c>
@@ -25828,7 +26222,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>600</v>
       </c>
@@ -25859,7 +26253,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>600</v>
       </c>
@@ -25890,7 +26284,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>600</v>
       </c>
@@ -25921,7 +26315,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>600</v>
       </c>
@@ -25952,7 +26346,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>600</v>
       </c>
@@ -25983,7 +26377,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>600</v>
       </c>
@@ -26014,7 +26408,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>600</v>
       </c>
@@ -26045,7 +26439,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>600</v>
       </c>
@@ -26076,7 +26470,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="43">
         <v>700</v>
       </c>
@@ -26107,7 +26501,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="43">
         <v>700</v>
       </c>
@@ -26138,7 +26532,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
         <v>700</v>
       </c>
@@ -26169,7 +26563,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
         <v>700</v>
       </c>
@@ -26200,7 +26594,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
         <v>700</v>
       </c>
@@ -26231,7 +26625,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="43">
         <v>700</v>
       </c>
@@ -26262,7 +26656,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="43">
         <v>700</v>
       </c>
@@ -26293,7 +26687,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="43">
         <v>700</v>
       </c>
@@ -26324,7 +26718,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="43">
         <v>700</v>
       </c>
@@ -26355,7 +26749,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="43">
         <v>700</v>
       </c>
@@ -26386,7 +26780,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>800</v>
       </c>
@@ -26417,7 +26811,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>800</v>
       </c>
@@ -26448,7 +26842,7 @@
         <v>-137</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>800</v>
       </c>
@@ -26479,7 +26873,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>800</v>
       </c>
@@ -26510,7 +26904,7 @@
         <v>-124</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>800</v>
       </c>
@@ -26541,7 +26935,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>800</v>
       </c>
@@ -26572,7 +26966,7 @@
         <v>-117</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>800</v>
       </c>
@@ -26603,7 +26997,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="42">
         <v>800</v>
       </c>
@@ -26634,7 +27028,7 @@
         <v>-135</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="42">
         <v>800</v>
       </c>
@@ -26665,7 +27059,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="42">
         <v>800</v>
       </c>
@@ -26696,7 +27090,7 @@
         <v>-94</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="43">
         <v>900</v>
       </c>
@@ -26727,7 +27121,7 @@
         <v>-199</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="43">
         <v>900</v>
       </c>
@@ -26758,7 +27152,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="43">
         <v>900</v>
       </c>
@@ -26789,7 +27183,7 @@
         <v>-175</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="43">
         <v>900</v>
       </c>
@@ -26820,7 +27214,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="43">
         <v>900</v>
       </c>
@@ -26851,7 +27245,7 @@
         <v>-228</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="43">
         <v>900</v>
       </c>
@@ -26882,7 +27276,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="43">
         <v>900</v>
       </c>
@@ -26913,7 +27307,7 @@
         <v>-184</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="43">
         <v>900</v>
       </c>
@@ -26944,7 +27338,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="43">
         <v>900</v>
       </c>
@@ -26975,7 +27369,7 @@
         <v>-258</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="43">
         <v>900</v>
       </c>
@@ -27006,7 +27400,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="42">
         <v>1000</v>
       </c>
@@ -27037,7 +27431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="42">
         <v>1000</v>
       </c>
@@ -27068,7 +27462,7 @@
         <v>-137</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="42">
         <v>1000</v>
       </c>
@@ -27099,7 +27493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42">
         <v>1000</v>
       </c>
@@ -27130,7 +27524,7 @@
         <v>-134</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42">
         <v>1000</v>
       </c>
@@ -27161,7 +27555,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
         <v>1000</v>
       </c>
@@ -27192,7 +27586,7 @@
         <v>-168</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42">
         <v>1000</v>
       </c>
@@ -27223,7 +27617,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42">
         <v>1000</v>
       </c>
@@ -27254,7 +27648,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42">
         <v>1000</v>
       </c>
@@ -27285,7 +27679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="42">
         <v>1000</v>
       </c>
@@ -27316,12 +27710,12 @@
         <v>-102</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -27334,7 +27728,7 @@
       <c r="J107"/>
       <c r="K107"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -27347,7 +27741,7 @@
       <c r="J108"/>
       <c r="K108"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -27360,7 +27754,7 @@
       <c r="J109"/>
       <c r="K109"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -27373,7 +27767,7 @@
       <c r="J110"/>
       <c r="K110"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -27386,7 +27780,7 @@
       <c r="J111"/>
       <c r="K111"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -27399,7 +27793,7 @@
       <c r="J112"/>
       <c r="K112"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -27412,7 +27806,7 @@
       <c r="J113"/>
       <c r="K113"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -27425,7 +27819,7 @@
       <c r="J114"/>
       <c r="K114"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -27438,7 +27832,7 @@
       <c r="J115"/>
       <c r="K115"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -27451,7 +27845,7 @@
       <c r="J116"/>
       <c r="K116"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -27464,7 +27858,7 @@
       <c r="J117"/>
       <c r="K117"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -27477,7 +27871,7 @@
       <c r="J118"/>
       <c r="K118"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -27490,7 +27884,7 @@
       <c r="J119"/>
       <c r="K119"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -27503,7 +27897,7 @@
       <c r="J120"/>
       <c r="K120"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -27516,7 +27910,7 @@
       <c r="J121"/>
       <c r="K121"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -27529,7 +27923,7 @@
       <c r="J122"/>
       <c r="K122"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -27542,7 +27936,7 @@
       <c r="J123"/>
       <c r="K123"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -27557,6 +27951,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>